--- a/data/vehicle-fleet/giz/2021_GIZ_TrIGGER_Kenya.xlsx
+++ b/data/vehicle-fleet/giz/2021_GIZ_TrIGGER_Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/projects/aemda/ccg/ccg_team_notebook/giz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\TEAM-Kenya\data\vehicle-fleet\giz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFAAAAF-06D4-1144-9B4F-1D5D17A760ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E0780D-EBAF-426D-BFCE-28C3BB674536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="780" windowWidth="28060" windowHeight="18000" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7043" yWindow="0" windowWidth="19409" windowHeight="11400" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -1780,22 +1780,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="16">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="00#"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="169" formatCode="00#"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="120">
     <font>
@@ -5016,11 +5016,11 @@
     <xf numFmtId="0" fontId="35" fillId="48" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="48" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
@@ -5369,7 +5369,7 @@
     <xf numFmtId="1" fontId="57" fillId="44" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="49" borderId="7"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -5686,40 +5686,40 @@
     <xf numFmtId="0" fontId="29" fillId="46" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="46" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="46" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="17" fillId="54" borderId="7" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5803,57 +5803,57 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="71" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="71" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="72" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
@@ -6371,7 +6371,7 @@
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6393,7 +6393,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -6485,7 +6485,7 @@
     <xf numFmtId="0" fontId="5" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="85" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="91" fillId="58" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6565,18 +6565,18 @@
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="76" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="23" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6587,10 +6587,10 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="94" fillId="55" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="94" fillId="55" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="94" fillId="55" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="94" fillId="55" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -6620,7 +6620,7 @@
     <xf numFmtId="0" fontId="95" fillId="55" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6875,12 +6875,12 @@
     <xf numFmtId="0" fontId="76" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="76" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="75" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="76" fillId="22" borderId="7" xfId="996" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="76" fillId="22" borderId="12" xfId="996" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="24" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="7" xfId="996" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6913,7 +6913,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="58" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="76" fillId="58" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="76" fillId="58" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6935,7 +6935,7 @@
     <xf numFmtId="0" fontId="98" fillId="55" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="15" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="58" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6965,7 +6965,7 @@
     <xf numFmtId="0" fontId="15" fillId="58" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="15" fillId="23" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="15" fillId="23" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6981,30 +6981,30 @@
     <xf numFmtId="0" fontId="15" fillId="58" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="15" fillId="22" borderId="18" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="15" fillId="22" borderId="18" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="97" fillId="23" borderId="47" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="97" fillId="23" borderId="47" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="75" fillId="23" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="15" fillId="22" borderId="56" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="75" fillId="23" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="15" fillId="22" borderId="56" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="97" fillId="23" borderId="50" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="97" fillId="23" borderId="50" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="15" fillId="22" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="15" fillId="22" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="23" borderId="7" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="23" borderId="7" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="23" borderId="12" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="23" borderId="12" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="75" fillId="23" borderId="7" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="15" fillId="23" borderId="6" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="75" fillId="23" borderId="7" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="15" fillId="23" borderId="6" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="15" fillId="24" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7013,35 +7013,35 @@
     <xf numFmtId="4" fontId="15" fillId="24" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="95" fillId="55" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="55" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="95" fillId="55" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="95" fillId="55" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="95" fillId="55" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="95" fillId="55" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="55" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="75" fillId="23" borderId="12" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="75" fillId="23" borderId="12" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="95" fillId="55" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="15" fillId="59" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7061,8 +7061,8 @@
     <xf numFmtId="3" fontId="95" fillId="55" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="76" fillId="23" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="23" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="23" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="23" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="95" fillId="55" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7109,20 +7109,20 @@
     <xf numFmtId="0" fontId="75" fillId="58" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="58" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="58" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="76" fillId="58" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="76" fillId="58" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="58" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="22" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="22" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="22" borderId="15" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="22" borderId="15" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="22" borderId="46" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="22" borderId="46" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="15" fillId="23" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="15" fillId="23" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7168,7 +7168,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
@@ -7270,7 +7270,7 @@
     <xf numFmtId="3" fontId="75" fillId="23" borderId="7" xfId="603" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="15" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="76" fillId="23" borderId="7" xfId="603" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7320,7 +7320,7 @@
     <xf numFmtId="4" fontId="15" fillId="24" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="75" fillId="23" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="75" fillId="23" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="60" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7328,16 +7328,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="15" fillId="24" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="174" fontId="15" fillId="24" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="15" fillId="24" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="15" fillId="24" borderId="10" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="15" fillId="24" borderId="10" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="24" borderId="7" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="24" borderId="7" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7346,39 +7346,39 @@
     <xf numFmtId="0" fontId="15" fillId="23" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="24" borderId="12" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="24" borderId="12" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="58" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="59" borderId="42" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="59" borderId="42" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="99" fillId="59" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="99" fillId="59" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="15" fillId="59" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="99" fillId="59" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="15" fillId="59" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="99" fillId="59" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="99" fillId="59" borderId="12" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="15" fillId="59" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="99" fillId="59" borderId="10" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="99" fillId="59" borderId="12" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="99" fillId="59" borderId="10" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="59" borderId="10" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="15" fillId="59" borderId="10" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="15" fillId="59" borderId="10" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="96" fillId="55" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7391,20 +7391,20 @@
     <xf numFmtId="0" fontId="96" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="97" fillId="23" borderId="15" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="97" fillId="23" borderId="15" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="58" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="76" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="76" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="76" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="76" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="76" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="76" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="76" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="76" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="76" fillId="23" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="88" fillId="22" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7413,12 +7413,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7451,8 +7451,8 @@
     <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1168"/>
     <xf numFmtId="4" fontId="75" fillId="23" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1167" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1167" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1168" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7471,7 +7471,7 @@
     <xf numFmtId="0" fontId="14" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="23" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="23" borderId="7" xfId="1167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1170" applyFont="1" applyFill="1"/>
@@ -7493,8 +7493,8 @@
     <xf numFmtId="0" fontId="76" fillId="64" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="76" fillId="64" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="75" fillId="64" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="64" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="76" fillId="64" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="64" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="64" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="75" fillId="64" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="75" fillId="64" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="75" fillId="64" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7508,7 +7508,7 @@
     <xf numFmtId="0" fontId="15" fillId="64" borderId="8" xfId="996" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="76" fillId="64" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="64" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="64" borderId="7" xfId="996" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7523,13 +7523,13 @@
     <xf numFmtId="0" fontId="15" fillId="64" borderId="11" xfId="996" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="76" fillId="64" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="64" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="75" fillId="64" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="75" fillId="64" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="64" borderId="10" xfId="996" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="76" fillId="64" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="76" fillId="64" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="76" fillId="64" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="76" fillId="64" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="76" fillId="64" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7548,7 +7548,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="116" fillId="21" borderId="0" xfId="1171" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="116" fillId="21" borderId="0" xfId="1171" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="65" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7601,7 +7601,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="116" fillId="21" borderId="0" xfId="1171" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="116" fillId="21" borderId="0" xfId="1171" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7628,32 +7628,50 @@
     <xf numFmtId="4" fontId="75" fillId="23" borderId="4" xfId="603" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="93" fillId="23" borderId="88" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="93" fillId="23" borderId="88" xfId="1167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="23" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="23" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="23" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="23" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="97" fillId="59" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="72" borderId="90" xfId="1172"/>
+    <xf numFmtId="0" fontId="102" fillId="58" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="58" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="30" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="31" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="32" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="101" fillId="55" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="55" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="30" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="31" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="32" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7669,65 +7687,74 @@
     <xf numFmtId="0" fontId="94" fillId="55" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="58" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="58" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="55" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="55" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="60" borderId="80" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7738,33 +7765,6 @@
     <xf numFmtId="0" fontId="90" fillId="60" borderId="29" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7783,6 +7783,15 @@
     <xf numFmtId="0" fontId="94" fillId="55" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7794,15 +7803,6 @@
     </xf>
     <xf numFmtId="0" fontId="90" fillId="60" borderId="85" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="55" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8911,7 +8911,7 @@
     <cellStyle name="Pattern 3 3 2" xfId="849" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
     <cellStyle name="Pattern 3 4" xfId="850" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
     <cellStyle name="Pattern 3 4 2" xfId="851" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
-    <cellStyle name="Per cent" xfId="996" builtinId="5"/>
+    <cellStyle name="Percent" xfId="996" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="852" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
     <cellStyle name="Percent 2 2" xfId="853" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
     <cellStyle name="RowLevel_1 2" xfId="854" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
@@ -9077,7 +9077,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9317,7 +9317,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9331,7 +9331,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9601,7 +9601,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9615,7 +9615,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9915,7 +9915,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9929,7 +9929,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10133,7 +10133,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-TZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10148,7 +10148,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10162,7 +10162,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10355,7 +10355,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-TZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10370,7 +10370,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10384,7 +10384,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10629,7 +10629,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10643,7 +10643,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10858,7 +10858,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10872,7 +10872,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11099,7 +11099,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11113,7 +11113,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11337,7 +11337,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11351,7 +11351,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11620,7 +11620,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11634,7 +11634,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11853,7 +11853,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11868,7 +11868,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12169,7 +12169,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12183,7 +12183,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12438,7 +12438,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-TZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="170048128"/>
@@ -12513,7 +12513,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-TZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17262,7 +17262,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Introduction"/>
@@ -17295,7 +17295,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Introduction"/>
@@ -17341,9 +17341,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -17381,9 +17381,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17416,26 +17416,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17468,26 +17451,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17671,11 +17637,11 @@
       <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="33"/>
+    <col min="1" max="1" width="12.46484375" style="33"/>
     <col min="2" max="2" width="16" style="33" customWidth="1"/>
-    <col min="3" max="16384" width="12.5" style="33"/>
+    <col min="3" max="16384" width="12.46484375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="90" customHeight="1">
@@ -17720,7 +17686,7 @@
       <c r="AM1" s="31"/>
       <c r="AN1" s="32"/>
     </row>
-    <row r="3" spans="1:40" ht="19">
+    <row r="3" spans="1:40" ht="18">
       <c r="H3" s="74" t="s">
         <v>316</v>
       </c>
@@ -17728,7 +17694,7 @@
       <c r="J3" s="36"/>
       <c r="K3" s="74"/>
     </row>
-    <row r="4" spans="1:40" ht="16">
+    <row r="4" spans="1:40" ht="15.4">
       <c r="H4" s="73" t="s">
         <v>297</v>
       </c>
@@ -17738,7 +17704,7 @@
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:40" ht="16">
+    <row r="5" spans="1:40" ht="15.4">
       <c r="H5" s="73" t="s">
         <v>298</v>
       </c>
@@ -17748,7 +17714,7 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:40" ht="16">
+    <row r="6" spans="1:40" ht="15.4">
       <c r="H6" s="73" t="s">
         <v>299</v>
       </c>
@@ -17758,7 +17724,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:40" ht="16">
+    <row r="7" spans="1:40" ht="15.4">
       <c r="B7" s="34"/>
       <c r="H7" s="73" t="s">
         <v>300</v>
@@ -17769,7 +17735,7 @@
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="1:40" ht="16">
+    <row r="8" spans="1:40" ht="15.4">
       <c r="H8" s="73" t="s">
         <v>301</v>
       </c>
@@ -17779,7 +17745,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
     </row>
-    <row r="9" spans="1:40" ht="16">
+    <row r="9" spans="1:40" ht="15.4">
       <c r="H9" s="73" t="s">
         <v>302</v>
       </c>
@@ -17799,7 +17765,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
     </row>
-    <row r="11" spans="1:40" ht="16">
+    <row r="11" spans="1:40" ht="15.4">
       <c r="B11" s="35"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -17815,7 +17781,7 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
     </row>
-    <row r="12" spans="1:40" ht="16">
+    <row r="12" spans="1:40" ht="15.4">
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -17831,7 +17797,7 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
     </row>
-    <row r="13" spans="1:40" ht="16">
+    <row r="13" spans="1:40" ht="15.4">
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -17847,7 +17813,7 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:40" ht="16">
+    <row r="14" spans="1:40" ht="15.4">
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -17879,7 +17845,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:40" ht="16">
+    <row r="16" spans="1:40" ht="15.4">
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -18210,7 +18176,7 @@
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
     </row>
-    <row r="58" spans="2:8" ht="16">
+    <row r="58" spans="2:8" ht="15.75">
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -18219,7 +18185,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="2:8" ht="16">
+    <row r="59" spans="2:8" ht="15.75">
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -18228,7 +18194,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="2:8" ht="16">
+    <row r="60" spans="2:8" ht="15.75">
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -18307,14 +18273,14 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.1328125" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18328,12 +18294,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20">
+    <row r="3" spans="1:11" ht="19.5">
       <c r="G3" s="462" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20">
+    <row r="4" spans="1:11" ht="19.5">
       <c r="A4" s="462" t="s">
         <v>491</v>
       </c>
@@ -18352,7 +18318,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="25" customFormat="1" ht="16">
+    <row r="5" spans="1:11" s="25" customFormat="1" ht="15.75">
       <c r="A5" s="25" t="s">
         <v>469</v>
       </c>
@@ -18548,7 +18514,7 @@
       <c r="H12" s="465"/>
       <c r="I12" s="468"/>
     </row>
-    <row r="13" spans="1:11" s="25" customFormat="1" ht="19">
+    <row r="13" spans="1:11" s="25" customFormat="1" ht="18">
       <c r="A13" s="25" t="s">
         <v>480</v>
       </c>
@@ -18581,7 +18547,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="61" t="s">
         <v>489</v>
       </c>
@@ -18599,7 +18565,7 @@
     <row r="15" spans="1:11">
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:11" ht="20">
+    <row r="16" spans="1:11" ht="19.5">
       <c r="A16" s="462" t="s">
         <v>494</v>
       </c>
@@ -18668,22 +18634,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" style="44" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.46484375" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.796875" style="44" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="44" customWidth="1"/>
-    <col min="9" max="10" width="20.5" style="44" customWidth="1"/>
+    <col min="9" max="10" width="20.46484375" style="44" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="44" customWidth="1"/>
+    <col min="12" max="12" width="18.796875" style="44" customWidth="1"/>
+    <col min="13" max="13" width="16.46484375" style="44" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" style="44" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="44"/>
+    <col min="15" max="16384" width="9.1328125" style="44"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18">
@@ -18692,11 +18658,11 @@
     <row r="4" spans="1:18" ht="39" customHeight="1">
       <c r="E4" s="45"/>
     </row>
-    <row r="5" spans="1:18" ht="58" customHeight="1" thickBot="1">
+    <row r="5" spans="1:18" ht="58.05" customHeight="1" thickBot="1">
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
     </row>
-    <row r="6" spans="1:18" s="46" customFormat="1" ht="38.5" customHeight="1">
+    <row r="6" spans="1:18" s="46" customFormat="1" ht="38.549999999999997" customHeight="1">
       <c r="A6" s="617" t="s">
         <v>2</v>
       </c>
@@ -18770,7 +18736,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16">
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="313" t="s">
         <v>215</v>
       </c>
@@ -18790,7 +18756,7 @@
       <c r="Q8" s="372"/>
       <c r="R8" s="372"/>
     </row>
-    <row r="9" spans="1:18" s="46" customFormat="1" ht="16">
+    <row r="9" spans="1:18" s="46" customFormat="1" ht="15.75">
       <c r="A9" s="436" t="str">
         <f>'1A3a Aviation'!$B$2</f>
         <v>Kenya</v>
@@ -18845,7 +18811,7 @@
       <c r="Q9" s="373"/>
       <c r="R9" s="373"/>
     </row>
-    <row r="10" spans="1:18" s="46" customFormat="1" ht="16">
+    <row r="10" spans="1:18" s="46" customFormat="1" ht="15.75">
       <c r="A10" s="436" t="str">
         <f>'1A3a Aviation'!$B$2</f>
         <v>Kenya</v>
@@ -18900,7 +18866,7 @@
       <c r="Q10" s="373"/>
       <c r="R10" s="373"/>
     </row>
-    <row r="11" spans="1:18" s="46" customFormat="1" ht="16">
+    <row r="11" spans="1:18" s="46" customFormat="1" ht="15.75">
       <c r="A11" s="436" t="str">
         <f>'1A3a Aviation'!$B$2</f>
         <v>Kenya</v>
@@ -18955,7 +18921,7 @@
       <c r="Q11" s="373"/>
       <c r="R11" s="373"/>
     </row>
-    <row r="12" spans="1:18" s="46" customFormat="1" ht="16">
+    <row r="12" spans="1:18" s="46" customFormat="1" ht="15.75">
       <c r="A12" s="315"/>
       <c r="B12" s="229"/>
       <c r="C12" s="229"/>
@@ -18973,7 +18939,7 @@
       <c r="Q12" s="373"/>
       <c r="R12" s="373"/>
     </row>
-    <row r="13" spans="1:18" ht="16">
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="313" t="s">
         <v>0</v>
       </c>
@@ -18993,7 +18959,7 @@
       <c r="Q13" s="372"/>
       <c r="R13" s="372"/>
     </row>
-    <row r="14" spans="1:18" s="46" customFormat="1" ht="16">
+    <row r="14" spans="1:18" s="46" customFormat="1" ht="15.75">
       <c r="A14" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19048,7 +19014,7 @@
       <c r="Q14" s="373"/>
       <c r="R14" s="373"/>
     </row>
-    <row r="15" spans="1:18" s="46" customFormat="1" ht="16">
+    <row r="15" spans="1:18" s="46" customFormat="1" ht="15.75">
       <c r="A15" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19103,7 +19069,7 @@
       <c r="Q15" s="373"/>
       <c r="R15" s="373"/>
     </row>
-    <row r="16" spans="1:18" ht="16">
+    <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19158,7 +19124,7 @@
       <c r="Q16" s="372"/>
       <c r="R16" s="372"/>
     </row>
-    <row r="17" spans="1:18" ht="16">
+    <row r="17" spans="1:18" ht="15.75">
       <c r="A17" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19213,7 +19179,7 @@
       <c r="Q17" s="372"/>
       <c r="R17" s="372"/>
     </row>
-    <row r="18" spans="1:18" ht="16">
+    <row r="18" spans="1:18" ht="15.75">
       <c r="A18" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19268,7 +19234,7 @@
       <c r="Q18" s="372"/>
       <c r="R18" s="372"/>
     </row>
-    <row r="19" spans="1:18" ht="16">
+    <row r="19" spans="1:18" ht="15.75">
       <c r="A19" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19323,7 +19289,7 @@
       <c r="Q19" s="372"/>
       <c r="R19" s="372"/>
     </row>
-    <row r="20" spans="1:18" ht="16">
+    <row r="20" spans="1:18" ht="15.75">
       <c r="A20" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19378,7 +19344,7 @@
       <c r="Q20" s="372"/>
       <c r="R20" s="372"/>
     </row>
-    <row r="21" spans="1:18" ht="16">
+    <row r="21" spans="1:18" ht="15.75">
       <c r="A21" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19433,7 +19399,7 @@
       <c r="Q21" s="372"/>
       <c r="R21" s="372"/>
     </row>
-    <row r="22" spans="1:18" ht="16">
+    <row r="22" spans="1:18" ht="15.75">
       <c r="A22" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19488,7 +19454,7 @@
       <c r="Q22" s="372"/>
       <c r="R22" s="372"/>
     </row>
-    <row r="23" spans="1:18" ht="16">
+    <row r="23" spans="1:18" ht="15.75">
       <c r="A23" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19543,7 +19509,7 @@
       <c r="Q23" s="372"/>
       <c r="R23" s="372"/>
     </row>
-    <row r="24" spans="1:18" ht="16">
+    <row r="24" spans="1:18" ht="15.75">
       <c r="A24" s="436" t="str">
         <f>'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -19598,7 +19564,7 @@
       <c r="Q24" s="372"/>
       <c r="R24" s="372"/>
     </row>
-    <row r="25" spans="1:18" ht="16">
+    <row r="25" spans="1:18" ht="15.75">
       <c r="A25" s="315"/>
       <c r="B25" s="229"/>
       <c r="C25" s="229"/>
@@ -19616,7 +19582,7 @@
       <c r="Q25" s="372"/>
       <c r="R25" s="372"/>
     </row>
-    <row r="26" spans="1:18" ht="16">
+    <row r="26" spans="1:18" ht="15.75">
       <c r="A26" s="313" t="s">
         <v>333</v>
       </c>
@@ -19636,7 +19602,7 @@
       <c r="Q26" s="372"/>
       <c r="R26" s="372"/>
     </row>
-    <row r="27" spans="1:18" ht="16">
+    <row r="27" spans="1:18" ht="15.75">
       <c r="A27" s="436" t="str">
         <f>'1A3c Railways'!$B$2</f>
         <v>Kenya</v>
@@ -19691,7 +19657,7 @@
       <c r="Q27" s="372"/>
       <c r="R27" s="372"/>
     </row>
-    <row r="28" spans="1:18" ht="16">
+    <row r="28" spans="1:18" ht="15.75">
       <c r="A28" s="436" t="str">
         <f>'1A3c Railways'!$B$2</f>
         <v>Kenya</v>
@@ -19746,7 +19712,7 @@
       <c r="Q28" s="372"/>
       <c r="R28" s="372"/>
     </row>
-    <row r="29" spans="1:18" ht="16">
+    <row r="29" spans="1:18" ht="15.75">
       <c r="A29" s="315"/>
       <c r="B29" s="229"/>
       <c r="C29" s="229"/>
@@ -19764,7 +19730,7 @@
       <c r="Q29" s="372"/>
       <c r="R29" s="372"/>
     </row>
-    <row r="30" spans="1:18" ht="16">
+    <row r="30" spans="1:18" ht="15.75">
       <c r="A30" s="313" t="s">
         <v>216</v>
       </c>
@@ -19784,7 +19750,7 @@
       <c r="Q30" s="372"/>
       <c r="R30" s="372"/>
     </row>
-    <row r="31" spans="1:18" ht="16">
+    <row r="31" spans="1:18" ht="15.75">
       <c r="A31" s="436" t="str">
         <f>'1A3di(i) Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -19839,7 +19805,7 @@
       <c r="Q31" s="372"/>
       <c r="R31" s="372"/>
     </row>
-    <row r="32" spans="1:18" ht="16">
+    <row r="32" spans="1:18" ht="15.75">
       <c r="A32" s="436" t="str">
         <f>'1A3di(i) Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -19891,7 +19857,7 @@
       <c r="Q32" s="372"/>
       <c r="R32" s="372"/>
     </row>
-    <row r="33" spans="1:18" ht="16">
+    <row r="33" spans="1:18" ht="15.75">
       <c r="A33" s="436" t="str">
         <f>'1A3di(i) Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -19946,7 +19912,7 @@
       <c r="Q33" s="372"/>
       <c r="R33" s="372"/>
     </row>
-    <row r="34" spans="1:18" ht="16">
+    <row r="34" spans="1:18" ht="15.75">
       <c r="A34" s="436" t="str">
         <f>'1A3di(i) Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -20001,7 +19967,7 @@
       <c r="Q34" s="372"/>
       <c r="R34" s="372"/>
     </row>
-    <row r="35" spans="1:18" ht="16">
+    <row r="35" spans="1:18" ht="15.75">
       <c r="A35" s="315"/>
       <c r="B35" s="229"/>
       <c r="C35" s="229"/>
@@ -20019,7 +19985,7 @@
       <c r="Q35" s="372"/>
       <c r="R35" s="372"/>
     </row>
-    <row r="36" spans="1:18" ht="16">
+    <row r="36" spans="1:18" ht="15.75">
       <c r="A36" s="313" t="s">
         <v>334</v>
       </c>
@@ -20039,7 +20005,7 @@
       <c r="Q36" s="372"/>
       <c r="R36" s="372"/>
     </row>
-    <row r="37" spans="1:18" ht="16">
+    <row r="37" spans="1:18" ht="15.75">
       <c r="A37" s="436" t="str">
         <f>'1A3di Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -20094,7 +20060,7 @@
       <c r="Q37" s="372"/>
       <c r="R37" s="372"/>
     </row>
-    <row r="38" spans="1:18" ht="16">
+    <row r="38" spans="1:18" ht="15.75">
       <c r="A38" s="436" t="str">
         <f>'1A3di Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -20149,7 +20115,7 @@
       <c r="Q38" s="372"/>
       <c r="R38" s="372"/>
     </row>
-    <row r="39" spans="1:18" ht="17" thickBot="1">
+    <row r="39" spans="1:18" ht="16.149999999999999" thickBot="1">
       <c r="A39" s="437" t="str">
         <f>'1A3di Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -21602,16 +21568,16 @@
       <selection activeCell="U62" sqref="U62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="44" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="19.46484375" style="44" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="1.5" style="44" customWidth="1"/>
+    <col min="7" max="7" width="1.46484375" style="44" customWidth="1"/>
     <col min="8" max="12" width="15.6640625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="1.5" style="44" customWidth="1"/>
+    <col min="13" max="13" width="1.46484375" style="44" customWidth="1"/>
     <col min="14" max="18" width="15.6640625" style="44" customWidth="1"/>
-    <col min="19" max="19" width="1.5" style="44" customWidth="1"/>
+    <col min="19" max="19" width="1.46484375" style="44" customWidth="1"/>
     <col min="20" max="20" width="15.6640625" style="44" customWidth="1"/>
     <col min="21" max="24" width="15.6640625" customWidth="1"/>
     <col min="25" max="25" width="1" customWidth="1"/>
@@ -21620,10 +21586,10 @@
     <col min="31" max="31" width="19" customWidth="1"/>
     <col min="32" max="32" width="15.6640625" customWidth="1"/>
     <col min="33" max="36" width="15.6640625" style="44" customWidth="1"/>
-    <col min="37" max="16384" width="11.5" style="44"/>
+    <col min="37" max="16384" width="11.46484375" style="44"/>
   </cols>
   <sheetData>
-    <row r="4" spans="8:8" ht="19">
+    <row r="4" spans="8:8" ht="18">
       <c r="H4" s="71"/>
     </row>
     <row r="19" spans="2:36" ht="15.75" customHeight="1"/>
@@ -21792,7 +21758,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="2:36" customFormat="1" ht="16">
+    <row r="27" spans="2:36" customFormat="1" ht="15.75">
       <c r="B27" s="326" t="s">
         <v>91</v>
       </c>
@@ -21859,7 +21825,7 @@
       <c r="AI27" s="328"/>
       <c r="AJ27" s="329"/>
     </row>
-    <row r="28" spans="2:36" customFormat="1" ht="16">
+    <row r="28" spans="2:36" customFormat="1" ht="15.75">
       <c r="B28" s="326" t="s">
         <v>53</v>
       </c>
@@ -21956,7 +21922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:36" customFormat="1" ht="16">
+    <row r="29" spans="2:36" customFormat="1" ht="15.75">
       <c r="B29" s="326" t="s">
         <v>203</v>
       </c>
@@ -22032,7 +21998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:36" customFormat="1" ht="16">
+    <row r="30" spans="2:36" customFormat="1" ht="15.75">
       <c r="B30" s="326" t="s">
         <v>345</v>
       </c>
@@ -22101,7 +22067,7 @@
       <c r="AI30" s="321"/>
       <c r="AJ30" s="329"/>
     </row>
-    <row r="31" spans="2:36" customFormat="1" ht="16">
+    <row r="31" spans="2:36" customFormat="1" ht="15.75">
       <c r="B31" s="326" t="s">
         <v>210</v>
       </c>
@@ -22159,7 +22125,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:36" customFormat="1" ht="16">
+    <row r="32" spans="2:36" customFormat="1" ht="15.75">
       <c r="B32" s="326" t="s">
         <v>70</v>
       </c>
@@ -22217,7 +22183,7 @@
       <c r="AI32" s="328"/>
       <c r="AJ32" s="329"/>
     </row>
-    <row r="33" spans="2:36" customFormat="1" ht="16">
+    <row r="33" spans="2:36" customFormat="1" ht="15.75">
       <c r="B33" s="326" t="s">
         <v>78</v>
       </c>
@@ -22275,7 +22241,7 @@
       <c r="AI33" s="328"/>
       <c r="AJ33" s="330"/>
     </row>
-    <row r="34" spans="2:36" customFormat="1" ht="17" thickBot="1">
+    <row r="34" spans="2:36" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="B34" s="326" t="s">
         <v>288</v>
       </c>
@@ -22551,7 +22517,7 @@
       <c r="AF47" s="341"/>
       <c r="AJ47" s="342"/>
     </row>
-    <row r="48" spans="2:36" customFormat="1" ht="16">
+    <row r="48" spans="2:36" customFormat="1" ht="15.75">
       <c r="B48" s="341"/>
       <c r="F48" s="342"/>
       <c r="H48" s="343"/>
@@ -22621,7 +22587,7 @@
       <c r="AF52" s="341"/>
       <c r="AJ52" s="342"/>
     </row>
-    <row r="53" spans="2:36" customFormat="1" ht="22" thickBot="1">
+    <row r="53" spans="2:36" customFormat="1" ht="21.4" thickBot="1">
       <c r="B53" s="334"/>
       <c r="C53" s="344"/>
       <c r="D53" s="344"/>
@@ -22667,8 +22633,8 @@
       <c r="AI53" s="344"/>
       <c r="AJ53" s="345"/>
     </row>
-    <row r="54" spans="2:36" ht="16" thickBot="1"/>
-    <row r="55" spans="2:36" ht="30" thickBot="1">
+    <row r="54" spans="2:36" ht="14.65" thickBot="1"/>
+    <row r="55" spans="2:36" ht="28.9" thickBot="1">
       <c r="Z55" s="619" t="s">
         <v>500</v>
       </c>
@@ -22694,7 +22660,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="57" spans="2:36" ht="16">
+    <row r="57" spans="2:36" ht="15.75">
       <c r="Z57" s="326" t="s">
         <v>472</v>
       </c>
@@ -22714,7 +22680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="2:36" ht="16">
+    <row r="58" spans="2:36" ht="15.75">
       <c r="Z58" s="326" t="s">
         <v>474</v>
       </c>
@@ -22734,7 +22700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="2:36" ht="16">
+    <row r="59" spans="2:36" ht="15.75">
       <c r="Z59" s="326" t="s">
         <v>475</v>
       </c>
@@ -22748,7 +22714,7 @@
       <c r="AC59" s="321"/>
       <c r="AD59" s="329"/>
     </row>
-    <row r="60" spans="2:36" ht="16">
+    <row r="60" spans="2:36" ht="15.75">
       <c r="Z60" s="326" t="s">
         <v>476</v>
       </c>
@@ -22762,7 +22728,7 @@
       <c r="AC60" s="321"/>
       <c r="AD60" s="329"/>
     </row>
-    <row r="61" spans="2:36" ht="16">
+    <row r="61" spans="2:36" ht="15.75">
       <c r="I61" s="406"/>
       <c r="Z61" s="326" t="s">
         <v>477</v>
@@ -22783,7 +22749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="2:36" ht="16">
+    <row r="62" spans="2:36" ht="15.75">
       <c r="I62" s="406"/>
       <c r="Z62" s="326" t="s">
         <v>478</v>
@@ -22798,7 +22764,7 @@
       <c r="AC62" s="328"/>
       <c r="AD62" s="329"/>
     </row>
-    <row r="63" spans="2:36" ht="16">
+    <row r="63" spans="2:36" ht="15.75">
       <c r="Z63" s="326" t="s">
         <v>479</v>
       </c>
@@ -22816,7 +22782,7 @@
       <c r="Z64" s="341"/>
       <c r="AD64" s="342"/>
     </row>
-    <row r="65" spans="26:30" ht="17" thickBot="1">
+    <row r="65" spans="26:30" ht="16.149999999999999" thickBot="1">
       <c r="Z65" s="521" t="s">
         <v>503</v>
       </c>
@@ -22863,21 +22829,21 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="23.1328125" style="44" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="44" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="36.46484375" style="44" customWidth="1"/>
     <col min="5" max="5" width="15" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="44"/>
+    <col min="6" max="16384" width="11.46484375" style="44"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="59.5" customHeight="1"/>
+    <row r="4" spans="1:10" ht="59.55" customHeight="1"/>
     <row r="5" spans="1:10">
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:10" ht="16">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="622" t="s">
         <v>2</v>
       </c>
@@ -22897,7 +22863,7 @@
       <c r="G6" s="622"/>
       <c r="H6" s="622"/>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="622"/>
       <c r="B7" s="622"/>
       <c r="C7" s="616"/>
@@ -22915,7 +22881,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="212" t="str">
         <f>+'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -22947,7 +22913,7 @@
         <v>2246.1872604919058</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="212" t="str">
         <f>+'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -22979,7 +22945,7 @@
         <v>726.78989379598238</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="212" t="str">
         <f>+'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -23011,7 +22977,7 @@
         <v>3201.4883582957591</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="212" t="str">
         <f>+'1A3b Road'!$B$2</f>
         <v>Kenya</v>
@@ -23043,7 +23009,7 @@
         <v>858.39718061595772</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="212" t="str">
         <f>+'1A3a Aviation'!$B$2</f>
         <v>Kenya</v>
@@ -23075,7 +23041,7 @@
         <v>199.90989374935</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="212" t="str">
         <f>+'1A3c Railways'!$B$2</f>
         <v>Kenya</v>
@@ -23107,7 +23073,7 @@
         <v>131.26221688500002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="212" t="str">
         <f>+'1A3di Maritime'!$B$2</f>
         <v>Kenya</v>
@@ -23139,7 +23105,7 @@
         <v>5425.1869363759515</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="212"/>
       <c r="B15" s="212"/>
       <c r="C15" s="198" t="s">
@@ -23193,31 +23159,31 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="44" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="44" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="44" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="44" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="33.796875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="11.46484375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="18.46484375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="18.1328125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="19.46484375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="2.796875" style="44" customWidth="1"/>
     <col min="11" max="11" width="25" style="44" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" style="44" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="44" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" style="44" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="44" customWidth="1"/>
-    <col min="18" max="18" width="19.5" style="44" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="44"/>
+    <col min="13" max="13" width="20.1328125" style="44" customWidth="1"/>
+    <col min="14" max="14" width="13.46484375" style="44" customWidth="1"/>
+    <col min="15" max="15" width="20.1328125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="17.796875" style="44" customWidth="1"/>
+    <col min="17" max="17" width="11.46484375" style="44" customWidth="1"/>
+    <col min="18" max="18" width="19.46484375" style="44" customWidth="1"/>
+    <col min="19" max="19" width="11.46484375" style="44"/>
   </cols>
   <sheetData>
-    <row r="17" spans="2:18" ht="16" thickBot="1"/>
-    <row r="18" spans="2:18" ht="21" thickBot="1">
+    <row r="17" spans="2:18" ht="14.65" thickBot="1"/>
+    <row r="18" spans="2:18" ht="19.899999999999999" thickBot="1">
       <c r="B18" s="562" t="s">
         <v>363</v>
       </c>
@@ -23239,7 +23205,7 @@
       <c r="Q18" s="563"/>
       <c r="R18" s="564"/>
     </row>
-    <row r="19" spans="2:18" ht="51">
+    <row r="19" spans="2:18" ht="47.25">
       <c r="B19" s="237" t="s">
         <v>9</v>
       </c>
@@ -23289,7 +23255,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16">
+    <row r="20" spans="2:18" ht="15.75">
       <c r="B20" s="352"/>
       <c r="C20" s="351"/>
       <c r="D20" s="351" t="s">
@@ -23323,7 +23289,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="17">
+    <row r="21" spans="2:18" ht="15.75">
       <c r="B21" s="374" t="s">
         <v>365</v>
       </c>
@@ -23358,7 +23324,7 @@
       <c r="Q21" s="185"/>
       <c r="R21" s="322"/>
     </row>
-    <row r="22" spans="2:18" ht="17">
+    <row r="22" spans="2:18" ht="15.75">
       <c r="B22" s="374" t="s">
         <v>366</v>
       </c>
@@ -23393,7 +23359,7 @@
       <c r="Q22" s="185"/>
       <c r="R22" s="322"/>
     </row>
-    <row r="23" spans="2:18" ht="17">
+    <row r="23" spans="2:18" ht="15.75">
       <c r="B23" s="374" t="s">
         <v>366</v>
       </c>
@@ -23428,7 +23394,7 @@
       <c r="Q23" s="185"/>
       <c r="R23" s="322"/>
     </row>
-    <row r="24" spans="2:18" ht="17">
+    <row r="24" spans="2:18" ht="15.75">
       <c r="B24" s="374" t="s">
         <v>366</v>
       </c>
@@ -23463,7 +23429,7 @@
       <c r="Q24" s="185"/>
       <c r="R24" s="238"/>
     </row>
-    <row r="25" spans="2:18" ht="17">
+    <row r="25" spans="2:18" ht="15.75">
       <c r="B25" s="239" t="s">
         <v>333</v>
       </c>
@@ -23498,7 +23464,7 @@
       <c r="Q25" s="185"/>
       <c r="R25" s="238"/>
     </row>
-    <row r="26" spans="2:18" ht="17">
+    <row r="26" spans="2:18" ht="15.75">
       <c r="B26" s="374" t="s">
         <v>373</v>
       </c>
@@ -23533,7 +23499,7 @@
       <c r="Q26" s="185"/>
       <c r="R26" s="238"/>
     </row>
-    <row r="27" spans="2:18" ht="17">
+    <row r="27" spans="2:18" ht="15.75">
       <c r="B27" s="374" t="s">
         <v>365</v>
       </c>
@@ -23916,7 +23882,7 @@
       <c r="K85" s="332"/>
       <c r="R85" s="333"/>
     </row>
-    <row r="86" spans="2:18" ht="16" thickBot="1">
+    <row r="86" spans="2:18" ht="14.65" thickBot="1">
       <c r="B86" s="348"/>
       <c r="C86" s="349"/>
       <c r="D86" s="349"/>
@@ -23955,13 +23921,13 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="76" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="31.796875" style="76" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="76" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="76" customWidth="1"/>
-    <col min="5" max="13" width="12.1640625" style="76" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="76" customWidth="1"/>
+    <col min="5" max="13" width="12.1328125" style="76" customWidth="1"/>
     <col min="14" max="16384" width="10.33203125" style="76"/>
   </cols>
   <sheetData>
@@ -23970,7 +23936,7 @@
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1"/>
     <row r="3" spans="1:13" ht="26.25" customHeight="1"/>
-    <row r="4" spans="1:13" ht="26.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" ht="26.55" customHeight="1" thickBot="1">
       <c r="A4" s="397"/>
       <c r="B4" s="397"/>
       <c r="C4" s="397"/>
@@ -23982,7 +23948,7 @@
       <c r="A5" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="578"/>
+      <c r="B5" s="589"/>
       <c r="C5" s="240" t="s">
         <v>388</v>
       </c>
@@ -23993,17 +23959,17 @@
         <v>161</v>
       </c>
       <c r="F5" s="577"/>
-      <c r="G5" s="578"/>
+      <c r="G5" s="589"/>
       <c r="H5" s="579" t="s">
         <v>162</v>
       </c>
       <c r="I5" s="577"/>
-      <c r="J5" s="578"/>
+      <c r="J5" s="589"/>
       <c r="K5" s="579" t="s">
         <v>163</v>
       </c>
       <c r="L5" s="577"/>
-      <c r="M5" s="580"/>
+      <c r="M5" s="578"/>
     </row>
     <row r="6" spans="1:13" customFormat="1" ht="66.75" customHeight="1">
       <c r="A6" s="627" t="s">
@@ -24826,28 +24792,28 @@
       <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="76" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="76" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="76" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" style="76" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" style="76" customWidth="1"/>
+    <col min="3" max="3" width="28.46484375" style="76" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" style="76" customWidth="1"/>
     <col min="5" max="5" width="19" style="76" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="76" customWidth="1"/>
+    <col min="6" max="6" width="25.46484375" style="76" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" style="76" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="76"/>
-    <col min="9" max="9" width="11.83203125" style="76" customWidth="1"/>
+    <col min="8" max="8" width="12.46484375" style="76"/>
+    <col min="9" max="9" width="11.796875" style="76" customWidth="1"/>
     <col min="10" max="10" width="20.33203125" style="76" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="79" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="76" customWidth="1"/>
-    <col min="13" max="14" width="7.5" style="76" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.46484375" style="76" customWidth="1"/>
+    <col min="13" max="14" width="7.46484375" style="76" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" style="76" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="76" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.6640625" style="76" customWidth="1"/>
     <col min="18" max="18" width="29" style="76" customWidth="1"/>
-    <col min="19" max="19" width="30.1640625" style="76" customWidth="1"/>
+    <col min="19" max="19" width="30.1328125" style="76" customWidth="1"/>
     <col min="20" max="20" width="26.6640625" style="76" customWidth="1"/>
-    <col min="21" max="16384" width="12.5" style="76"/>
+    <col min="21" max="16384" width="12.46484375" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="77.25" customHeight="1">
@@ -32746,7 +32712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="17" thickBot="1">
+    <row r="163" spans="1:15" ht="16.149999999999999" thickBot="1">
       <c r="A163" s="411" t="str">
         <f t="shared" si="11"/>
         <v>MG64</v>
@@ -32814,17 +32780,17 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="12" width="11.5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="5.1328125" customWidth="1"/>
+    <col min="11" max="12" width="11.46484375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="16" thickBot="1"/>
-    <row r="3" spans="1:13" ht="16">
+    <row r="2" spans="1:13" ht="14.65" thickBot="1"/>
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="174"/>
       <c r="B3" s="252" t="s">
         <v>187</v>
@@ -32843,7 +32809,7 @@
       <c r="L3" s="634"/>
       <c r="M3" s="635"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="174" t="s">
         <v>433</v>
       </c>
@@ -32864,7 +32830,7 @@
       <c r="L4" s="637"/>
       <c r="M4" s="638"/>
     </row>
-    <row r="5" spans="1:13" ht="34">
+    <row r="5" spans="1:13" ht="31.5">
       <c r="A5" s="174" t="s">
         <v>189</v>
       </c>
@@ -32885,7 +32851,7 @@
       <c r="L5" s="637"/>
       <c r="M5" s="638"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="174" t="s">
         <v>52</v>
       </c>
@@ -32906,7 +32872,7 @@
       <c r="L6" s="637"/>
       <c r="M6" s="638"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="175" t="s">
         <v>429</v>
       </c>
@@ -32927,7 +32893,7 @@
       <c r="L7" s="641"/>
       <c r="M7" s="641"/>
     </row>
-    <row r="8" spans="1:13" ht="16">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="175" t="s">
         <v>464</v>
       </c>
@@ -32975,21 +32941,21 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4"/>
-    <col min="5" max="5" width="34.5" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="12.5" style="4"/>
+    <col min="3" max="3" width="33.46484375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" style="4"/>
+    <col min="5" max="5" width="34.46484375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.46484375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1">
+    <row r="1" spans="1:3" ht="16.149999999999999" thickBot="1">
       <c r="A1" s="317"/>
       <c r="C1" s="317"/>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3">
       <c r="A2" s="241" t="s">
         <v>12</v>
       </c>
@@ -33000,7 +32966,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:3">
       <c r="A3" s="374" t="s">
         <v>326</v>
       </c>
@@ -33011,7 +32977,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3">
       <c r="A4" s="374" t="s">
         <v>322</v>
       </c>
@@ -33022,7 +32988,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3">
       <c r="A5" s="374" t="s">
         <v>183</v>
       </c>
@@ -33033,7 +32999,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:3">
       <c r="A6" s="374" t="s">
         <v>185</v>
       </c>
@@ -33044,7 +33010,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3">
       <c r="A7" s="374" t="s">
         <v>184</v>
       </c>
@@ -33055,7 +33021,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3">
       <c r="A8" s="374" t="s">
         <v>184</v>
       </c>
@@ -33066,7 +33032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:3">
       <c r="A9" s="374" t="s">
         <v>184</v>
       </c>
@@ -33077,7 +33043,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:3">
       <c r="A10" s="374" t="s">
         <v>186</v>
       </c>
@@ -33088,7 +33054,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:3">
       <c r="A11" s="374" t="s">
         <v>209</v>
       </c>
@@ -33099,7 +33065,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:3">
       <c r="A12" s="374" t="s">
         <v>209</v>
       </c>
@@ -33110,7 +33076,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3">
       <c r="A13" s="374" t="s">
         <v>330</v>
       </c>
@@ -33121,7 +33087,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:3">
       <c r="A14" s="374" t="s">
         <v>332</v>
       </c>
@@ -33132,7 +33098,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:3">
       <c r="A15" s="374" t="s">
         <v>332</v>
       </c>
@@ -33143,7 +33109,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
+    <row r="16" spans="1:3">
       <c r="A16" s="374" t="s">
         <v>332</v>
       </c>
@@ -33154,7 +33120,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="374" t="s">
         <v>332</v>
       </c>
@@ -33165,7 +33131,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17">
+    <row r="18" spans="1:3">
       <c r="A18" s="374" t="s">
         <v>368</v>
       </c>
@@ -33176,7 +33142,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1">
       <c r="A19" s="376" t="s">
         <v>382</v>
       </c>
@@ -33217,7 +33183,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33235,36 +33201,36 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="335" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="335" customWidth="1"/>
+    <col min="1" max="1" width="28.46484375" style="335" customWidth="1"/>
+    <col min="2" max="2" width="29.46484375" style="335" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="335" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="335" customWidth="1"/>
     <col min="5" max="5" width="12" style="335" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="336" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="335" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="335" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="336" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.46484375" style="335" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="335" customWidth="1"/>
     <col min="9" max="9" width="11" style="336" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="335" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="335" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="335" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" style="335" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="335" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" style="335" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="335" customWidth="1"/>
+    <col min="11" max="11" width="18.46484375" style="335" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="335" customWidth="1"/>
+    <col min="13" max="13" width="17.1328125" style="335" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="335" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" style="335" customWidth="1"/>
     <col min="16" max="16" width="11" style="336" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" style="335" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="335" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" style="335" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" style="335" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="335" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" style="335" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" style="335" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.1640625" style="335" customWidth="1"/>
+    <col min="18" max="18" width="13.796875" style="335" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.46484375" style="335" customWidth="1"/>
+    <col min="20" max="20" width="13.796875" style="335" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.46484375" style="335" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.796875" style="335" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.46484375" style="335" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.1328125" style="335" customWidth="1"/>
     <col min="25" max="26" width="14" style="335" customWidth="1"/>
-    <col min="27" max="29" width="9.1640625" style="335"/>
+    <col min="27" max="29" width="9.1328125" style="335"/>
     <col min="30" max="30" width="16.33203125" style="335" customWidth="1"/>
-    <col min="31" max="16384" width="9.1640625" style="335"/>
+    <col min="31" max="16384" width="9.1328125" style="335"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:147" ht="27.75" customHeight="1" thickBot="1">
@@ -33298,10 +33264,10 @@
       <c r="P3" s="336"/>
     </row>
     <row r="4" spans="1:147" s="19" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A4" s="570" t="s">
+      <c r="A4" s="560" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="571"/>
+      <c r="B4" s="561"/>
       <c r="F4" s="336"/>
       <c r="I4" s="336"/>
       <c r="P4" s="336"/>
@@ -33313,14 +33279,14 @@
       <c r="I5" s="336"/>
       <c r="P5" s="336"/>
     </row>
-    <row r="6" spans="1:147" s="19" customFormat="1" ht="17" thickBot="1">
+    <row r="6" spans="1:147" s="19" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A6" s="20"/>
       <c r="B6" s="335"/>
       <c r="F6" s="336"/>
       <c r="I6" s="336"/>
       <c r="P6" s="336"/>
     </row>
-    <row r="7" spans="1:147" s="19" customFormat="1" ht="21" thickBot="1">
+    <row r="7" spans="1:147" s="19" customFormat="1" ht="19.899999999999999" thickBot="1">
       <c r="A7" s="562" t="s">
         <v>218</v>
       </c>
@@ -33361,51 +33327,51 @@
       <c r="AA7" s="564"/>
     </row>
     <row r="8" spans="1:147" s="22" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="572" t="s">
+      <c r="A8" s="565" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="565" t="s">
+      <c r="B8" s="571" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="574" t="s">
+      <c r="C8" s="567" t="s">
         <v>196</v>
       </c>
       <c r="D8" s="80"/>
-      <c r="E8" s="567" t="s">
+      <c r="E8" s="573" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="568"/>
+      <c r="F8" s="574"/>
       <c r="G8" s="80"/>
-      <c r="H8" s="567" t="s">
+      <c r="H8" s="573" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="568"/>
+      <c r="I8" s="574"/>
       <c r="J8" s="80"/>
-      <c r="K8" s="567" t="s">
+      <c r="K8" s="573" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="569"/>
-      <c r="M8" s="567" t="s">
+      <c r="L8" s="575"/>
+      <c r="M8" s="573" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="569"/>
-      <c r="O8" s="567" t="s">
+      <c r="N8" s="575"/>
+      <c r="O8" s="573" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="568"/>
+      <c r="P8" s="574"/>
       <c r="Q8" s="80"/>
-      <c r="R8" s="567" t="s">
+      <c r="R8" s="573" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="569"/>
-      <c r="T8" s="567" t="s">
+      <c r="S8" s="575"/>
+      <c r="T8" s="573" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="569"/>
-      <c r="V8" s="567" t="s">
+      <c r="U8" s="575"/>
+      <c r="V8" s="573" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="568"/>
+      <c r="W8" s="574"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="360" t="s">
         <v>357</v>
@@ -33413,7 +33379,7 @@
       <c r="Z8" s="361" t="s">
         <v>358</v>
       </c>
-      <c r="AA8" s="560" t="s">
+      <c r="AA8" s="569" t="s">
         <v>30</v>
       </c>
       <c r="AB8" s="21"/>
@@ -33537,10 +33503,10 @@
       <c r="EP8" s="21"/>
       <c r="EQ8" s="21"/>
     </row>
-    <row r="9" spans="1:147" s="24" customFormat="1" ht="35" thickBot="1">
-      <c r="A9" s="573"/>
-      <c r="B9" s="566"/>
-      <c r="C9" s="575"/>
+    <row r="9" spans="1:147" s="24" customFormat="1" ht="31.9" thickBot="1">
+      <c r="A9" s="566"/>
+      <c r="B9" s="572"/>
+      <c r="C9" s="568"/>
       <c r="D9" s="81"/>
       <c r="E9" s="82" t="s">
         <v>38</v>
@@ -33600,7 +33566,7 @@
       <c r="Z9" s="354" t="s">
         <v>243</v>
       </c>
-      <c r="AA9" s="561"/>
+      <c r="AA9" s="570"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
@@ -33869,7 +33835,7 @@
       <c r="Z11" s="327"/>
       <c r="AA11" s="365"/>
     </row>
-    <row r="12" spans="1:147" ht="16">
+    <row r="12" spans="1:147" ht="15.75">
       <c r="A12" s="85" t="s">
         <v>335</v>
       </c>
@@ -34016,7 +33982,7 @@
       <c r="Z13" s="367"/>
       <c r="AA13" s="369"/>
     </row>
-    <row r="14" spans="1:147" ht="16">
+    <row r="14" spans="1:147" ht="15.75">
       <c r="D14" s="25"/>
       <c r="E14" s="338"/>
       <c r="F14" s="28"/>
@@ -34282,6 +34248,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="K7:P7"/>
     <mergeCell ref="A8:A9"/>
@@ -34298,9 +34267,6 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -34319,54 +34285,54 @@
   <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I5" sqref="I5"/>
       <selection pane="topRight" activeCell="I5" sqref="I5"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:F6"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.46484375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.46484375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.46484375" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.46484375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.46484375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.796875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="1.796875" style="3" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="10.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.5" style="3" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.46484375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="1.46484375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.1328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.46484375" style="3" customWidth="1"/>
     <col min="22" max="22" width="11.6640625" style="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="1" customWidth="1"/>
     <col min="24" max="24" width="11.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.46484375" style="1" customWidth="1"/>
     <col min="26" max="26" width="7" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="1.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.46484375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="1.46484375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.46484375" style="1" customWidth="1"/>
     <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.1640625" style="6" customWidth="1"/>
-    <col min="33" max="34" width="12.5" style="6" customWidth="1"/>
+    <col min="31" max="31" width="13.1328125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.1328125" style="6" customWidth="1"/>
+    <col min="33" max="34" width="12.46484375" style="6" customWidth="1"/>
     <col min="35" max="35" width="1.6640625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.1640625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="13.1328125" style="3" customWidth="1"/>
     <col min="37" max="37" width="11" style="3" customWidth="1"/>
     <col min="38" max="38" width="17.33203125" style="3" customWidth="1"/>
     <col min="39" max="39" width="13.6640625" style="3" customWidth="1"/>
     <col min="40" max="40" width="11.33203125" style="3" customWidth="1"/>
-    <col min="41" max="16384" width="11.5" style="1"/>
+    <col min="41" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="27.75" customHeight="1" thickBot="1">
@@ -34434,10 +34400,10 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="570" t="s">
+      <c r="A4" s="560" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="571"/>
+      <c r="B4" s="561"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="102" customHeight="1" thickBot="1">
@@ -34493,52 +34459,52 @@
       <c r="AM6" s="563"/>
       <c r="AN6" s="564"/>
     </row>
-    <row r="7" spans="1:40" s="7" customFormat="1" ht="34">
-      <c r="A7" s="583" t="s">
+    <row r="7" spans="1:40" s="7" customFormat="1" ht="31.5">
+      <c r="A7" s="580" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="581" t="s">
+      <c r="B7" s="582" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="581" t="s">
+      <c r="C7" s="582" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="581" t="s">
+      <c r="D7" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="585" t="s">
+      <c r="E7" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="568" t="s">
+      <c r="F7" s="574" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="99"/>
-      <c r="H7" s="567" t="s">
+      <c r="H7" s="573" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="569"/>
-      <c r="J7" s="588" t="s">
+      <c r="I7" s="575"/>
+      <c r="J7" s="587" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="569"/>
-      <c r="L7" s="588" t="s">
+      <c r="K7" s="575"/>
+      <c r="L7" s="587" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="580"/>
+      <c r="M7" s="578"/>
       <c r="N7" s="99"/>
       <c r="O7" s="100"/>
       <c r="P7" s="396" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="589" t="s">
+      <c r="Q7" s="588" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="568"/>
+      <c r="R7" s="574"/>
       <c r="S7" s="99"/>
       <c r="T7" s="576" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="578"/>
+      <c r="U7" s="589"/>
       <c r="V7" s="579" t="s">
         <v>21</v>
       </c>
@@ -34546,17 +34512,17 @@
       <c r="X7" s="579" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="578"/>
+      <c r="Y7" s="589"/>
       <c r="Z7" s="579" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="580"/>
+      <c r="AA7" s="578"/>
       <c r="AB7" s="101"/>
       <c r="AC7" s="576" t="s">
         <v>24</v>
       </c>
       <c r="AD7" s="577"/>
-      <c r="AE7" s="578"/>
+      <c r="AE7" s="589"/>
       <c r="AF7" s="102" t="s">
         <v>25</v>
       </c>
@@ -34575,15 +34541,15 @@
       <c r="AM7" s="577" t="s">
         <v>8</v>
       </c>
-      <c r="AN7" s="580"/>
-    </row>
-    <row r="8" spans="1:40" s="8" customFormat="1" ht="52" thickBot="1">
-      <c r="A8" s="584"/>
-      <c r="B8" s="582"/>
-      <c r="C8" s="582"/>
-      <c r="D8" s="582"/>
-      <c r="E8" s="586"/>
-      <c r="F8" s="587"/>
+      <c r="AN7" s="578"/>
+    </row>
+    <row r="8" spans="1:40" s="8" customFormat="1" ht="47.65" thickBot="1">
+      <c r="A8" s="581"/>
+      <c r="B8" s="583"/>
+      <c r="C8" s="583"/>
+      <c r="D8" s="583"/>
+      <c r="E8" s="585"/>
+      <c r="F8" s="586"/>
       <c r="G8" s="104"/>
       <c r="H8" s="82" t="s">
         <v>29</v>
@@ -35364,7 +35330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="10" customFormat="1" ht="17" outlineLevel="1" thickBot="1">
+    <row r="15" spans="1:40" s="10" customFormat="1" ht="16.149999999999999" outlineLevel="1" thickBot="1">
       <c r="A15" s="136" t="s">
         <v>323</v>
       </c>
@@ -37981,6 +37947,10 @@
     </row>
     <row r="39" spans="1:40">
       <c r="A39" s="11"/>
+      <c r="H39" s="1">
+        <f>H9/46850</f>
+        <v>11.364055509257399</v>
+      </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
@@ -38153,6 +38123,15 @@
     <filterColumn colId="25" showButton="0"/>
   </autoFilter>
   <mergeCells count="24">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="AJ7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AJ6:AN6"/>
@@ -38168,15 +38147,6 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="AC6:AH6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -38199,29 +38169,29 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="340" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="340" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="340" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="340" customWidth="1"/>
     <col min="5" max="5" width="17" style="340" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="340" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" style="340" customWidth="1"/>
     <col min="7" max="7" width="2.33203125" style="340" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="340" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" style="340" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" style="340" customWidth="1"/>
     <col min="10" max="10" width="2.6640625" style="340" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="340" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="340" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="340" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="11.5" style="340"/>
-    <col min="19" max="19" width="12.83203125" style="340" customWidth="1"/>
+    <col min="11" max="11" width="9.46484375" style="340" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.46484375" style="340" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="340" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="11.46484375" style="340"/>
+    <col min="19" max="19" width="12.796875" style="340" customWidth="1"/>
     <col min="20" max="20" width="3.6640625" style="340" customWidth="1"/>
     <col min="21" max="23" width="12.6640625" style="340" customWidth="1"/>
     <col min="24" max="24" width="2.6640625" style="340" customWidth="1"/>
-    <col min="25" max="26" width="13.5" style="340" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="14.5" style="340" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="16384" width="11.5" style="340"/>
+    <col min="25" max="26" width="13.46484375" style="340" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="14.46484375" style="340" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="16384" width="11.46484375" style="340"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" customHeight="1" thickBot="1">
@@ -38274,23 +38244,23 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="63" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A4" s="570" t="s">
+      <c r="A4" s="560" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="571"/>
+      <c r="B4" s="561"/>
     </row>
     <row r="5" spans="1:28" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A5" s="595"/>
-      <c r="B5" s="595"/>
-      <c r="C5" s="595"/>
+      <c r="A5" s="598"/>
+      <c r="B5" s="598"/>
+      <c r="C5" s="598"/>
       <c r="AA5" s="335"/>
     </row>
-    <row r="6" spans="1:28" ht="21" thickBot="1">
-      <c r="A6" s="590" t="s">
+    <row r="6" spans="1:28" ht="19.899999999999999" thickBot="1">
+      <c r="A6" s="599" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="591"/>
-      <c r="C6" s="592"/>
+      <c r="B6" s="600"/>
+      <c r="C6" s="601"/>
       <c r="D6" s="335"/>
       <c r="E6" s="562" t="s">
         <v>4</v>
@@ -38320,51 +38290,51 @@
       <c r="V6" s="563"/>
       <c r="W6" s="564"/>
       <c r="X6" s="335"/>
-      <c r="Y6" s="590" t="s">
+      <c r="Y6" s="599" t="s">
         <v>364</v>
       </c>
-      <c r="Z6" s="591"/>
-      <c r="AA6" s="591"/>
-      <c r="AB6" s="592"/>
+      <c r="Z6" s="600"/>
+      <c r="AA6" s="600"/>
+      <c r="AB6" s="601"/>
     </row>
     <row r="7" spans="1:28" s="64" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="596" t="s">
+      <c r="A7" s="590" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="592" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="598" t="s">
+      <c r="C7" s="594" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="61"/>
-      <c r="E7" s="600" t="s">
+      <c r="E7" s="596" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="601"/>
+      <c r="F7" s="597"/>
       <c r="G7" s="61"/>
-      <c r="H7" s="593" t="s">
+      <c r="H7" s="591" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="599"/>
+      <c r="I7" s="595"/>
       <c r="J7" s="61"/>
-      <c r="K7" s="593" t="s">
+      <c r="K7" s="591" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="594"/>
-      <c r="M7" s="594"/>
-      <c r="N7" s="594" t="s">
+      <c r="L7" s="593"/>
+      <c r="M7" s="593"/>
+      <c r="N7" s="593" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="594"/>
-      <c r="P7" s="594" t="s">
+      <c r="O7" s="593"/>
+      <c r="P7" s="593" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="594"/>
-      <c r="R7" s="594" t="s">
+      <c r="Q7" s="593"/>
+      <c r="R7" s="593" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="599"/>
+      <c r="S7" s="595"/>
       <c r="T7" s="61"/>
       <c r="U7" s="153" t="s">
         <v>25</v>
@@ -38385,14 +38355,14 @@
       <c r="AA7" s="361" t="s">
         <v>358</v>
       </c>
-      <c r="AB7" s="560" t="s">
+      <c r="AB7" s="569" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="39" customHeight="1">
-      <c r="A8" s="593"/>
-      <c r="B8" s="594"/>
-      <c r="C8" s="599"/>
+      <c r="A8" s="591"/>
+      <c r="B8" s="593"/>
+      <c r="C8" s="595"/>
       <c r="D8" s="61"/>
       <c r="E8" s="355" t="s">
         <v>38</v>
@@ -38455,9 +38425,9 @@
       <c r="AA8" s="354" t="s">
         <v>243</v>
       </c>
-      <c r="AB8" s="561"/>
-    </row>
-    <row r="9" spans="1:28" ht="16">
+      <c r="AB8" s="570"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75">
       <c r="A9" s="381" t="s">
         <v>213</v>
       </c>
@@ -38496,7 +38466,7 @@
       <c r="AA9" s="359"/>
       <c r="AB9" s="363"/>
     </row>
-    <row r="10" spans="1:28" ht="16">
+    <row r="10" spans="1:28" ht="15.75">
       <c r="A10" s="174" t="s">
         <v>333</v>
       </c>
@@ -38574,7 +38544,7 @@
       <c r="AA10" s="331"/>
       <c r="AB10" s="365"/>
     </row>
-    <row r="11" spans="1:28" ht="17" thickBot="1">
+    <row r="11" spans="1:28" ht="16.149999999999999" thickBot="1">
       <c r="A11" s="187" t="s">
         <v>333</v>
       </c>
@@ -38671,17 +38641,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="U6:W6"/>
     <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="Y6:AB6"/>
@@ -38689,6 +38648,17 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="K6:S6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38716,45 +38686,45 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="44" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="44"/>
+    <col min="1" max="1" width="36.796875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="11.46484375" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="44"/>
     <col min="8" max="8" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="44"/>
+    <col min="9" max="9" width="9.1328125" style="44"/>
     <col min="10" max="10" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="7.46484375" style="44" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="44" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.83203125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="13.5" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="1.83203125" style="44" customWidth="1"/>
-    <col min="19" max="21" width="9.1640625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="21.1640625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="11.1640625" style="44" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9.46484375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="8.1328125" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.796875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="13.46484375" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="1.796875" style="44" customWidth="1"/>
+    <col min="19" max="21" width="9.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="21.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="11.1328125" style="44" customWidth="1"/>
+    <col min="24" max="24" width="9.1328125" style="44" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="10" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.1640625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="10.83203125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="10.796875" style="44" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="14.6640625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="1.83203125" style="44" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="1.796875" style="44" customWidth="1"/>
+    <col min="30" max="30" width="12.796875" style="44" customWidth="1" outlineLevel="1"/>
     <col min="31" max="31" width="16" style="44" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="11.6640625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="12.1640625" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="2.5" style="44" customWidth="1"/>
+    <col min="33" max="33" width="12.1328125" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="2.46484375" style="44" customWidth="1"/>
     <col min="35" max="35" width="12" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="11.5" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="11.46484375" style="44" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="11.33203125" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="10.83203125" style="44" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="16384" width="9.1640625" style="44"/>
+    <col min="38" max="38" width="10.796875" style="44" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="16384" width="9.1328125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
@@ -38784,10 +38754,10 @@
       </c>
     </row>
     <row r="4" spans="1:39" s="66" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A4" s="570" t="s">
+      <c r="A4" s="560" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="571"/>
+      <c r="B4" s="561"/>
     </row>
     <row r="5" spans="1:39" s="66" customFormat="1" ht="99.75" customHeight="1" thickBot="1">
       <c r="A5" s="67"/>
@@ -38795,7 +38765,7 @@
       <c r="X5" s="68"/>
       <c r="Z5" s="68"/>
     </row>
-    <row r="6" spans="1:39" ht="21" thickBot="1">
+    <row r="6" spans="1:39" ht="19.899999999999999" thickBot="1">
       <c r="A6" s="562" t="s">
         <v>218</v>
       </c>
@@ -38874,16 +38844,16 @@
       <c r="K7" s="579" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="578"/>
+      <c r="L7" s="589"/>
       <c r="M7" s="577" t="s">
         <v>249</v>
       </c>
-      <c r="N7" s="580"/>
+      <c r="N7" s="578"/>
       <c r="O7" s="81"/>
-      <c r="P7" s="567" t="s">
+      <c r="P7" s="573" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="568"/>
+      <c r="Q7" s="574"/>
       <c r="R7" s="81"/>
       <c r="S7" s="576" t="s">
         <v>250</v>
@@ -38894,15 +38864,15 @@
       <c r="W7" s="579" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="578"/>
+      <c r="X7" s="589"/>
       <c r="Y7" s="577" t="s">
         <v>22</v>
       </c>
-      <c r="Z7" s="578"/>
-      <c r="AA7" s="589" t="s">
+      <c r="Z7" s="589"/>
+      <c r="AA7" s="588" t="s">
         <v>23</v>
       </c>
-      <c r="AB7" s="568"/>
+      <c r="AB7" s="574"/>
       <c r="AC7" s="81"/>
       <c r="AD7" s="241" t="s">
         <v>24</v>
@@ -38930,7 +38900,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="69" customFormat="1" ht="51">
+    <row r="8" spans="1:39" s="69" customFormat="1" ht="47.25">
       <c r="A8" s="603"/>
       <c r="B8" s="605"/>
       <c r="C8" s="607"/>
@@ -39030,7 +39000,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="47" customFormat="1" ht="16">
+    <row r="9" spans="1:39" s="47" customFormat="1" ht="15.75">
       <c r="A9" s="197" t="s">
         <v>287</v>
       </c>
@@ -39112,7 +39082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="47" customFormat="1" ht="16">
+    <row r="10" spans="1:39" s="47" customFormat="1" ht="15.75">
       <c r="A10" s="197" t="s">
         <v>488</v>
       </c>
@@ -39157,7 +39127,7 @@
       <c r="AK10" s="285"/>
       <c r="AL10" s="302"/>
     </row>
-    <row r="11" spans="1:39" s="47" customFormat="1" ht="16">
+    <row r="11" spans="1:39" s="47" customFormat="1" ht="15.75">
       <c r="A11" s="197" t="s">
         <v>274</v>
       </c>
@@ -39204,7 +39174,7 @@
       <c r="AK11" s="285"/>
       <c r="AL11" s="302"/>
     </row>
-    <row r="12" spans="1:39" s="47" customFormat="1" ht="16">
+    <row r="12" spans="1:39" s="47" customFormat="1" ht="15.75">
       <c r="A12" s="197" t="s">
         <v>331</v>
       </c>
@@ -39282,7 +39252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="47" customFormat="1" ht="16">
+    <row r="13" spans="1:39" s="47" customFormat="1" ht="15.75">
       <c r="A13" s="85" t="s">
         <v>331</v>
       </c>
@@ -39372,7 +39342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="47" customFormat="1" ht="16">
+    <row r="14" spans="1:39" s="47" customFormat="1" ht="15.75">
       <c r="A14" s="85" t="s">
         <v>331</v>
       </c>
@@ -39462,7 +39432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="492" customFormat="1" ht="16">
+    <row r="15" spans="1:39" s="492" customFormat="1" ht="15.75">
       <c r="A15" s="478" t="s">
         <v>335</v>
       </c>
@@ -39540,7 +39510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="504" customFormat="1" ht="16">
+    <row r="16" spans="1:39" s="504" customFormat="1" ht="15.75">
       <c r="A16" s="493" t="s">
         <v>335</v>
       </c>
@@ -39630,7 +39600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="504" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="1:38" s="504" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A17" s="505" t="s">
         <v>335</v>
       </c>
@@ -39758,12 +39728,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="S6:AB6"/>
-    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="W7:X7"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="S7:V7"/>
     <mergeCell ref="AA7:AB7"/>
@@ -39773,11 +39742,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:AB6"/>
+    <mergeCell ref="AD6:AG6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -39800,9 +39770,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -39864,17 +39834,17 @@
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="522" t="s">
         <v>550</v>
       </c>
@@ -39983,7 +39953,7 @@
       </c>
       <c r="F6" s="526"/>
     </row>
-    <row r="8" spans="1:8" ht="19">
+    <row r="8" spans="1:8" ht="18">
       <c r="B8" s="25" t="s">
         <v>517</v>
       </c>
@@ -40007,13 +39977,13 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1"/>
-    <row r="11" spans="1:8" ht="17" thickTop="1" thickBot="1">
+    <row r="10" spans="1:8" ht="14.65" thickBot="1"/>
+    <row r="11" spans="1:8" ht="15" thickTop="1" thickBot="1">
       <c r="A11" s="559" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" thickTop="1">
+    <row r="12" spans="1:8" ht="14.65" thickTop="1">
       <c r="A12" t="s">
         <v>551</v>
       </c>
@@ -40035,13 +40005,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="547" t="s">
         <v>518</v>
       </c>
@@ -40356,7 +40326,7 @@
       <c r="H17" s="539"/>
       <c r="I17" s="539"/>
     </row>
-    <row r="18" spans="1:10" ht="19">
+    <row r="18" spans="1:10" ht="18">
       <c r="A18" s="469"/>
       <c r="B18" s="545"/>
       <c r="C18" s="545"/>
@@ -40376,13 +40346,13 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1"/>
-    <row r="20" spans="1:10" ht="17" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="14.65" thickBot="1"/>
+    <row r="20" spans="1:10" ht="15" thickTop="1" thickBot="1">
       <c r="A20" s="559" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickTop="1">
+    <row r="21" spans="1:10" ht="14.65" thickTop="1">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -40413,57 +40383,57 @@
       <selection pane="bottomRight" activeCell="AY21" sqref="AY21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="44" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="27.1328125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" style="44" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="44" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="44" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="26.46484375" style="44" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="44" customWidth="1"/>
+    <col min="9" max="9" width="11.46484375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="15.46484375" style="44" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="44" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="44" customWidth="1"/>
+    <col min="12" max="12" width="12.46484375" style="44" customWidth="1"/>
+    <col min="13" max="13" width="11.46484375" style="44" customWidth="1"/>
     <col min="14" max="14" width="5.6640625" style="44" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="44" customWidth="1"/>
+    <col min="15" max="15" width="11.46484375" style="44" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" style="44" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" style="44" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="44" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" style="44" customWidth="1"/>
-    <col min="20" max="20" width="3.83203125" style="44" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="44" customWidth="1"/>
+    <col min="17" max="17" width="3.796875" style="44" customWidth="1"/>
+    <col min="18" max="18" width="11.796875" style="44" customWidth="1"/>
+    <col min="19" max="19" width="13.796875" style="44" customWidth="1"/>
+    <col min="20" max="20" width="3.796875" style="44" customWidth="1"/>
+    <col min="21" max="21" width="11.46484375" style="44" customWidth="1"/>
     <col min="22" max="22" width="26.6640625" style="44" customWidth="1"/>
-    <col min="23" max="23" width="9.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="44" customWidth="1"/>
-    <col min="25" max="25" width="7.5" style="44" customWidth="1"/>
-    <col min="26" max="26" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="11.5" style="44"/>
+    <col min="23" max="23" width="9.46484375" style="44" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.46484375" style="44" customWidth="1"/>
+    <col min="25" max="25" width="7.46484375" style="44" customWidth="1"/>
+    <col min="26" max="26" width="7.796875" style="44" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="11.46484375" style="44"/>
     <col min="33" max="33" width="3.6640625" style="44" customWidth="1"/>
-    <col min="34" max="34" width="15.5" style="44" customWidth="1"/>
-    <col min="35" max="35" width="15.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.83203125" style="44" customWidth="1"/>
+    <col min="34" max="34" width="15.46484375" style="44" customWidth="1"/>
+    <col min="35" max="35" width="15.46484375" style="44" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.796875" style="44" customWidth="1"/>
     <col min="37" max="37" width="14.6640625" style="44" customWidth="1"/>
-    <col min="38" max="38" width="1.83203125" style="44" customWidth="1"/>
+    <col min="38" max="38" width="1.796875" style="44" customWidth="1"/>
     <col min="39" max="39" width="9.6640625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="13.5" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="11.5" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="12.83203125" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="13.46484375" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="11.46484375" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="12.796875" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="43" max="43" width="12.6640625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="44" max="44" width="12.33203125" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="45" max="45" width="7" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="46" max="46" width="12.33203125" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="47" max="47" width="15" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="14.5" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="14.46484375" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="49" max="49" width="1.6640625" style="44" customWidth="1" collapsed="1"/>
     <col min="50" max="50" width="33.6640625" style="44" customWidth="1"/>
     <col min="51" max="51" width="3.6640625" style="44" customWidth="1"/>
     <col min="52" max="52" width="26" style="44" bestFit="1" customWidth="1"/>
     <col min="53" max="55" width="26" style="44" customWidth="1"/>
-    <col min="56" max="16384" width="11.5" style="44"/>
+    <col min="56" max="16384" width="11.46484375" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="27.75" customHeight="1" thickBot="1">
@@ -40537,21 +40507,21 @@
       </c>
     </row>
     <row r="4" spans="1:55" s="63" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A4" s="570" t="s">
+      <c r="A4" s="560" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="571"/>
+      <c r="B4" s="561"/>
     </row>
     <row r="5" spans="1:55" ht="101.25" customHeight="1" thickBot="1">
-      <c r="A5" s="595"/>
-      <c r="B5" s="595"/>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="595"/>
-    </row>
-    <row r="6" spans="1:55" ht="21" thickBot="1">
+      <c r="A5" s="598"/>
+      <c r="B5" s="598"/>
+      <c r="C5" s="598"/>
+      <c r="D5" s="598"/>
+      <c r="E5" s="598"/>
+      <c r="F5" s="598"/>
+      <c r="G5" s="598"/>
+    </row>
+    <row r="6" spans="1:55" ht="19.899999999999999" thickBot="1">
       <c r="A6" s="562" t="s">
         <v>508</v>
       </c>
@@ -40600,18 +40570,18 @@
       <c r="AJ6" s="563"/>
       <c r="AK6" s="564"/>
       <c r="AL6"/>
-      <c r="AM6" s="609" t="s">
+      <c r="AM6" s="612" t="s">
         <v>8</v>
       </c>
-      <c r="AN6" s="610"/>
-      <c r="AO6" s="610"/>
-      <c r="AP6" s="610"/>
-      <c r="AQ6" s="610"/>
-      <c r="AR6" s="610"/>
-      <c r="AS6" s="610"/>
-      <c r="AT6" s="610"/>
-      <c r="AU6" s="610"/>
-      <c r="AV6" s="611"/>
+      <c r="AN6" s="613"/>
+      <c r="AO6" s="613"/>
+      <c r="AP6" s="613"/>
+      <c r="AQ6" s="613"/>
+      <c r="AR6" s="613"/>
+      <c r="AS6" s="613"/>
+      <c r="AT6" s="613"/>
+      <c r="AU6" s="613"/>
+      <c r="AV6" s="614"/>
       <c r="AX6" s="533" t="s">
         <v>537</v>
       </c>
@@ -40629,70 +40599,70 @@
       </c>
     </row>
     <row r="7" spans="1:55" s="64" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="596" t="s">
+      <c r="A7" s="590" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="592" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="597" t="s">
+      <c r="C7" s="592" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="597" t="s">
+      <c r="D7" s="592" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="597" t="s">
+      <c r="E7" s="592" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="612"/>
-      <c r="G7" s="598"/>
+      <c r="F7" s="608"/>
+      <c r="G7" s="594"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="593" t="s">
+      <c r="I7" s="591" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="594"/>
-      <c r="K7" s="613" t="s">
+      <c r="J7" s="593"/>
+      <c r="K7" s="609" t="s">
         <v>225</v>
       </c>
-      <c r="L7" s="614"/>
+      <c r="L7" s="610"/>
       <c r="M7" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="N7" s="594" t="s">
+      <c r="N7" s="593" t="s">
         <v>227</v>
       </c>
-      <c r="O7" s="594"/>
+      <c r="O7" s="593"/>
       <c r="P7" s="152" t="s">
         <v>228</v>
       </c>
       <c r="Q7" s="18"/>
-      <c r="R7" s="593" t="s">
+      <c r="R7" s="591" t="s">
         <v>229</v>
       </c>
-      <c r="S7" s="599"/>
+      <c r="S7" s="595"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="593" t="s">
+      <c r="U7" s="591" t="s">
         <v>230</v>
       </c>
-      <c r="V7" s="594"/>
-      <c r="W7" s="594" t="s">
+      <c r="V7" s="593"/>
+      <c r="W7" s="593" t="s">
         <v>265</v>
       </c>
-      <c r="X7" s="594"/>
-      <c r="Y7" s="594"/>
-      <c r="Z7" s="594"/>
-      <c r="AA7" s="594" t="s">
+      <c r="X7" s="593"/>
+      <c r="Y7" s="593"/>
+      <c r="Z7" s="593"/>
+      <c r="AA7" s="593" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="594"/>
-      <c r="AC7" s="594" t="s">
+      <c r="AB7" s="593"/>
+      <c r="AC7" s="593" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="594"/>
-      <c r="AE7" s="594" t="s">
+      <c r="AD7" s="593"/>
+      <c r="AE7" s="593" t="s">
         <v>23</v>
       </c>
-      <c r="AF7" s="599"/>
+      <c r="AF7" s="595"/>
       <c r="AG7" s="18"/>
       <c r="AH7" s="153" t="s">
         <v>24</v>
@@ -40710,17 +40680,17 @@
       <c r="AM7" s="603" t="s">
         <v>232</v>
       </c>
-      <c r="AN7" s="608"/>
-      <c r="AO7" s="608"/>
-      <c r="AP7" s="608"/>
-      <c r="AQ7" s="608" t="s">
+      <c r="AN7" s="611"/>
+      <c r="AO7" s="611"/>
+      <c r="AP7" s="611"/>
+      <c r="AQ7" s="611" t="s">
         <v>233</v>
       </c>
-      <c r="AR7" s="608"/>
-      <c r="AS7" s="608" t="s">
+      <c r="AR7" s="611"/>
+      <c r="AS7" s="611" t="s">
         <v>234</v>
       </c>
-      <c r="AT7" s="608"/>
+      <c r="AT7" s="611"/>
       <c r="AU7" s="389" t="s">
         <v>236</v>
       </c>
@@ -40743,11 +40713,11 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="102">
-      <c r="A8" s="593"/>
-      <c r="B8" s="594"/>
-      <c r="C8" s="594"/>
-      <c r="D8" s="594"/>
+    <row r="8" spans="1:55" ht="94.5">
+      <c r="A8" s="591"/>
+      <c r="B8" s="593"/>
+      <c r="C8" s="593"/>
+      <c r="D8" s="593"/>
       <c r="E8" s="154" t="s">
         <v>266</v>
       </c>
@@ -40886,7 +40856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="16">
+    <row r="9" spans="1:55" ht="15.75">
       <c r="A9" s="159" t="s">
         <v>213</v>
       </c>
@@ -40955,7 +40925,7 @@
       <c r="BB9" s="530"/>
       <c r="BC9" s="530"/>
     </row>
-    <row r="10" spans="1:55" ht="19">
+    <row r="10" spans="1:55" ht="18">
       <c r="A10" s="174" t="s">
         <v>207</v>
       </c>
@@ -41087,7 +41057,7 @@
         <v>2.31399168E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="19">
+    <row r="11" spans="1:55" ht="18">
       <c r="A11" s="174" t="s">
         <v>207</v>
       </c>
@@ -41219,7 +41189,7 @@
         <v>5.7849792000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="19">
+    <row r="12" spans="1:55" ht="18">
       <c r="A12" s="174" t="s">
         <v>207</v>
       </c>
@@ -41351,7 +41321,7 @@
         <v>0.19072901119999999</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="19">
+    <row r="13" spans="1:55" ht="18">
       <c r="A13" s="174"/>
       <c r="B13" s="175"/>
       <c r="C13" s="175"/>
@@ -41406,7 +41376,7 @@
       <c r="BB13" s="555"/>
       <c r="BC13" s="555"/>
     </row>
-    <row r="14" spans="1:55" ht="19">
+    <row r="14" spans="1:55" ht="18">
       <c r="A14" s="174" t="s">
         <v>207</v>
       </c>
@@ -41530,7 +41500,7 @@
         <v>8.7681877919999999E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="19">
+    <row r="15" spans="1:55" ht="18">
       <c r="A15" s="174" t="s">
         <v>207</v>
       </c>
@@ -41654,7 +41624,7 @@
         <v>7.4145519629999988E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="19">
+    <row r="16" spans="1:55" ht="18">
       <c r="A16" s="174" t="s">
         <v>207</v>
       </c>
@@ -41767,7 +41737,7 @@
         <v>2.4980591999999997E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="16">
+    <row r="17" spans="1:50" ht="15.75">
       <c r="A17" s="65"/>
       <c r="B17" s="65"/>
       <c r="C17" s="65"/>
@@ -41804,28 +41774,19 @@
       <c r="AJ17" s="65"/>
       <c r="AK17" s="65"/>
     </row>
-    <row r="19" spans="1:50" ht="16" thickBot="1"/>
-    <row r="20" spans="1:50" ht="17" thickTop="1" thickBot="1">
+    <row r="19" spans="1:50" ht="14.65" thickBot="1"/>
+    <row r="20" spans="1:50" ht="15" thickTop="1" thickBot="1">
       <c r="AX20" s="559" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="16" thickTop="1">
+    <row r="21" spans="1:50" ht="14.65" thickTop="1">
       <c r="AX21" s="44" t="s">
         <v>554</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="AE7:AF7"/>
@@ -41842,6 +41803,15 @@
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <phoneticPr fontId="108" type="noConversion"/>
   <hyperlinks>
@@ -41855,9 +41825,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42090,27 +42063,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26C0072D-8C61-41CF-8BA6-9BE56A72138A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474379E8-E25F-4617-90FA-2442CE6DA6E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="29f9fecb-a2e2-46d1-a4c5-f3d81a64ae02"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="35accaf2-c3cf-48a6-bf2c-71bf5406864a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42135,9 +42096,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474379E8-E25F-4617-90FA-2442CE6DA6E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26C0072D-8C61-41CF-8BA6-9BE56A72138A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="29f9fecb-a2e2-46d1-a4c5-f3d81a64ae02"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="35accaf2-c3cf-48a6-bf2c-71bf5406864a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/vehicle-fleet/giz/2021_GIZ_TrIGGER_Kenya.xlsx
+++ b/data/vehicle-fleet/giz/2021_GIZ_TrIGGER_Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\TEAM-Kenya\data\vehicle-fleet\giz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E0780D-EBAF-426D-BFCE-28C3BB674536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56932DD-EA6E-440B-BF2F-4F2C4692BE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7043" yWindow="0" windowWidth="19409" windowHeight="11400" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'(Edited)Spec. Fuel Consumption '!$A$3:$J$163</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1A3b Road'!$A$7:$AH$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1A3b Road'!$A$7:$AI$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">[1]Validation!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">[2]Validation!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'GHG Inventory'!$C$6:$H$7</definedName>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="559">
   <si>
     <t>Road</t>
   </si>
@@ -1773,6 +1773,18 @@
   </si>
   <si>
     <t>Top-down data (fuel data - litres sold) should be obtained at each level of aggregation in order to normalise appropriately and accurately (see columns in red AX:BC)</t>
+  </si>
+  <si>
+    <t>TEAM-TechID</t>
+  </si>
+  <si>
+    <t>TechID</t>
+  </si>
+  <si>
+    <t>640 / 9640</t>
+  </si>
+  <si>
+    <t>700 / 9700</t>
   </si>
 </sst>
 </file>
@@ -6378,7 +6390,7 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="119" fillId="72" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="642">
+  <cellXfs count="644">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7639,21 +7651,30 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="72" borderId="90" xfId="1172"/>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="30" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="32" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="102" fillId="58" borderId="78" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="58" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="30" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="90" fillId="60" borderId="31" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="32" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7678,25 +7699,28 @@
     <xf numFmtId="0" fontId="94" fillId="55" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7705,12 +7729,6 @@
     <xf numFmtId="0" fontId="94" fillId="55" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7726,21 +7744,30 @@
     <xf numFmtId="0" fontId="94" fillId="55" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="80" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="28" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="29" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7753,18 +7780,6 @@
     <xf numFmtId="0" fontId="101" fillId="55" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="80" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="28" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="29" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7783,6 +7798,18 @@
     <xf numFmtId="0" fontId="94" fillId="55" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="94" fillId="55" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="83" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="84" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="60" borderId="85" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="94" fillId="55" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7792,18 +7819,6 @@
     <xf numFmtId="0" fontId="94" fillId="55" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="55" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="83" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="84" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="60" borderId="85" xfId="393" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="98" fillId="55" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7884,6 +7899,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="58" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="97" fillId="23" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1173">
@@ -14801,7 +14819,7 @@
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1006929</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1183821</xdr:rowOff>
@@ -15122,13 +15140,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>9078</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>81648</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>26761</xdr:rowOff>
@@ -15199,14 +15217,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>45358</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>13606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>168908</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>173670</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1275026</xdr:rowOff>
     </xdr:to>
@@ -18663,25 +18681,25 @@
       <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:18" s="46" customFormat="1" ht="38.549999999999997" customHeight="1">
-      <c r="A6" s="617" t="s">
+      <c r="A6" s="618" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="615" t="s">
+      <c r="B6" s="616" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="615" t="s">
+      <c r="C6" s="616" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="615" t="s">
+      <c r="D6" s="616" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="615" t="s">
+      <c r="E6" s="616" t="s">
         <v>381</v>
       </c>
-      <c r="F6" s="615" t="s">
+      <c r="F6" s="616" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="615" t="s">
+      <c r="G6" s="616" t="s">
         <v>196</v>
       </c>
       <c r="H6" s="312" t="s">
@@ -18707,13 +18725,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="46" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="618"/>
-      <c r="B7" s="616"/>
-      <c r="C7" s="616"/>
-      <c r="D7" s="616"/>
-      <c r="E7" s="616"/>
-      <c r="F7" s="616"/>
-      <c r="G7" s="616"/>
+      <c r="A7" s="619"/>
+      <c r="B7" s="617"/>
+      <c r="C7" s="617"/>
+      <c r="D7" s="617"/>
+      <c r="E7" s="617"/>
+      <c r="F7" s="617"/>
+      <c r="G7" s="617"/>
       <c r="H7" s="228" t="s">
         <v>34</v>
       </c>
@@ -18988,27 +19006,27 @@
         <v>44.3</v>
       </c>
       <c r="I14" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
         <v>667.35551421220157</v>
       </c>
       <c r="J14" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
+        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
         <v>2048.7747550763165</v>
       </c>
       <c r="K14" s="431">
-        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
+        <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
         <v>0.97560702622681739</v>
       </c>
       <c r="L14" s="431">
-        <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
         <v>9.460431769472169E-2</v>
       </c>
       <c r="M14" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
         <v>0</v>
       </c>
       <c r="N14" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G14,'1A3b Road'!$A:$A,$E14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="373"/>
@@ -19043,27 +19061,27 @@
         <v>43</v>
       </c>
       <c r="I15" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
         <v>44.694248889887476</v>
       </c>
       <c r="J15" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
+        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
         <v>142.40928523784848</v>
       </c>
       <c r="K15" s="431">
-        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
-        <v>7.4952255388341313E-3</v>
-      </c>
-      <c r="L15" s="431">
         <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
         <v>7.4952255388341313E-3</v>
       </c>
+      <c r="L15" s="431">
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
+        <v>7.4952255388341313E-3</v>
+      </c>
       <c r="M15" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
         <v>0</v>
       </c>
       <c r="N15" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G15,'1A3b Road'!$A:$A,$E15)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="373"/>
@@ -19098,27 +19116,27 @@
         <v>47.3</v>
       </c>
       <c r="I16" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="431">
         <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="431">
+      <c r="K16" s="431">
         <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
         <v>0</v>
       </c>
+      <c r="L16" s="431">
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
+        <v>0</v>
+      </c>
       <c r="M16" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
         <v>0</v>
       </c>
       <c r="N16" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G16,'1A3b Road'!$A:$A,$E16)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="372"/>
@@ -19153,27 +19171,27 @@
         <v>48</v>
       </c>
       <c r="I17" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="431">
         <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="431">
+      <c r="K17" s="431">
         <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
         <v>0</v>
       </c>
+      <c r="L17" s="431">
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
+        <v>0</v>
+      </c>
       <c r="M17" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
         <v>0</v>
       </c>
       <c r="N17" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G17,'1A3b Road'!$A:$A,$E17)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="372"/>
@@ -19208,27 +19226,27 @@
         <v>44.3</v>
       </c>
       <c r="I18" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
         <v>24.56581130574941</v>
       </c>
       <c r="J18" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
+        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
         <v>75.416795050537615</v>
       </c>
       <c r="K18" s="431">
-        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
+        <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
         <v>3.5912759547875067E-2</v>
       </c>
       <c r="L18" s="431">
-        <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
         <v>3.4824494107030366E-3</v>
       </c>
       <c r="M18" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
         <v>0</v>
       </c>
       <c r="N18" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G18,'1A3b Road'!$A:$A,$E18)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="372"/>
@@ -19263,27 +19281,27 @@
         <v>43</v>
       </c>
       <c r="I19" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
         <v>200.41478274300584</v>
       </c>
       <c r="J19" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
+        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
         <v>638.58162225403964</v>
       </c>
       <c r="K19" s="431">
-        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
-        <v>3.360955906600209E-2</v>
-      </c>
-      <c r="L19" s="431">
         <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
         <v>3.360955906600209E-2</v>
       </c>
+      <c r="L19" s="431">
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
+        <v>3.360955906600209E-2</v>
+      </c>
       <c r="M19" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
         <v>0</v>
       </c>
       <c r="N19" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G19,'1A3b Road'!$A:$A,$E19)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="372"/>
@@ -19318,27 +19336,27 @@
         <v>43</v>
       </c>
       <c r="I20" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
         <v>871.12448643981918</v>
       </c>
       <c r="J20" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
+        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
         <v>2775.6639511431958</v>
       </c>
       <c r="K20" s="431">
-        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
-        <v>0.14608757637595765</v>
-      </c>
-      <c r="L20" s="431">
         <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
         <v>0.14608757637595765</v>
       </c>
+      <c r="L20" s="431">
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
+        <v>0.14608757637595765</v>
+      </c>
       <c r="M20" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
         <v>0</v>
       </c>
       <c r="N20" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G20,'1A3b Road'!$A:$A,$E20)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="372"/>
@@ -19373,27 +19391,27 @@
         <v>44.3</v>
       </c>
       <c r="I21" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="431">
         <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="431">
+      <c r="K21" s="431">
         <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
         <v>0</v>
       </c>
+      <c r="L21" s="431">
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
+        <v>0</v>
+      </c>
       <c r="M21" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
         <v>0</v>
       </c>
       <c r="N21" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G21,'1A3b Road'!$A:$A,$E21)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="372"/>
@@ -19428,27 +19446,27 @@
         <v>43</v>
       </c>
       <c r="I22" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
         <v>116.84677186913228</v>
       </c>
       <c r="J22" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
+        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
         <v>372.30886920661618</v>
       </c>
       <c r="K22" s="431">
-        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
-        <v>1.9595203642453481E-2</v>
-      </c>
-      <c r="L22" s="431">
         <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
         <v>1.9595203642453481E-2</v>
       </c>
+      <c r="L22" s="431">
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
+        <v>1.9595203642453481E-2</v>
+      </c>
       <c r="M22" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
         <v>0</v>
       </c>
       <c r="N22" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G22,'1A3b Road'!$A:$A,$E22)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="372"/>
@@ -19483,27 +19501,27 @@
         <v>48</v>
       </c>
       <c r="I23" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="431">
         <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="431">
+      <c r="K23" s="431">
         <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
         <v>0</v>
       </c>
+      <c r="L23" s="431">
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
+        <v>0</v>
+      </c>
       <c r="M23" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
         <v>0</v>
       </c>
       <c r="N23" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G23,'1A3b Road'!$A:$A,$E23)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="372"/>
@@ -19538,27 +19556,27 @@
         <v>44.3</v>
       </c>
       <c r="I24" s="431">
-        <f>+SUMIFS('1A3b Road'!AD:AD,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
+        <f>+SUMIFS('1A3b Road'!AE:AE,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
         <v>270.2456283636277</v>
       </c>
       <c r="J24" s="431">
-        <f>+SUMIFS('1A3b Road'!AF:AF,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
+        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
         <v>829.65137662005327</v>
       </c>
       <c r="K24" s="431">
-        <f>+SUMIFS('1A3b Road'!AG:AG,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
+        <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
         <v>0.53334731354146292</v>
       </c>
       <c r="L24" s="431">
-        <f>+SUMIFS('1A3b Road'!AH:AH,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
+        <f>+SUMIFS('1A3b Road'!AI:AI,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
         <v>5.171852737371762E-2</v>
       </c>
       <c r="M24" s="307">
-        <f>+SUMIFS('1A3b Road'!AM:AM,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
+        <f>+SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
         <v>0</v>
       </c>
       <c r="N24" s="308">
-        <f>SUMIFS('1A3b Road'!AN:AN,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
+        <f>SUMIFS('1A3b Road'!AO:AO,'1A3b Road'!$D:$D,$G24,'1A3b Road'!$A:$A,$E24)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="372"/>
@@ -21613,53 +21631,53 @@
     </row>
     <row r="24" spans="2:36" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="25" spans="2:36" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B25" s="619" t="s">
+      <c r="B25" s="620" t="s">
         <v>341</v>
       </c>
-      <c r="C25" s="620"/>
-      <c r="D25" s="620"/>
-      <c r="E25" s="620"/>
-      <c r="F25" s="621"/>
+      <c r="C25" s="621"/>
+      <c r="D25" s="621"/>
+      <c r="E25" s="621"/>
+      <c r="F25" s="622"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="619" t="s">
+      <c r="H25" s="620" t="s">
         <v>202</v>
       </c>
-      <c r="I25" s="620"/>
-      <c r="J25" s="620"/>
-      <c r="K25" s="620"/>
-      <c r="L25" s="621"/>
+      <c r="I25" s="621"/>
+      <c r="J25" s="621"/>
+      <c r="K25" s="621"/>
+      <c r="L25" s="622"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="619" t="s">
+      <c r="N25" s="620" t="s">
         <v>366</v>
       </c>
-      <c r="O25" s="620"/>
-      <c r="P25" s="620"/>
-      <c r="Q25" s="620"/>
-      <c r="R25" s="621"/>
+      <c r="O25" s="621"/>
+      <c r="P25" s="621"/>
+      <c r="Q25" s="621"/>
+      <c r="R25" s="622"/>
       <c r="S25" s="44"/>
-      <c r="T25" s="619" t="s">
+      <c r="T25" s="620" t="s">
         <v>333</v>
       </c>
-      <c r="U25" s="620"/>
-      <c r="V25" s="620"/>
-      <c r="W25" s="620"/>
-      <c r="X25" s="621"/>
+      <c r="U25" s="621"/>
+      <c r="V25" s="621"/>
+      <c r="W25" s="621"/>
+      <c r="X25" s="622"/>
       <c r="Y25" s="44"/>
-      <c r="Z25" s="619" t="s">
+      <c r="Z25" s="620" t="s">
         <v>331</v>
       </c>
-      <c r="AA25" s="620"/>
-      <c r="AB25" s="620"/>
-      <c r="AC25" s="620"/>
-      <c r="AD25" s="621"/>
+      <c r="AA25" s="621"/>
+      <c r="AB25" s="621"/>
+      <c r="AC25" s="621"/>
+      <c r="AD25" s="622"/>
       <c r="AE25" s="44"/>
-      <c r="AF25" s="619" t="s">
+      <c r="AF25" s="620" t="s">
         <v>335</v>
       </c>
-      <c r="AG25" s="620"/>
-      <c r="AH25" s="620"/>
-      <c r="AI25" s="620"/>
-      <c r="AJ25" s="621"/>
+      <c r="AG25" s="621"/>
+      <c r="AH25" s="621"/>
+      <c r="AI25" s="621"/>
+      <c r="AJ25" s="622"/>
     </row>
     <row r="26" spans="2:36" customFormat="1" ht="51" customHeight="1">
       <c r="B26" s="323" t="s">
@@ -22635,13 +22653,13 @@
     </row>
     <row r="54" spans="2:36" ht="14.65" thickBot="1"/>
     <row r="55" spans="2:36" ht="28.9" thickBot="1">
-      <c r="Z55" s="619" t="s">
+      <c r="Z55" s="620" t="s">
         <v>500</v>
       </c>
-      <c r="AA55" s="620"/>
-      <c r="AB55" s="620"/>
-      <c r="AC55" s="620"/>
-      <c r="AD55" s="621"/>
+      <c r="AA55" s="621"/>
+      <c r="AB55" s="621"/>
+      <c r="AC55" s="621"/>
+      <c r="AD55" s="622"/>
     </row>
     <row r="56" spans="2:36" ht="62.25" customHeight="1">
       <c r="Z56" s="323" t="s">
@@ -22844,30 +22862,30 @@
       <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="622" t="s">
+      <c r="A6" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="622" t="s">
+      <c r="B6" s="623" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="623" t="s">
+      <c r="C6" s="624" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="622" t="s">
+      <c r="D6" s="623" t="s">
         <v>324</v>
       </c>
-      <c r="E6" s="622" t="s">
+      <c r="E6" s="623" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="622"/>
-      <c r="G6" s="622"/>
-      <c r="H6" s="622"/>
+      <c r="F6" s="623"/>
+      <c r="G6" s="623"/>
+      <c r="H6" s="623"/>
     </row>
     <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="622"/>
-      <c r="B7" s="622"/>
-      <c r="C7" s="616"/>
-      <c r="D7" s="622"/>
+      <c r="A7" s="623"/>
+      <c r="B7" s="623"/>
+      <c r="C7" s="617"/>
+      <c r="D7" s="623"/>
       <c r="E7" s="228" t="s">
         <v>161</v>
       </c>
@@ -23184,25 +23202,25 @@
   <sheetData>
     <row r="17" spans="2:18" ht="14.65" thickBot="1"/>
     <row r="18" spans="2:18" ht="19.899999999999999" thickBot="1">
-      <c r="B18" s="562" t="s">
+      <c r="B18" s="563" t="s">
         <v>363</v>
       </c>
-      <c r="C18" s="563"/>
-      <c r="D18" s="563"/>
-      <c r="E18" s="563"/>
-      <c r="F18" s="563"/>
-      <c r="G18" s="563"/>
-      <c r="H18" s="563"/>
+      <c r="C18" s="567"/>
+      <c r="D18" s="567"/>
+      <c r="E18" s="567"/>
+      <c r="F18" s="567"/>
+      <c r="G18" s="567"/>
+      <c r="H18" s="567"/>
       <c r="I18" s="564"/>
-      <c r="K18" s="562" t="s">
+      <c r="K18" s="563" t="s">
         <v>207</v>
       </c>
-      <c r="L18" s="563"/>
-      <c r="M18" s="563"/>
-      <c r="N18" s="563"/>
-      <c r="O18" s="563"/>
-      <c r="P18" s="563"/>
-      <c r="Q18" s="563"/>
+      <c r="L18" s="567"/>
+      <c r="M18" s="567"/>
+      <c r="N18" s="567"/>
+      <c r="O18" s="567"/>
+      <c r="P18" s="567"/>
+      <c r="Q18" s="567"/>
       <c r="R18" s="564"/>
     </row>
     <row r="19" spans="2:18" ht="47.25">
@@ -23945,56 +23963,56 @@
       <c r="G4" s="397"/>
     </row>
     <row r="5" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A5" s="576" t="s">
+      <c r="A5" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="589"/>
+      <c r="B5" s="579"/>
       <c r="C5" s="240" t="s">
         <v>388</v>
       </c>
       <c r="D5" s="240" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="579" t="s">
+      <c r="E5" s="580" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="577"/>
-      <c r="G5" s="589"/>
-      <c r="H5" s="579" t="s">
+      <c r="F5" s="578"/>
+      <c r="G5" s="579"/>
+      <c r="H5" s="580" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="577"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="579" t="s">
+      <c r="I5" s="578"/>
+      <c r="J5" s="579"/>
+      <c r="K5" s="580" t="s">
         <v>163</v>
       </c>
-      <c r="L5" s="577"/>
-      <c r="M5" s="578"/>
+      <c r="L5" s="578"/>
+      <c r="M5" s="581"/>
     </row>
     <row r="6" spans="1:13" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A6" s="627" t="s">
+      <c r="A6" s="628" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="628"/>
+      <c r="B6" s="629"/>
       <c r="C6" s="427" t="s">
         <v>389</v>
       </c>
       <c r="D6" s="427" t="s">
         <v>393</v>
       </c>
-      <c r="E6" s="629" t="s">
+      <c r="E6" s="630" t="s">
         <v>390</v>
       </c>
-      <c r="F6" s="629"/>
-      <c r="G6" s="629"/>
-      <c r="H6" s="624" t="s">
+      <c r="F6" s="630"/>
+      <c r="G6" s="630"/>
+      <c r="H6" s="625" t="s">
         <v>392</v>
       </c>
-      <c r="I6" s="625"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="625"/>
-      <c r="M6" s="626"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="626"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="626"/>
+      <c r="M6" s="627"/>
     </row>
     <row r="7" spans="1:13" ht="32.25" customHeight="1">
       <c r="A7" s="424" t="s">
@@ -24820,11 +24838,11 @@
       <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:20" ht="60" customHeight="1" thickBot="1">
-      <c r="A2" s="630"/>
-      <c r="B2" s="630"/>
-      <c r="C2" s="630"/>
-      <c r="D2" s="630"/>
-      <c r="E2" s="630"/>
+      <c r="A2" s="631"/>
+      <c r="B2" s="631"/>
+      <c r="C2" s="631"/>
+      <c r="D2" s="631"/>
+      <c r="E2" s="631"/>
     </row>
     <row r="3" spans="1:20" ht="56.25" customHeight="1">
       <c r="A3" s="241" t="s">
@@ -24918,10 +24936,10 @@
       <c r="O4" s="14">
         <v>0</v>
       </c>
-      <c r="S4" s="631" t="s">
+      <c r="S4" s="632" t="s">
         <v>438</v>
       </c>
-      <c r="T4" s="632"/>
+      <c r="T4" s="633"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="246" t="str">
@@ -32795,19 +32813,19 @@
       <c r="B3" s="252" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="633" t="s">
+      <c r="C3" s="634" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="634"/>
-      <c r="E3" s="634"/>
-      <c r="F3" s="634"/>
-      <c r="G3" s="634"/>
-      <c r="H3" s="634"/>
-      <c r="I3" s="634"/>
-      <c r="J3" s="634"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="634"/>
-      <c r="M3" s="635"/>
+      <c r="D3" s="635"/>
+      <c r="E3" s="635"/>
+      <c r="F3" s="635"/>
+      <c r="G3" s="635"/>
+      <c r="H3" s="635"/>
+      <c r="I3" s="635"/>
+      <c r="J3" s="635"/>
+      <c r="K3" s="635"/>
+      <c r="L3" s="635"/>
+      <c r="M3" s="636"/>
     </row>
     <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="174" t="s">
@@ -32816,19 +32834,19 @@
       <c r="B4" s="253" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="636" t="s">
+      <c r="C4" s="637" t="s">
         <v>436</v>
       </c>
-      <c r="D4" s="637"/>
-      <c r="E4" s="637"/>
-      <c r="F4" s="637"/>
-      <c r="G4" s="637"/>
-      <c r="H4" s="637"/>
-      <c r="I4" s="637"/>
-      <c r="J4" s="637"/>
-      <c r="K4" s="637"/>
-      <c r="L4" s="637"/>
-      <c r="M4" s="638"/>
+      <c r="D4" s="638"/>
+      <c r="E4" s="638"/>
+      <c r="F4" s="638"/>
+      <c r="G4" s="638"/>
+      <c r="H4" s="638"/>
+      <c r="I4" s="638"/>
+      <c r="J4" s="638"/>
+      <c r="K4" s="638"/>
+      <c r="L4" s="638"/>
+      <c r="M4" s="639"/>
     </row>
     <row r="5" spans="1:13" ht="31.5">
       <c r="A5" s="174" t="s">
@@ -32837,19 +32855,19 @@
       <c r="B5" s="253" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="639" t="s">
+      <c r="C5" s="640" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="637"/>
-      <c r="E5" s="637"/>
-      <c r="F5" s="637"/>
-      <c r="G5" s="637"/>
-      <c r="H5" s="637"/>
-      <c r="I5" s="637"/>
-      <c r="J5" s="637"/>
-      <c r="K5" s="637"/>
-      <c r="L5" s="637"/>
-      <c r="M5" s="638"/>
+      <c r="D5" s="638"/>
+      <c r="E5" s="638"/>
+      <c r="F5" s="638"/>
+      <c r="G5" s="638"/>
+      <c r="H5" s="638"/>
+      <c r="I5" s="638"/>
+      <c r="J5" s="638"/>
+      <c r="K5" s="638"/>
+      <c r="L5" s="638"/>
+      <c r="M5" s="639"/>
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="174" t="s">
@@ -32858,19 +32876,19 @@
       <c r="B6" s="253" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="639" t="s">
+      <c r="C6" s="640" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="637"/>
-      <c r="E6" s="637"/>
-      <c r="F6" s="637"/>
-      <c r="G6" s="637"/>
-      <c r="H6" s="637"/>
-      <c r="I6" s="637"/>
-      <c r="J6" s="637"/>
-      <c r="K6" s="637"/>
-      <c r="L6" s="637"/>
-      <c r="M6" s="638"/>
+      <c r="D6" s="638"/>
+      <c r="E6" s="638"/>
+      <c r="F6" s="638"/>
+      <c r="G6" s="638"/>
+      <c r="H6" s="638"/>
+      <c r="I6" s="638"/>
+      <c r="J6" s="638"/>
+      <c r="K6" s="638"/>
+      <c r="L6" s="638"/>
+      <c r="M6" s="639"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="175" t="s">
@@ -32879,19 +32897,19 @@
       <c r="B7" s="253" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="640" t="s">
+      <c r="C7" s="641" t="s">
         <v>435</v>
       </c>
-      <c r="D7" s="641"/>
-      <c r="E7" s="641"/>
-      <c r="F7" s="641"/>
-      <c r="G7" s="641"/>
-      <c r="H7" s="641"/>
-      <c r="I7" s="641"/>
-      <c r="J7" s="641"/>
-      <c r="K7" s="641"/>
-      <c r="L7" s="641"/>
-      <c r="M7" s="641"/>
+      <c r="D7" s="642"/>
+      <c r="E7" s="642"/>
+      <c r="F7" s="642"/>
+      <c r="G7" s="642"/>
+      <c r="H7" s="642"/>
+      <c r="I7" s="642"/>
+      <c r="J7" s="642"/>
+      <c r="K7" s="642"/>
+      <c r="L7" s="642"/>
+      <c r="M7" s="642"/>
     </row>
     <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="175" t="s">
@@ -33264,10 +33282,10 @@
       <c r="P3" s="336"/>
     </row>
     <row r="4" spans="1:147" s="19" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="565" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="566"/>
       <c r="F4" s="336"/>
       <c r="I4" s="336"/>
       <c r="P4" s="336"/>
@@ -33287,91 +33305,91 @@
       <c r="P6" s="336"/>
     </row>
     <row r="7" spans="1:147" s="19" customFormat="1" ht="19.899999999999999" thickBot="1">
-      <c r="A7" s="562" t="s">
+      <c r="A7" s="563" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="563"/>
+      <c r="B7" s="567"/>
       <c r="C7" s="564"/>
       <c r="D7" s="335"/>
-      <c r="E7" s="562" t="s">
+      <c r="E7" s="563" t="s">
         <v>219</v>
       </c>
       <c r="F7" s="564"/>
       <c r="G7" s="335"/>
-      <c r="H7" s="562" t="s">
+      <c r="H7" s="563" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="564"/>
       <c r="J7" s="335"/>
-      <c r="K7" s="562" t="s">
+      <c r="K7" s="563" t="s">
         <v>220</v>
       </c>
-      <c r="L7" s="563"/>
-      <c r="M7" s="563"/>
-      <c r="N7" s="563"/>
-      <c r="O7" s="563"/>
+      <c r="L7" s="567"/>
+      <c r="M7" s="567"/>
+      <c r="N7" s="567"/>
+      <c r="O7" s="567"/>
       <c r="P7" s="564"/>
       <c r="Q7" s="335"/>
-      <c r="R7" s="562" t="s">
+      <c r="R7" s="563" t="s">
         <v>284</v>
       </c>
-      <c r="S7" s="563"/>
-      <c r="T7" s="563"/>
-      <c r="U7" s="563"/>
-      <c r="V7" s="563"/>
+      <c r="S7" s="567"/>
+      <c r="T7" s="567"/>
+      <c r="U7" s="567"/>
+      <c r="V7" s="567"/>
       <c r="W7" s="564"/>
-      <c r="Y7" s="562" t="s">
+      <c r="Y7" s="563" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="563"/>
+      <c r="Z7" s="567"/>
       <c r="AA7" s="564"/>
     </row>
     <row r="8" spans="1:147" s="22" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="565" t="s">
+      <c r="A8" s="568" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="571" t="s">
+      <c r="B8" s="574" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="567" t="s">
+      <c r="C8" s="570" t="s">
         <v>196</v>
       </c>
       <c r="D8" s="80"/>
-      <c r="E8" s="573" t="s">
+      <c r="E8" s="561" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="574"/>
+      <c r="F8" s="576"/>
       <c r="G8" s="80"/>
-      <c r="H8" s="573" t="s">
+      <c r="H8" s="561" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="574"/>
+      <c r="I8" s="576"/>
       <c r="J8" s="80"/>
-      <c r="K8" s="573" t="s">
+      <c r="K8" s="561" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="575"/>
-      <c r="M8" s="573" t="s">
+      <c r="L8" s="562"/>
+      <c r="M8" s="561" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="575"/>
-      <c r="O8" s="573" t="s">
+      <c r="N8" s="562"/>
+      <c r="O8" s="561" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="574"/>
+      <c r="P8" s="576"/>
       <c r="Q8" s="80"/>
-      <c r="R8" s="573" t="s">
+      <c r="R8" s="561" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="575"/>
-      <c r="T8" s="573" t="s">
+      <c r="S8" s="562"/>
+      <c r="T8" s="561" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="575"/>
-      <c r="V8" s="573" t="s">
+      <c r="U8" s="562"/>
+      <c r="V8" s="561" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="574"/>
+      <c r="W8" s="576"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="360" t="s">
         <v>357</v>
@@ -33379,7 +33397,7 @@
       <c r="Z8" s="361" t="s">
         <v>358</v>
       </c>
-      <c r="AA8" s="569" t="s">
+      <c r="AA8" s="572" t="s">
         <v>30</v>
       </c>
       <c r="AB8" s="21"/>
@@ -33504,9 +33522,9 @@
       <c r="EQ8" s="21"/>
     </row>
     <row r="9" spans="1:147" s="24" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A9" s="566"/>
-      <c r="B9" s="572"/>
-      <c r="C9" s="568"/>
+      <c r="A9" s="569"/>
+      <c r="B9" s="575"/>
+      <c r="C9" s="571"/>
       <c r="D9" s="81"/>
       <c r="E9" s="82" t="s">
         <v>38</v>
@@ -33566,7 +33584,7 @@
       <c r="Z9" s="354" t="s">
         <v>243</v>
       </c>
-      <c r="AA9" s="570"/>
+      <c r="AA9" s="573"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
@@ -34248,13 +34266,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="B8:B9"/>
@@ -34267,6 +34278,13 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -34282,14 +34300,14 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I5" sqref="I5"/>
       <selection pane="topRight" activeCell="I5" sqref="I5"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -34302,40 +34320,40 @@
     <col min="6" max="6" width="11.46484375" style="1" customWidth="1"/>
     <col min="7" max="7" width="1.46484375" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.46484375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.46484375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="1.796875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="10.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.46484375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.46484375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="10.1328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.46484375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.46484375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.46484375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="1.46484375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.46484375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1328125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.1328125" style="6" customWidth="1"/>
-    <col min="33" max="34" width="12.46484375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="1.6640625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.1328125" style="3" customWidth="1"/>
-    <col min="37" max="37" width="11" style="3" customWidth="1"/>
-    <col min="38" max="38" width="17.33203125" style="3" customWidth="1"/>
-    <col min="39" max="39" width="13.6640625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="11.33203125" style="3" customWidth="1"/>
-    <col min="41" max="16384" width="11.46484375" style="1"/>
+    <col min="9" max="10" width="18.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.46484375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="1.796875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="10.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.46484375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="1.46484375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.1328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.46484375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.46484375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7" style="1" customWidth="1"/>
+    <col min="28" max="28" width="27.46484375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="1.46484375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.46484375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.1328125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.1328125" style="6" customWidth="1"/>
+    <col min="34" max="35" width="12.46484375" style="6" customWidth="1"/>
+    <col min="36" max="36" width="1.6640625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="13.1328125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="11" style="3" customWidth="1"/>
+    <col min="39" max="39" width="17.33203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="13.6640625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="11.33203125" style="3" customWidth="1"/>
+    <col min="42" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:41" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="50" t="s">
         <v>160</v>
       </c>
@@ -34377,11 +34395,12 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="2"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-    </row>
-    <row r="2" spans="1:40" ht="27.75" customHeight="1" thickBot="1">
+      <c r="AO1" s="1"/>
+    </row>
+    <row r="2" spans="1:41" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="52" t="s">
         <v>289</v>
       </c>
@@ -34390,7 +34409,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:40" ht="27.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:41" ht="27.75" customHeight="1" thickBot="1">
       <c r="A3" s="53" t="s">
         <v>3</v>
       </c>
@@ -34399,68 +34418,69 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+    <row r="4" spans="1:41" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="565" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="566"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="102" customHeight="1" thickBot="1">
+    <row r="5" spans="1:41" ht="102" customHeight="1" thickBot="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A6" s="562" t="s">
+    <row r="6" spans="1:41" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A6" s="563" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="563"/>
-      <c r="C6" s="563"/>
-      <c r="D6" s="563"/>
-      <c r="E6" s="563"/>
+      <c r="B6" s="567"/>
+      <c r="C6" s="567"/>
+      <c r="D6" s="567"/>
+      <c r="E6" s="567"/>
       <c r="F6" s="564"/>
-      <c r="H6" s="562" t="s">
+      <c r="H6" s="563" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="563"/>
-      <c r="J6" s="563"/>
-      <c r="K6" s="563"/>
-      <c r="L6" s="564"/>
-      <c r="M6" s="40"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="562" t="s">
+      <c r="I6" s="567"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="567"/>
+      <c r="L6" s="567"/>
+      <c r="M6" s="564"/>
+      <c r="N6" s="40"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="563" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="563"/>
-      <c r="R6" s="564"/>
-      <c r="T6" s="562" t="s">
+      <c r="R6" s="567"/>
+      <c r="S6" s="564"/>
+      <c r="U6" s="563" t="s">
         <v>321</v>
       </c>
-      <c r="U6" s="563"/>
-      <c r="V6" s="563"/>
-      <c r="W6" s="563"/>
-      <c r="X6" s="563"/>
-      <c r="Y6" s="563"/>
-      <c r="Z6" s="563"/>
-      <c r="AA6" s="564"/>
-      <c r="AC6" s="562" t="s">
+      <c r="V6" s="567"/>
+      <c r="W6" s="567"/>
+      <c r="X6" s="567"/>
+      <c r="Y6" s="567"/>
+      <c r="Z6" s="567"/>
+      <c r="AA6" s="567"/>
+      <c r="AB6" s="564"/>
+      <c r="AD6" s="563" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="563"/>
-      <c r="AE6" s="563"/>
-      <c r="AF6" s="563"/>
-      <c r="AG6" s="563"/>
-      <c r="AH6" s="564"/>
-      <c r="AJ6" s="562" t="s">
+      <c r="AE6" s="567"/>
+      <c r="AF6" s="567"/>
+      <c r="AG6" s="567"/>
+      <c r="AH6" s="567"/>
+      <c r="AI6" s="564"/>
+      <c r="AK6" s="563" t="s">
         <v>8</v>
       </c>
-      <c r="AK6" s="563"/>
-      <c r="AL6" s="563"/>
-      <c r="AM6" s="563"/>
-      <c r="AN6" s="564"/>
-    </row>
-    <row r="7" spans="1:40" s="7" customFormat="1" ht="31.5">
-      <c r="A7" s="580" t="s">
+      <c r="AL6" s="567"/>
+      <c r="AM6" s="567"/>
+      <c r="AN6" s="567"/>
+      <c r="AO6" s="564"/>
+    </row>
+    <row r="7" spans="1:41" s="7" customFormat="1" ht="31.5">
+      <c r="A7" s="584" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="582" t="s">
@@ -34472,84 +34492,87 @@
       <c r="D7" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="584" t="s">
+      <c r="E7" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="574" t="s">
+      <c r="F7" s="576" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="99"/>
-      <c r="H7" s="573" t="s">
+      <c r="H7" s="561" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="575"/>
-      <c r="J7" s="587" t="s">
+      <c r="I7" s="562"/>
+      <c r="J7" s="560" t="s">
+        <v>555</v>
+      </c>
+      <c r="K7" s="589" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="575"/>
-      <c r="L7" s="587" t="s">
+      <c r="L7" s="562"/>
+      <c r="M7" s="589" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="578"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="396" t="s">
+      <c r="N7" s="581"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="396" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="588" t="s">
+      <c r="R7" s="590" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="574"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="576" t="s">
+      <c r="S7" s="576"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="577" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="589"/>
-      <c r="V7" s="579" t="s">
+      <c r="V7" s="579"/>
+      <c r="W7" s="580" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="577"/>
-      <c r="X7" s="579" t="s">
+      <c r="X7" s="578"/>
+      <c r="Y7" s="580" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="589"/>
-      <c r="Z7" s="579" t="s">
+      <c r="Z7" s="579"/>
+      <c r="AA7" s="580" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="578"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="576" t="s">
+      <c r="AB7" s="581"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="577" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="577"/>
-      <c r="AE7" s="589"/>
-      <c r="AF7" s="102" t="s">
+      <c r="AE7" s="578"/>
+      <c r="AF7" s="579"/>
+      <c r="AG7" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="102" t="s">
+      <c r="AH7" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="AH7" s="103" t="s">
+      <c r="AI7" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="576" t="s">
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="577" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="577"/>
-      <c r="AL7" s="577"/>
-      <c r="AM7" s="577" t="s">
+      <c r="AL7" s="578"/>
+      <c r="AM7" s="578"/>
+      <c r="AN7" s="578" t="s">
         <v>8</v>
       </c>
-      <c r="AN7" s="578"/>
-    </row>
-    <row r="8" spans="1:40" s="8" customFormat="1" ht="47.65" thickBot="1">
-      <c r="A8" s="581"/>
+      <c r="AO7" s="581"/>
+    </row>
+    <row r="8" spans="1:41" s="8" customFormat="1" ht="47.65" thickBot="1">
+      <c r="A8" s="585"/>
       <c r="B8" s="583"/>
       <c r="C8" s="583"/>
       <c r="D8" s="583"/>
-      <c r="E8" s="585"/>
-      <c r="F8" s="586"/>
+      <c r="E8" s="587"/>
+      <c r="F8" s="588"/>
       <c r="G8" s="104"/>
       <c r="H8" s="82" t="s">
         <v>29</v>
@@ -34557,93 +34580,96 @@
       <c r="I8" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="84" t="s">
+        <v>556</v>
+      </c>
+      <c r="K8" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="106" t="s">
+      <c r="L8" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="M8" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="83" t="s">
+      <c r="N8" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="104"/>
-      <c r="O8" s="107" t="s">
+      <c r="O8" s="104"/>
+      <c r="P8" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="Q8" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="109" t="s">
+      <c r="R8" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="110" t="s">
+      <c r="S8" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="104"/>
-      <c r="T8" s="108" t="s">
+      <c r="T8" s="104"/>
+      <c r="U8" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="108" t="s">
+      <c r="V8" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="V8" s="109" t="s">
+      <c r="W8" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="109" t="s">
+      <c r="X8" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="109" t="s">
+      <c r="Y8" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="109" t="s">
+      <c r="Z8" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="109" t="s">
+      <c r="AA8" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="AA8" s="110" t="s">
+      <c r="AB8" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="269" t="s">
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="AD8" s="270" t="s">
+      <c r="AE8" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="AE8" s="270" t="s">
+      <c r="AF8" s="270" t="s">
         <v>39</v>
-      </c>
-      <c r="AF8" s="271" t="s">
-        <v>40</v>
       </c>
       <c r="AG8" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="AH8" s="272" t="s">
+      <c r="AH8" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="281" t="s">
+      <c r="AI8" s="272" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="281" t="s">
         <v>41</v>
       </c>
-      <c r="AK8" s="112" t="s">
+      <c r="AL8" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="AL8" s="112" t="s">
+      <c r="AM8" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="AM8" s="112" t="s">
+      <c r="AN8" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="AN8" s="273" t="s">
+      <c r="AO8" s="273" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1">
+    <row r="9" spans="1:41" s="9" customFormat="1">
       <c r="A9" s="274" t="s">
         <v>45</v>
       </c>
@@ -34668,49 +34694,50 @@
         <v>532406.00060870918</v>
       </c>
       <c r="I9" s="116"/>
-      <c r="J9" s="258">
-        <f>+L9/H9*10^6</f>
+      <c r="J9" s="643"/>
+      <c r="K9" s="258">
+        <f>+M9/H9*10^6</f>
         <v>22222.918812116888</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117">
-        <f>+SUM(L10:L15)</f>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117">
+        <f>+SUM(M10:M15)</f>
         <v>11831.6153266112</v>
       </c>
-      <c r="M9" s="118" t="s">
+      <c r="N9" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="114"/>
-      <c r="O9" s="119" t="s">
+      <c r="O9" s="114"/>
+      <c r="P9" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="401"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="279"/>
-      <c r="U9" s="267"/>
+      <c r="Q9" s="401"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="279"/>
       <c r="V9" s="267"/>
       <c r="W9" s="267"/>
       <c r="X9" s="267"/>
       <c r="Y9" s="267"/>
       <c r="Z9" s="267"/>
-      <c r="AA9" s="280"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="268"/>
+      <c r="AA9" s="267"/>
+      <c r="AB9" s="280"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="276"/>
       <c r="AE9" s="268"/>
       <c r="AF9" s="268"/>
       <c r="AG9" s="268"/>
-      <c r="AH9" s="277"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="282"/>
-      <c r="AK9" s="113"/>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="277"/>
+      <c r="AJ9" s="114"/>
+      <c r="AK9" s="282"/>
       <c r="AL9" s="113"/>
       <c r="AM9" s="113"/>
-      <c r="AN9" s="275"/>
-    </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="275"/>
+    </row>
+    <row r="10" spans="1:41" s="10" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A10" s="136" t="s">
         <v>323</v>
       </c>
@@ -34736,105 +34763,106 @@
       <c r="I10" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J10" s="259">
+      <c r="J10" s="125"/>
+      <c r="K10" s="259">
         <v>23023</v>
       </c>
-      <c r="K10" s="125" t="s">
+      <c r="L10" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L10" s="127">
-        <f t="shared" ref="L10:L15" si="0">H10*J10/10^6</f>
+      <c r="M10" s="127">
+        <f t="shared" ref="M10:M15" si="0">H10*K10/10^6</f>
         <v>9099.8881066008744</v>
       </c>
-      <c r="M10" s="128" t="s">
+      <c r="N10" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="114"/>
-      <c r="O10" s="129" t="s">
+      <c r="O10" s="114"/>
+      <c r="P10" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="130">
+      <c r="Q10" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D10,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q10" s="138">
+      <c r="R10" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D10,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R10" s="131" t="s">
+      <c r="S10" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S10" s="114"/>
-      <c r="T10" s="130">
+      <c r="T10" s="114"/>
+      <c r="U10" s="130">
         <f>+VLOOKUP($F10,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>7.7879221386633333</v>
       </c>
-      <c r="U10" s="130" t="str">
+      <c r="V10" s="130" t="str">
         <f>+VLOOKUP($F10,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V10" s="398">
+      <c r="W10" s="398">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D10,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W10" s="135" t="s">
+      <c r="X10" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X10" s="138">
+      <c r="Y10" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D10,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y10" s="265" t="str">
+      <c r="Z10" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D10,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z10" s="135">
+      <c r="AA10" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D10,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA10" s="131" t="str">
+      <c r="AB10" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D10,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="133">
-        <f t="shared" ref="AC10:AC15" si="1">IFERROR(L10*T10/10^2,0)</f>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="133">
+        <f t="shared" ref="AD10:AD15" si="1">IFERROR(M10*U10/10^2,0)</f>
         <v>708.69220044756116</v>
       </c>
-      <c r="AD10" s="134">
-        <f t="shared" ref="AD10:AD15" si="2">+AC10*P10</f>
+      <c r="AE10" s="134">
+        <f t="shared" ref="AE10:AE15" si="2">+AD10*Q10</f>
         <v>524.95718551671189</v>
       </c>
-      <c r="AE10" s="134">
-        <f t="shared" ref="AE10:AE15" si="3">+AC10*Q10</f>
+      <c r="AF10" s="134">
+        <f t="shared" ref="AF10:AF15" si="3">+AD10*R10</f>
         <v>31395.064479826957</v>
       </c>
-      <c r="AF10" s="260">
-        <f t="shared" ref="AF10:AF15" si="4">+$AD10*$Q10*V10/10^6</f>
+      <c r="AG10" s="260">
+        <f t="shared" ref="AG10:AG15" si="4">+$AE10*$R10*W10/10^6</f>
         <v>1611.6133099644501</v>
       </c>
-      <c r="AG10" s="260">
-        <f t="shared" ref="AG10:AG15" si="5">+$AD10*$Q10*X10/10^6</f>
+      <c r="AH10" s="260">
+        <f t="shared" ref="AH10:AH15" si="5">+$AE10*$R10*Y10/10^6</f>
         <v>0.76743490950688098</v>
       </c>
-      <c r="AH10" s="261">
-        <f t="shared" ref="AH10:AH15" si="6">+$AD10*$Q10*Z10/10^6</f>
+      <c r="AI10" s="261">
+        <f t="shared" ref="AI10:AI15" si="6">+$AE10*$R10*AA10/10^6</f>
         <v>7.4417930618849076E-2</v>
       </c>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="264"/>
-      <c r="AK10" s="146"/>
-      <c r="AL10" s="135"/>
-      <c r="AM10" s="263">
-        <f t="shared" ref="AM10:AM15" si="7">+$L10*AJ10</f>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="264"/>
+      <c r="AL10" s="146"/>
+      <c r="AM10" s="135"/>
+      <c r="AN10" s="263">
+        <f t="shared" ref="AN10:AN15" si="7">+$M10*AK10</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="127">
-        <f t="shared" ref="AN10:AN15" si="8">+$L10*AK10</f>
+      <c r="AO10" s="127">
+        <f t="shared" ref="AO10:AO15" si="8">+$M10*AL10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="10" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="11" spans="1:41" s="10" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="136" t="s">
         <v>323</v>
       </c>
@@ -34860,105 +34888,106 @@
       <c r="I11" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J11" s="259">
+      <c r="J11" s="125"/>
+      <c r="K11" s="259">
         <v>15448</v>
       </c>
-      <c r="K11" s="125" t="s">
+      <c r="L11" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L11" s="127">
+      <c r="M11" s="127">
         <f t="shared" si="0"/>
         <v>220.67973396546321</v>
       </c>
-      <c r="M11" s="128" t="s">
+      <c r="N11" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="114"/>
-      <c r="O11" s="129" t="s">
+      <c r="O11" s="114"/>
+      <c r="P11" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="130">
+      <c r="Q11" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D11,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q11" s="138">
+      <c r="R11" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D11,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R11" s="131" t="s">
+      <c r="S11" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="114"/>
-      <c r="T11" s="130">
+      <c r="T11" s="114"/>
+      <c r="U11" s="130">
         <f>+VLOOKUP($F11,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>5.3056031165560169</v>
       </c>
-      <c r="U11" s="130" t="str">
+      <c r="V11" s="130" t="str">
         <f>+VLOOKUP($F11,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V11" s="399">
+      <c r="W11" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D11,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W11" s="135" t="s">
+      <c r="X11" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X11" s="138">
+      <c r="Y11" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D11,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y11" s="265" t="str">
+      <c r="Z11" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D11,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z11" s="135">
+      <c r="AA11" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D11,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA11" s="131" t="str">
+      <c r="AB11" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D11,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="133">
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="133">
         <f t="shared" si="1"/>
         <v>11.708390842879144</v>
       </c>
-      <c r="AD11" s="134">
+      <c r="AE11" s="134">
         <f t="shared" si="2"/>
         <v>9.8804986015857708</v>
       </c>
-      <c r="AE11" s="134">
+      <c r="AF11" s="134">
         <f t="shared" si="3"/>
         <v>503.46080624380318</v>
       </c>
-      <c r="AF11" s="260">
+      <c r="AG11" s="260">
         <f t="shared" si="4"/>
         <v>31.482232694232739</v>
       </c>
-      <c r="AG11" s="260">
+      <c r="AH11" s="260">
         <f t="shared" si="5"/>
         <v>1.6569596154859337E-3</v>
       </c>
-      <c r="AH11" s="261">
+      <c r="AI11" s="261">
         <f t="shared" si="6"/>
         <v>1.6569596154859337E-3</v>
       </c>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="264"/>
-      <c r="AK11" s="146"/>
-      <c r="AL11" s="135"/>
-      <c r="AM11" s="263">
+      <c r="AJ11" s="114"/>
+      <c r="AK11" s="264"/>
+      <c r="AL11" s="146"/>
+      <c r="AM11" s="135"/>
+      <c r="AN11" s="263">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="127">
+      <c r="AO11" s="127">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="12" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A12" s="136" t="s">
         <v>323</v>
       </c>
@@ -34984,105 +35013,106 @@
       <c r="I12" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J12" s="259">
+      <c r="J12" s="125"/>
+      <c r="K12" s="259">
         <v>19014</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="L12" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L12" s="127">
+      <c r="M12" s="127">
         <f t="shared" si="0"/>
         <v>1811.277182606714</v>
       </c>
-      <c r="M12" s="134" t="s">
+      <c r="N12" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="114"/>
-      <c r="O12" s="129" t="s">
+      <c r="O12" s="114"/>
+      <c r="P12" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="130">
+      <c r="Q12" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D12,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q12" s="138">
+      <c r="R12" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D12,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R12" s="131" t="s">
+      <c r="S12" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="114"/>
-      <c r="T12" s="130">
+      <c r="T12" s="114"/>
+      <c r="U12" s="130">
         <f>+VLOOKUP($F12,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>9.2721511262458929</v>
       </c>
-      <c r="U12" s="130" t="str">
+      <c r="V12" s="130" t="str">
         <f>+VLOOKUP($F12,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V12" s="399">
+      <c r="W12" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D12,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W12" s="135" t="s">
+      <c r="X12" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X12" s="138">
+      <c r="Y12" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D12,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y12" s="265" t="str">
+      <c r="Z12" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D12,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z12" s="135">
+      <c r="AA12" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D12,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA12" s="131" t="str">
+      <c r="AB12" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D12,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="133">
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="133">
         <f t="shared" si="1"/>
         <v>167.94435768650331</v>
       </c>
-      <c r="AD12" s="134">
+      <c r="AE12" s="134">
         <f t="shared" si="2"/>
         <v>124.40322791592837</v>
       </c>
-      <c r="AE12" s="134">
+      <c r="AF12" s="134">
         <f t="shared" si="3"/>
         <v>7439.9350455120957</v>
       </c>
-      <c r="AF12" s="260">
+      <c r="AG12" s="260">
         <f t="shared" si="4"/>
         <v>381.9166656696209</v>
       </c>
-      <c r="AG12" s="260">
+      <c r="AH12" s="260">
         <f t="shared" si="5"/>
         <v>0.18186507889029568</v>
       </c>
-      <c r="AH12" s="261">
+      <c r="AI12" s="261">
         <f t="shared" si="6"/>
         <v>1.7635401589362006E-2</v>
       </c>
-      <c r="AI12" s="114"/>
-      <c r="AJ12" s="264"/>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="135"/>
-      <c r="AM12" s="263">
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="264"/>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="135"/>
+      <c r="AN12" s="263">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="127">
+      <c r="AO12" s="127">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="13" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A13" s="136" t="s">
         <v>323</v>
       </c>
@@ -35108,105 +35138,106 @@
       <c r="I13" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J13" s="259">
+      <c r="J13" s="125"/>
+      <c r="K13" s="259">
         <v>13108</v>
       </c>
-      <c r="K13" s="125" t="s">
+      <c r="L13" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L13" s="127">
+      <c r="M13" s="127">
         <f t="shared" si="0"/>
         <v>155.23487664622834</v>
       </c>
-      <c r="M13" s="134" t="s">
+      <c r="N13" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="114"/>
-      <c r="O13" s="129" t="s">
+      <c r="O13" s="114"/>
+      <c r="P13" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="130">
+      <c r="Q13" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D13,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q13" s="138">
+      <c r="R13" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D13,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R13" s="131" t="s">
+      <c r="S13" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S13" s="114"/>
-      <c r="T13" s="130">
+      <c r="T13" s="114"/>
+      <c r="U13" s="130">
         <f>+VLOOKUP($F13,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>6.8345467207097306</v>
       </c>
-      <c r="U13" s="130" t="str">
+      <c r="V13" s="130" t="str">
         <f>+VLOOKUP($F13,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V13" s="399">
+      <c r="W13" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D13,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W13" s="135" t="s">
+      <c r="X13" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X13" s="138">
+      <c r="Y13" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D13,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y13" s="265" t="str">
+      <c r="Z13" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D13,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z13" s="135">
+      <c r="AA13" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D13,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA13" s="131" t="str">
+      <c r="AB13" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D13,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="133">
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="133">
         <f t="shared" si="1"/>
         <v>10.609600171222594</v>
       </c>
-      <c r="AD13" s="134">
+      <c r="AE13" s="134">
         <f t="shared" si="2"/>
         <v>8.953249089639316</v>
       </c>
-      <c r="AE13" s="134">
+      <c r="AF13" s="134">
         <f t="shared" si="3"/>
         <v>456.21280736257154</v>
       </c>
-      <c r="AF13" s="260">
+      <c r="AG13" s="260">
         <f t="shared" si="4"/>
         <v>28.527737574317751</v>
       </c>
-      <c r="AG13" s="260">
+      <c r="AH13" s="260">
         <f t="shared" si="5"/>
         <v>1.5014598723325132E-3</v>
       </c>
-      <c r="AH13" s="261">
+      <c r="AI13" s="261">
         <f t="shared" si="6"/>
         <v>1.5014598723325132E-3</v>
       </c>
-      <c r="AI13" s="114"/>
-      <c r="AJ13" s="264"/>
-      <c r="AK13" s="146"/>
-      <c r="AL13" s="135"/>
-      <c r="AM13" s="263">
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="264"/>
+      <c r="AL13" s="146"/>
+      <c r="AM13" s="135"/>
+      <c r="AN13" s="263">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="127">
+      <c r="AO13" s="127">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="14" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A14" s="136" t="s">
         <v>323</v>
       </c>
@@ -35232,105 +35263,106 @@
       <c r="I14" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J14" s="259">
+      <c r="J14" s="125"/>
+      <c r="K14" s="259">
         <v>25213</v>
       </c>
-      <c r="K14" s="125" t="s">
+      <c r="L14" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L14" s="127">
+      <c r="M14" s="127">
         <f t="shared" si="0"/>
         <v>203.4154311968974</v>
       </c>
-      <c r="M14" s="134" t="s">
+      <c r="N14" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="114"/>
-      <c r="O14" s="129" t="s">
+      <c r="O14" s="114"/>
+      <c r="P14" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="130">
+      <c r="Q14" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D14,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q14" s="138">
+      <c r="R14" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D14,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R14" s="131" t="s">
+      <c r="S14" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="114"/>
-      <c r="T14" s="130">
+      <c r="T14" s="114"/>
+      <c r="U14" s="130">
         <f>+VLOOKUP($F14,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>11.942744908518209</v>
       </c>
-      <c r="U14" s="130" t="str">
+      <c r="V14" s="130" t="str">
         <f>+VLOOKUP($F14,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V14" s="399">
+      <c r="W14" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D14,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W14" s="135" t="s">
+      <c r="X14" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X14" s="138">
+      <c r="Y14" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D14,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y14" s="265" t="str">
+      <c r="Z14" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D14,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z14" s="135">
+      <c r="AA14" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D14,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA14" s="131" t="str">
+      <c r="AB14" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D14,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="133">
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="133">
         <f t="shared" si="1"/>
         <v>24.293386052407826</v>
       </c>
-      <c r="AD14" s="134">
+      <c r="AE14" s="134">
         <f t="shared" si="2"/>
         <v>17.995100779561351</v>
       </c>
-      <c r="AE14" s="134">
+      <c r="AF14" s="134">
         <f t="shared" si="3"/>
         <v>1076.1970021216666</v>
       </c>
-      <c r="AF14" s="260">
+      <c r="AG14" s="260">
         <f t="shared" si="4"/>
         <v>55.244779442245544</v>
       </c>
-      <c r="AG14" s="260">
+      <c r="AH14" s="260">
         <f t="shared" si="5"/>
         <v>2.6307037829640736E-2</v>
       </c>
-      <c r="AH14" s="261">
+      <c r="AI14" s="261">
         <f t="shared" si="6"/>
         <v>2.5509854865106174E-3</v>
       </c>
-      <c r="AI14" s="114"/>
-      <c r="AJ14" s="264"/>
-      <c r="AK14" s="146"/>
-      <c r="AL14" s="135"/>
-      <c r="AM14" s="263">
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="264"/>
+      <c r="AL14" s="146"/>
+      <c r="AM14" s="135"/>
+      <c r="AN14" s="263">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="127">
+      <c r="AO14" s="127">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="10" customFormat="1" ht="16.149999999999999" outlineLevel="1" thickBot="1">
+    <row r="15" spans="1:41" s="10" customFormat="1" ht="16.149999999999999" outlineLevel="1" thickBot="1">
       <c r="A15" s="136" t="s">
         <v>323</v>
       </c>
@@ -35356,105 +35388,106 @@
       <c r="I15" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J15" s="259">
+      <c r="J15" s="125"/>
+      <c r="K15" s="259">
         <v>44314</v>
       </c>
-      <c r="K15" s="125" t="s">
+      <c r="L15" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L15" s="127">
+      <c r="M15" s="127">
         <f t="shared" si="0"/>
         <v>341.11999559501959</v>
       </c>
-      <c r="M15" s="134" t="s">
+      <c r="N15" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="114"/>
-      <c r="O15" s="129" t="s">
+      <c r="O15" s="114"/>
+      <c r="P15" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="130">
+      <c r="Q15" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D15,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q15" s="138">
+      <c r="R15" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D15,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R15" s="131" t="s">
+      <c r="S15" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S15" s="114"/>
-      <c r="T15" s="130">
+      <c r="T15" s="114"/>
+      <c r="U15" s="130">
         <f>+VLOOKUP($F15,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>8.9835525082489092</v>
       </c>
-      <c r="U15" s="130" t="str">
+      <c r="V15" s="130" t="str">
         <f>+VLOOKUP($F15,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V15" s="399">
+      <c r="W15" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D15,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W15" s="135" t="s">
+      <c r="X15" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="138">
+      <c r="Y15" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D15,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y15" s="265" t="str">
+      <c r="Z15" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D15,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z15" s="135">
+      <c r="AA15" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D15,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA15" s="131" t="str">
+      <c r="AB15" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D15,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="133">
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="133">
         <f t="shared" si="1"/>
         <v>30.644693920414952</v>
       </c>
-      <c r="AD15" s="134">
+      <c r="AE15" s="134">
         <f t="shared" si="2"/>
         <v>25.860501198662394</v>
       </c>
-      <c r="AE15" s="134">
+      <c r="AF15" s="134">
         <f t="shared" si="3"/>
         <v>1317.7218385778428</v>
       </c>
-      <c r="AF15" s="260">
+      <c r="AG15" s="260">
         <f t="shared" si="4"/>
         <v>82.39931496929799</v>
       </c>
-      <c r="AG15" s="260">
+      <c r="AH15" s="260">
         <f t="shared" si="5"/>
         <v>4.3368060510156842E-3</v>
       </c>
-      <c r="AH15" s="261">
+      <c r="AI15" s="261">
         <f t="shared" si="6"/>
         <v>4.3368060510156842E-3</v>
       </c>
-      <c r="AI15" s="114"/>
-      <c r="AJ15" s="264"/>
-      <c r="AK15" s="146"/>
-      <c r="AL15" s="135"/>
-      <c r="AM15" s="263">
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="264"/>
+      <c r="AL15" s="146"/>
+      <c r="AM15" s="135"/>
+      <c r="AN15" s="263">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="127">
+      <c r="AO15" s="127">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="9" customFormat="1">
+    <row r="16" spans="1:41" s="9" customFormat="1">
       <c r="A16" s="274" t="s">
         <v>402</v>
       </c>
@@ -35479,49 +35512,50 @@
         <v>119230</v>
       </c>
       <c r="I16" s="116"/>
-      <c r="J16" s="258">
-        <f>+L16/H16*10^6</f>
+      <c r="J16" s="643"/>
+      <c r="K16" s="258">
+        <f>+M16/H16*10^6</f>
         <v>29862.229765998487</v>
       </c>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117">
-        <f>+SUM(L17:L22)</f>
+      <c r="L16" s="116"/>
+      <c r="M16" s="117">
+        <f>+SUM(M17:M22)</f>
         <v>3560.4736549999998</v>
       </c>
-      <c r="M16" s="118" t="s">
+      <c r="N16" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="114"/>
-      <c r="O16" s="119" t="s">
+      <c r="O16" s="114"/>
+      <c r="P16" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="401"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="279"/>
-      <c r="U16" s="267"/>
+      <c r="Q16" s="401"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="279"/>
       <c r="V16" s="267"/>
       <c r="W16" s="267"/>
       <c r="X16" s="267"/>
       <c r="Y16" s="267"/>
       <c r="Z16" s="267"/>
-      <c r="AA16" s="280"/>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="276"/>
-      <c r="AD16" s="268"/>
+      <c r="AA16" s="267"/>
+      <c r="AB16" s="280"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="276"/>
       <c r="AE16" s="268"/>
       <c r="AF16" s="268"/>
       <c r="AG16" s="268"/>
-      <c r="AH16" s="277"/>
-      <c r="AI16" s="114"/>
-      <c r="AJ16" s="282"/>
-      <c r="AK16" s="113"/>
+      <c r="AH16" s="268"/>
+      <c r="AI16" s="277"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="282"/>
       <c r="AL16" s="113"/>
       <c r="AM16" s="113"/>
-      <c r="AN16" s="275"/>
-    </row>
-    <row r="17" spans="1:40" s="10" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="275"/>
+    </row>
+    <row r="17" spans="1:41" s="10" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A17" s="136" t="s">
         <v>327</v>
       </c>
@@ -35547,105 +35581,108 @@
       <c r="I17" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J17" s="259">
+      <c r="J17" s="125" t="s">
+        <v>557</v>
+      </c>
+      <c r="K17" s="259">
         <v>19536</v>
       </c>
-      <c r="K17" s="125" t="s">
+      <c r="L17" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L17" s="127">
-        <f t="shared" ref="L17:L22" si="9">H17*J17/10^6</f>
+      <c r="M17" s="127">
+        <f t="shared" ref="M17:M22" si="9">H17*K17/10^6</f>
         <v>170.13902400000001</v>
       </c>
-      <c r="M17" s="128" t="s">
+      <c r="N17" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="114"/>
-      <c r="O17" s="129" t="s">
+      <c r="O17" s="114"/>
+      <c r="P17" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="130">
+      <c r="Q17" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D17,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q17" s="138">
+      <c r="R17" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D17,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R17" s="131" t="s">
+      <c r="S17" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="114"/>
-      <c r="T17" s="130">
+      <c r="T17" s="114"/>
+      <c r="U17" s="130">
         <f>+VLOOKUP($F17,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>7.2073643097127267</v>
       </c>
-      <c r="U17" s="130" t="str">
+      <c r="V17" s="130" t="str">
         <f>+VLOOKUP($F17,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V17" s="398">
+      <c r="W17" s="398">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D17,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W17" s="135" t="s">
+      <c r="X17" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X17" s="138">
+      <c r="Y17" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D17,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y17" s="265" t="str">
+      <c r="Z17" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D17,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z17" s="135">
+      <c r="AA17" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D17,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA17" s="131" t="str">
+      <c r="AB17" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D17,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="133">
-        <f t="shared" ref="AC17:AC22" si="10">IFERROR(L17*T17/10^2,0)</f>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="133">
+        <f t="shared" ref="AD17:AD22" si="10">IFERROR(M17*U17/10^2,0)</f>
         <v>12.262539292669571</v>
       </c>
-      <c r="AD17" s="134">
-        <f t="shared" ref="AD17:AD22" si="11">+AC17*P17</f>
+      <c r="AE17" s="134">
+        <f t="shared" ref="AE17:AE22" si="11">+AD17*Q17</f>
         <v>9.0833624390144969</v>
       </c>
-      <c r="AE17" s="134">
-        <f t="shared" ref="AE17:AE22" si="12">+AC17*Q17</f>
+      <c r="AF17" s="134">
+        <f t="shared" ref="AF17:AF22" si="12">+AD17*R17</f>
         <v>543.23049066526198</v>
       </c>
-      <c r="AF17" s="260">
-        <f t="shared" ref="AF17:AF22" si="13">+$AD17*$Q17*V17/10^6</f>
+      <c r="AG17" s="260">
+        <f t="shared" ref="AG17:AG22" si="13">+$AE17*$R17*W17/10^6</f>
         <v>27.885831854150112</v>
       </c>
-      <c r="AG17" s="260">
-        <f t="shared" ref="AG17:AG22" si="14">+$AD17*$Q17*X17/10^6</f>
+      <c r="AH17" s="260">
+        <f t="shared" ref="AH17:AH22" si="14">+$AE17*$R17*Y17/10^6</f>
         <v>1.3278967549595292E-2</v>
       </c>
-      <c r="AH17" s="261">
-        <f t="shared" ref="AH17:AH22" si="15">+$AD17*$Q17*Z17/10^6</f>
+      <c r="AI17" s="261">
+        <f t="shared" ref="AI17:AI22" si="15">+$AE17*$R17*AA17/10^6</f>
         <v>1.2876574593546949E-3</v>
       </c>
-      <c r="AI17" s="114"/>
-      <c r="AJ17" s="264"/>
-      <c r="AK17" s="146"/>
-      <c r="AL17" s="135"/>
-      <c r="AM17" s="263">
-        <f t="shared" ref="AM17:AM22" si="16">+$L17*AJ17</f>
+      <c r="AJ17" s="114"/>
+      <c r="AK17" s="264"/>
+      <c r="AL17" s="146"/>
+      <c r="AM17" s="135"/>
+      <c r="AN17" s="263">
+        <f t="shared" ref="AN17:AN22" si="16">+$M17*AK17</f>
         <v>0</v>
       </c>
-      <c r="AN17" s="127">
-        <f t="shared" ref="AN17:AN22" si="17">+$L17*AK17</f>
+      <c r="AO17" s="127">
+        <f t="shared" ref="AO17:AO22" si="17">+$M17*AL17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="10" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:41" s="10" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A18" s="136" t="s">
         <v>327</v>
       </c>
@@ -35671,105 +35708,108 @@
       <c r="I18" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J18" s="259">
+      <c r="J18" s="125" t="s">
+        <v>558</v>
+      </c>
+      <c r="K18" s="259">
         <v>45713</v>
       </c>
-      <c r="K18" s="125" t="s">
+      <c r="L18" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L18" s="127">
+      <c r="M18" s="127">
         <f t="shared" si="9"/>
         <v>153.13855000000001</v>
       </c>
-      <c r="M18" s="128" t="s">
+      <c r="N18" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="114"/>
-      <c r="O18" s="129" t="s">
+      <c r="O18" s="114"/>
+      <c r="P18" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="130">
+      <c r="Q18" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D18,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q18" s="138">
+      <c r="R18" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D18,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R18" s="131" t="s">
+      <c r="S18" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="114"/>
-      <c r="T18" s="130">
+      <c r="T18" s="114"/>
+      <c r="U18" s="130">
         <f>+VLOOKUP($F18,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>8.993047180359568</v>
       </c>
-      <c r="U18" s="130" t="str">
+      <c r="V18" s="130" t="str">
         <f>+VLOOKUP($F18,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V18" s="399">
+      <c r="W18" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D18,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W18" s="135" t="s">
+      <c r="X18" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X18" s="138">
+      <c r="Y18" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D18,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y18" s="265" t="str">
+      <c r="Z18" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D18,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z18" s="135">
+      <c r="AA18" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D18,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA18" s="131" t="str">
+      <c r="AB18" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D18,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="133">
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="133">
         <f t="shared" si="10"/>
         <v>13.771822052818527</v>
       </c>
-      <c r="AD18" s="134">
+      <c r="AE18" s="134">
         <f t="shared" si="11"/>
         <v>11.621790761872168</v>
       </c>
-      <c r="AE18" s="134">
+      <c r="AF18" s="134">
         <f t="shared" si="12"/>
         <v>592.18834827119667</v>
       </c>
-      <c r="AF18" s="260">
+      <c r="AG18" s="260">
         <f t="shared" si="13"/>
         <v>37.030511904553286</v>
       </c>
-      <c r="AG18" s="260">
+      <c r="AH18" s="260">
         <f t="shared" si="14"/>
         <v>1.9489743107659627E-3</v>
       </c>
-      <c r="AH18" s="261">
+      <c r="AI18" s="261">
         <f t="shared" si="15"/>
         <v>1.9489743107659627E-3</v>
       </c>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="264"/>
-      <c r="AK18" s="146"/>
-      <c r="AL18" s="135"/>
-      <c r="AM18" s="263">
+      <c r="AJ18" s="114"/>
+      <c r="AK18" s="264"/>
+      <c r="AL18" s="146"/>
+      <c r="AM18" s="135"/>
+      <c r="AN18" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="127">
+      <c r="AO18" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="19" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A19" s="136" t="s">
         <v>327</v>
       </c>
@@ -35795,105 +35835,108 @@
       <c r="I19" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J19" s="259">
+      <c r="J19" s="125" t="s">
+        <v>557</v>
+      </c>
+      <c r="K19" s="259">
         <v>17543</v>
       </c>
-      <c r="K19" s="125" t="s">
+      <c r="L19" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L19" s="127">
+      <c r="M19" s="127">
         <f t="shared" si="9"/>
         <v>132.22159099999999</v>
       </c>
-      <c r="M19" s="134" t="s">
+      <c r="N19" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="114"/>
-      <c r="O19" s="129" t="s">
+      <c r="O19" s="114"/>
+      <c r="P19" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="130">
+      <c r="Q19" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D19,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q19" s="138">
+      <c r="R19" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D19,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R19" s="131" t="s">
+      <c r="S19" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="114"/>
-      <c r="T19" s="130">
+      <c r="T19" s="114"/>
+      <c r="U19" s="130">
         <f>+VLOOKUP($F19,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>12.14462025583671</v>
       </c>
-      <c r="U19" s="130" t="str">
+      <c r="V19" s="130" t="str">
         <f>+VLOOKUP($F19,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V19" s="399">
+      <c r="W19" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D19,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W19" s="135" t="s">
+      <c r="X19" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X19" s="138">
+      <c r="Y19" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D19,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y19" s="265" t="str">
+      <c r="Z19" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D19,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z19" s="135">
+      <c r="AA19" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D19,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA19" s="131" t="str">
+      <c r="AB19" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D19,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="133">
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="133">
         <f t="shared" si="10"/>
         <v>16.057810123175567</v>
       </c>
-      <c r="AD19" s="134">
+      <c r="AE19" s="134">
         <f t="shared" si="11"/>
         <v>11.894674165315234</v>
       </c>
-      <c r="AE19" s="134">
+      <c r="AF19" s="134">
         <f t="shared" si="12"/>
         <v>711.36098845667755</v>
       </c>
-      <c r="AF19" s="260">
+      <c r="AG19" s="260">
         <f t="shared" si="13"/>
         <v>36.516530740776112</v>
       </c>
-      <c r="AG19" s="260">
+      <c r="AH19" s="260">
         <f t="shared" si="14"/>
         <v>1.738882416227434E-2</v>
       </c>
-      <c r="AH19" s="261">
+      <c r="AI19" s="261">
         <f t="shared" si="15"/>
         <v>1.6861890096750876E-3</v>
       </c>
-      <c r="AI19" s="114"/>
-      <c r="AJ19" s="264"/>
-      <c r="AK19" s="146"/>
-      <c r="AL19" s="135"/>
-      <c r="AM19" s="263">
+      <c r="AJ19" s="114"/>
+      <c r="AK19" s="264"/>
+      <c r="AL19" s="146"/>
+      <c r="AM19" s="135"/>
+      <c r="AN19" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="127">
+      <c r="AO19" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="20" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A20" s="136" t="s">
         <v>327</v>
       </c>
@@ -35919,105 +35962,108 @@
       <c r="I20" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J20" s="259">
+      <c r="J20" s="125" t="s">
+        <v>558</v>
+      </c>
+      <c r="K20" s="259">
         <v>33731</v>
       </c>
-      <c r="K20" s="125" t="s">
+      <c r="L20" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L20" s="127">
+      <c r="M20" s="127">
         <f t="shared" si="9"/>
         <v>1564.9160139999999</v>
       </c>
-      <c r="M20" s="134" t="s">
+      <c r="N20" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="114"/>
-      <c r="O20" s="129" t="s">
+      <c r="O20" s="114"/>
+      <c r="P20" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P20" s="130">
+      <c r="Q20" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D20,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q20" s="138">
+      <c r="R20" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D20,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R20" s="131" t="s">
+      <c r="S20" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S20" s="114"/>
-      <c r="T20" s="130">
+      <c r="T20" s="114"/>
+      <c r="U20" s="130">
         <f>+VLOOKUP($F20,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>5.5139266792812744</v>
       </c>
-      <c r="U20" s="130" t="str">
+      <c r="V20" s="130" t="str">
         <f>+VLOOKUP($F20,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V20" s="399">
+      <c r="W20" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D20,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W20" s="135" t="s">
+      <c r="X20" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X20" s="138">
+      <c r="Y20" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D20,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y20" s="265" t="str">
+      <c r="Z20" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D20,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z20" s="135">
+      <c r="AA20" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D20,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA20" s="131" t="str">
+      <c r="AB20" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D20,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="133">
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="133">
         <f t="shared" si="10"/>
         <v>86.288321604291085</v>
       </c>
-      <c r="AD20" s="134">
+      <c r="AE20" s="134">
         <f t="shared" si="11"/>
         <v>72.817149033156994</v>
       </c>
-      <c r="AE20" s="134">
+      <c r="AF20" s="134">
         <f t="shared" si="12"/>
         <v>3710.3978289845168</v>
       </c>
-      <c r="AF20" s="260">
+      <c r="AG20" s="260">
         <f t="shared" si="13"/>
         <v>232.01728196434814</v>
       </c>
-      <c r="AG20" s="260">
+      <c r="AH20" s="260">
         <f t="shared" si="14"/>
         <v>1.2211435892860429E-2</v>
       </c>
-      <c r="AH20" s="261">
+      <c r="AI20" s="261">
         <f t="shared" si="15"/>
         <v>1.2211435892860429E-2</v>
       </c>
-      <c r="AI20" s="114"/>
-      <c r="AJ20" s="264"/>
-      <c r="AK20" s="146"/>
-      <c r="AL20" s="135"/>
-      <c r="AM20" s="263">
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="264"/>
+      <c r="AL20" s="146"/>
+      <c r="AM20" s="135"/>
+      <c r="AN20" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="127">
+      <c r="AO20" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="21" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A21" s="136" t="s">
         <v>327</v>
       </c>
@@ -36043,105 +36089,108 @@
       <c r="I21" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J21" s="259">
+      <c r="J21" s="125" t="s">
+        <v>557</v>
+      </c>
+      <c r="K21" s="259">
         <v>20792</v>
       </c>
-      <c r="K21" s="125" t="s">
+      <c r="L21" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L21" s="127">
+      <c r="M21" s="127">
         <f t="shared" si="9"/>
         <v>66.783904000000007</v>
       </c>
-      <c r="M21" s="134" t="s">
+      <c r="N21" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="114"/>
-      <c r="O21" s="129" t="s">
+      <c r="O21" s="114"/>
+      <c r="P21" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="130">
+      <c r="Q21" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D21,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q21" s="138">
+      <c r="R21" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D21,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R21" s="131" t="s">
+      <c r="S21" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="114"/>
-      <c r="T21" s="130">
+      <c r="T21" s="114"/>
+      <c r="U21" s="130">
         <f>+VLOOKUP($F21,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>7.2524898318561428</v>
       </c>
-      <c r="U21" s="130" t="str">
+      <c r="V21" s="130" t="str">
         <f>+VLOOKUP($F21,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V21" s="399">
+      <c r="W21" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D21,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W21" s="135" t="s">
+      <c r="X21" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X21" s="138">
+      <c r="Y21" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D21,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y21" s="265" t="str">
+      <c r="Z21" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D21,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z21" s="135">
+      <c r="AA21" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D21,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA21" s="131" t="str">
+      <c r="AB21" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D21,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="133">
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="133">
         <f t="shared" si="10"/>
         <v>4.8434958469165688</v>
       </c>
-      <c r="AD21" s="134">
+      <c r="AE21" s="134">
         <f t="shared" si="11"/>
         <v>3.5877747014196806</v>
       </c>
-      <c r="AE21" s="134">
+      <c r="AF21" s="134">
         <f t="shared" si="12"/>
         <v>214.56686601840397</v>
       </c>
-      <c r="AF21" s="260">
+      <c r="AG21" s="260">
         <f t="shared" si="13"/>
         <v>11.014432455611406</v>
       </c>
-      <c r="AG21" s="260">
+      <c r="AH21" s="260">
         <f t="shared" si="14"/>
         <v>5.2449678360054312E-3</v>
       </c>
-      <c r="AH21" s="261">
+      <c r="AI21" s="261">
         <f t="shared" si="15"/>
         <v>5.0860294167325395E-4</v>
       </c>
-      <c r="AI21" s="114"/>
-      <c r="AJ21" s="264"/>
-      <c r="AK21" s="146"/>
-      <c r="AL21" s="135"/>
-      <c r="AM21" s="263">
+      <c r="AJ21" s="114"/>
+      <c r="AK21" s="264"/>
+      <c r="AL21" s="146"/>
+      <c r="AM21" s="135"/>
+      <c r="AN21" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="127">
+      <c r="AO21" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="22" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A22" s="136" t="s">
         <v>327</v>
       </c>
@@ -36167,105 +36216,108 @@
       <c r="I22" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J22" s="259">
+      <c r="J22" s="125">
+        <v>970</v>
+      </c>
+      <c r="K22" s="259">
         <v>29449</v>
       </c>
-      <c r="K22" s="125" t="s">
+      <c r="L22" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L22" s="127">
+      <c r="M22" s="127">
         <f t="shared" si="9"/>
         <v>1473.274572</v>
       </c>
-      <c r="M22" s="134" t="s">
+      <c r="N22" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="114"/>
-      <c r="O22" s="129" t="s">
+      <c r="O22" s="114"/>
+      <c r="P22" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="130">
+      <c r="Q22" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D22,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q22" s="138">
+      <c r="R22" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D22,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R22" s="131" t="s">
+      <c r="S22" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S22" s="114"/>
-      <c r="T22" s="130">
+      <c r="T22" s="114"/>
+      <c r="U22" s="130">
         <f>+VLOOKUP($F22,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>9.3282933477082004</v>
       </c>
-      <c r="U22" s="130" t="str">
+      <c r="V22" s="130" t="str">
         <f>+VLOOKUP($F22,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V22" s="399">
+      <c r="W22" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D22,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W22" s="135" t="s">
+      <c r="X22" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X22" s="138">
+      <c r="Y22" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D22,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y22" s="265" t="str">
+      <c r="Z22" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D22,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z22" s="135">
+      <c r="AA22" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D22,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA22" s="131" t="str">
+      <c r="AB22" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D22,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="133">
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="133">
         <f t="shared" si="10"/>
         <v>137.43137389335246</v>
       </c>
-      <c r="AD22" s="134">
+      <c r="AE22" s="134">
         <f t="shared" si="11"/>
         <v>115.9758429479767</v>
       </c>
-      <c r="AE22" s="134">
+      <c r="AF22" s="134">
         <f t="shared" si="12"/>
         <v>5909.5490774141554</v>
       </c>
-      <c r="AF22" s="260">
+      <c r="AG22" s="260">
         <f t="shared" si="13"/>
         <v>369.53382838513824</v>
       </c>
-      <c r="AG22" s="260">
+      <c r="AH22" s="260">
         <f t="shared" si="14"/>
         <v>1.9449148862375695E-2</v>
       </c>
-      <c r="AH22" s="261">
+      <c r="AI22" s="261">
         <f t="shared" si="15"/>
         <v>1.9449148862375695E-2</v>
       </c>
-      <c r="AI22" s="114"/>
-      <c r="AJ22" s="264"/>
-      <c r="AK22" s="146"/>
-      <c r="AL22" s="135"/>
-      <c r="AM22" s="263">
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="264"/>
+      <c r="AL22" s="146"/>
+      <c r="AM22" s="135"/>
+      <c r="AN22" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="127">
+      <c r="AO22" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="9" customFormat="1" ht="16.5" customHeight="1">
+    <row r="23" spans="1:41" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="274" t="s">
         <v>82</v>
       </c>
@@ -36290,48 +36342,49 @@
         <v>10040.9999982394</v>
       </c>
       <c r="I23" s="140"/>
-      <c r="J23" s="428">
+      <c r="J23" s="140"/>
+      <c r="K23" s="428">
         <v>33731</v>
       </c>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142">
-        <f>+SUM(L24:L24)</f>
+      <c r="L23" s="141"/>
+      <c r="M23" s="142">
+        <f>+SUM(M24:M24)</f>
         <v>439.94641492285933</v>
       </c>
-      <c r="M23" s="143" t="s">
+      <c r="N23" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="139"/>
-      <c r="O23" s="144" t="s">
+      <c r="O23" s="139"/>
+      <c r="P23" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="274"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="275"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="274"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="400"/>
-      <c r="W23" s="113"/>
+      <c r="Q23" s="274"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="275"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="274"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="400"/>
       <c r="X23" s="113"/>
-      <c r="Y23" s="266"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="275"/>
-      <c r="AB23" s="123"/>
-      <c r="AC23" s="274"/>
-      <c r="AD23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="266"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="275"/>
+      <c r="AC23" s="123"/>
+      <c r="AD23" s="274"/>
       <c r="AE23" s="113"/>
-      <c r="AF23" s="262"/>
+      <c r="AF23" s="113"/>
       <c r="AG23" s="262"/>
-      <c r="AH23" s="278"/>
-      <c r="AI23" s="139"/>
-      <c r="AJ23" s="282"/>
-      <c r="AK23" s="113"/>
+      <c r="AH23" s="262"/>
+      <c r="AI23" s="278"/>
+      <c r="AJ23" s="139"/>
+      <c r="AK23" s="282"/>
       <c r="AL23" s="113"/>
-      <c r="AM23" s="262"/>
-      <c r="AN23" s="275"/>
-    </row>
-    <row r="24" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="262"/>
+      <c r="AO23" s="275"/>
+    </row>
+    <row r="24" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A24" s="136" t="s">
         <v>82</v>
       </c>
@@ -36357,105 +36410,108 @@
       <c r="I24" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J24" s="259">
+      <c r="J24" s="125">
+        <v>1158</v>
+      </c>
+      <c r="K24" s="259">
         <v>43815</v>
       </c>
-      <c r="K24" s="126" t="s">
+      <c r="L24" s="126" t="s">
         <v>398</v>
       </c>
-      <c r="L24" s="127">
-        <f>H24*J24/10^6</f>
+      <c r="M24" s="127">
+        <f>H24*K24/10^6</f>
         <v>439.94641492285933</v>
       </c>
-      <c r="M24" s="134" t="s">
+      <c r="N24" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="114"/>
-      <c r="O24" s="129" t="s">
+      <c r="O24" s="114"/>
+      <c r="P24" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P24" s="130">
+      <c r="Q24" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D24,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q24" s="138">
+      <c r="R24" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D24,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R24" s="131" t="s">
+      <c r="S24" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S24" s="114"/>
-      <c r="T24" s="130">
+      <c r="T24" s="114"/>
+      <c r="U24" s="130">
         <f>+VLOOKUP($F24,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>31.472793042125403</v>
       </c>
-      <c r="U24" s="130" t="str">
+      <c r="V24" s="130" t="str">
         <f>+VLOOKUP($F24,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V24" s="399">
+      <c r="W24" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D24,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W24" s="135" t="s">
+      <c r="X24" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X24" s="138">
+      <c r="Y24" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D24,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y24" s="265" t="str">
+      <c r="Z24" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D24,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z24" s="135">
+      <c r="AA24" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D24,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA24" s="131" t="str">
+      <c r="AB24" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D24,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="133">
-        <f>IFERROR(L24*T24/10^2,0)</f>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="133">
+        <f>IFERROR(M24*U24/10^2,0)</f>
         <v>138.46342466492183</v>
       </c>
-      <c r="AD24" s="134">
-        <f>+AC24*P24</f>
+      <c r="AE24" s="134">
+        <f>+AD24*Q24</f>
         <v>116.84677186913228</v>
       </c>
-      <c r="AE24" s="134">
-        <f>+AC24*Q24</f>
+      <c r="AF24" s="134">
+        <f>+AD24*R24</f>
         <v>5953.9272605916385</v>
       </c>
-      <c r="AF24" s="260">
-        <f>+$AD24*$Q24*V24/10^6</f>
+      <c r="AG24" s="260">
+        <f>+$AE24*$R24*W24/10^6</f>
         <v>372.30886920661618</v>
       </c>
-      <c r="AG24" s="260">
-        <f>+$AD24*$Q24*X24/10^6</f>
+      <c r="AH24" s="260">
+        <f>+$AE24*$R24*Y24/10^6</f>
         <v>1.9595203642453481E-2</v>
       </c>
-      <c r="AH24" s="261">
-        <f>+$AD24*$Q24*Z24/10^6</f>
+      <c r="AI24" s="261">
+        <f>+$AE24*$R24*AA24/10^6</f>
         <v>1.9595203642453481E-2</v>
       </c>
-      <c r="AI24" s="114"/>
-      <c r="AJ24" s="264"/>
-      <c r="AK24" s="146"/>
-      <c r="AL24" s="135"/>
-      <c r="AM24" s="263">
-        <f>+$L24*AJ24</f>
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="264"/>
+      <c r="AL24" s="146"/>
+      <c r="AM24" s="135"/>
+      <c r="AN24" s="263">
+        <f>+$M24*AK24</f>
         <v>0</v>
       </c>
-      <c r="AN24" s="127">
-        <f>+$L24*AK24</f>
+      <c r="AO24" s="127">
+        <f>+$M24*AL24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="9" customFormat="1" ht="16.5" customHeight="1">
+    <row r="25" spans="1:41" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="274" t="s">
         <v>85</v>
       </c>
@@ -36480,49 +36536,50 @@
         <v>73276.346164327508</v>
       </c>
       <c r="I25" s="140"/>
-      <c r="J25" s="428">
-        <f>+L25/H25*10^6</f>
+      <c r="J25" s="140"/>
+      <c r="K25" s="428">
+        <f>+M25/H25*10^6</f>
         <v>49849.206774592923</v>
       </c>
-      <c r="K25" s="147"/>
-      <c r="L25" s="142">
-        <f>+SUM(L26:L33)</f>
+      <c r="L25" s="147"/>
+      <c r="M25" s="142">
+        <f>+SUM(M26:M33)</f>
         <v>3652.7677316322111</v>
       </c>
-      <c r="M25" s="143" t="s">
+      <c r="N25" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="139"/>
-      <c r="O25" s="144" t="s">
+      <c r="O25" s="139"/>
+      <c r="P25" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="P25" s="274"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="275"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="274"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="400"/>
-      <c r="W25" s="113"/>
+      <c r="Q25" s="274"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="275"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="274"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="400"/>
       <c r="X25" s="113"/>
-      <c r="Y25" s="266"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="275"/>
-      <c r="AB25" s="123"/>
-      <c r="AC25" s="274"/>
-      <c r="AD25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="266"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="275"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="274"/>
       <c r="AE25" s="113"/>
-      <c r="AF25" s="262"/>
+      <c r="AF25" s="113"/>
       <c r="AG25" s="262"/>
-      <c r="AH25" s="278"/>
-      <c r="AI25" s="139"/>
-      <c r="AJ25" s="282"/>
-      <c r="AK25" s="113"/>
+      <c r="AH25" s="262"/>
+      <c r="AI25" s="278"/>
+      <c r="AJ25" s="139"/>
+      <c r="AK25" s="282"/>
       <c r="AL25" s="113"/>
-      <c r="AM25" s="262"/>
-      <c r="AN25" s="275"/>
-    </row>
-    <row r="26" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="262"/>
+      <c r="AO25" s="275"/>
+    </row>
+    <row r="26" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A26" s="136" t="s">
         <v>328</v>
       </c>
@@ -36548,105 +36605,106 @@
       <c r="I26" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J26" s="259">
+      <c r="J26" s="125"/>
+      <c r="K26" s="259">
         <v>48383</v>
       </c>
-      <c r="K26" s="125" t="s">
+      <c r="L26" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L26" s="127">
-        <f t="shared" ref="L26:L33" si="18">H26*J26/1000000</f>
+      <c r="M26" s="127">
+        <f t="shared" ref="M26:M33" si="18">H26*K26/1000000</f>
         <v>602.2907799285523</v>
       </c>
-      <c r="M26" s="134" t="s">
+      <c r="N26" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="114"/>
-      <c r="O26" s="129" t="s">
+      <c r="O26" s="114"/>
+      <c r="P26" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P26" s="130">
+      <c r="Q26" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D26,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q26" s="138">
+      <c r="R26" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D26,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R26" s="131" t="s">
+      <c r="S26" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="114"/>
-      <c r="T26" s="130">
+      <c r="T26" s="114"/>
+      <c r="U26" s="130">
         <f>+VLOOKUP($F26,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>13.147411562137476</v>
       </c>
-      <c r="U26" s="130" t="str">
+      <c r="V26" s="130" t="str">
         <f>+VLOOKUP($F26,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V26" s="399">
+      <c r="W26" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D26,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W26" s="135" t="s">
+      <c r="X26" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X26" s="138">
+      <c r="Y26" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D26,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y26" s="265" t="str">
+      <c r="Z26" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D26,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z26" s="135">
+      <c r="AA26" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D26,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA26" s="131" t="str">
+      <c r="AB26" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D26,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="133">
-        <f t="shared" ref="AC26:AC33" si="19">IFERROR(L26*T26/10^2,0)</f>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="133">
+        <f t="shared" ref="AD26:AD33" si="19">IFERROR(M26*U26/10^2,0)</f>
         <v>79.185647638014458</v>
       </c>
-      <c r="AD26" s="134">
-        <f t="shared" ref="AD26:AD33" si="20">+AC26*P26</f>
+      <c r="AE26" s="134">
+        <f t="shared" ref="AE26:AE33" si="20">+AD26*Q26</f>
         <v>66.823331340096559</v>
       </c>
-      <c r="AE26" s="134">
-        <f t="shared" ref="AE26:AE33" si="21">+AC26*Q26</f>
+      <c r="AF26" s="134">
+        <f t="shared" ref="AF26:AF33" si="21">+AD26*R26</f>
         <v>3404.9828484346217</v>
       </c>
-      <c r="AF26" s="260">
-        <f t="shared" ref="AF26:AF33" si="22">+$AD26*$Q26*V26/10^6</f>
+      <c r="AG26" s="260">
+        <f t="shared" ref="AG26:AG33" si="22">+$AE26*$R26*W26/10^6</f>
         <v>212.91918064894966</v>
       </c>
-      <c r="AG26" s="260">
-        <f t="shared" ref="AG26:AG33" si="23">+$AD26*$Q26*X26/10^6</f>
+      <c r="AH26" s="260">
+        <f t="shared" ref="AH26:AH33" si="23">+$AE26*$R26*Y26/10^6</f>
         <v>1.1206272665734191E-2</v>
       </c>
-      <c r="AH26" s="261">
-        <f t="shared" ref="AH26:AH33" si="24">+$AD26*$Q26*Z26/10^6</f>
+      <c r="AI26" s="261">
+        <f t="shared" ref="AI26:AI33" si="24">+$AE26*$R26*AA26/10^6</f>
         <v>1.1206272665734191E-2</v>
       </c>
-      <c r="AI26" s="114"/>
-      <c r="AJ26" s="283"/>
-      <c r="AK26" s="135"/>
+      <c r="AJ26" s="114"/>
+      <c r="AK26" s="283"/>
       <c r="AL26" s="135"/>
-      <c r="AM26" s="263">
-        <f t="shared" ref="AM26:AN32" si="25">+$L26*AJ26</f>
+      <c r="AM26" s="135"/>
+      <c r="AN26" s="263">
+        <f t="shared" ref="AN26:AO32" si="25">+$M26*AK26</f>
         <v>0</v>
       </c>
-      <c r="AN26" s="127">
+      <c r="AO26" s="127">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="27" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A27" s="136" t="s">
         <v>328</v>
       </c>
@@ -36672,103 +36730,104 @@
       <c r="I27" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J27" s="259">
+      <c r="J27" s="125"/>
+      <c r="K27" s="259">
         <v>35823.496448204911</v>
       </c>
-      <c r="K27" s="125" t="s">
+      <c r="L27" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L27" s="127">
+      <c r="M27" s="127">
         <f t="shared" si="18"/>
         <v>1035.1557498656002</v>
       </c>
-      <c r="M27" s="134"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="129" t="s">
+      <c r="N27" s="134"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P27" s="130">
+      <c r="Q27" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D27,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q27" s="138">
+      <c r="R27" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D27,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R27" s="131" t="s">
+      <c r="S27" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S27" s="114"/>
-      <c r="T27" s="130">
+      <c r="T27" s="114"/>
+      <c r="U27" s="130">
         <f>+VLOOKUP($F27,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>19.892987701977304</v>
       </c>
-      <c r="U27" s="130" t="str">
+      <c r="V27" s="130" t="str">
         <f>+VLOOKUP($F27,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V27" s="399">
+      <c r="W27" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D27,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W27" s="135" t="s">
+      <c r="X27" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X27" s="138">
+      <c r="Y27" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D27,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y27" s="265" t="str">
+      <c r="Z27" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D27,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z27" s="135">
+      <c r="AA27" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D27,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA27" s="131" t="str">
+      <c r="AB27" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D27,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="133">
-        <f>IFERROR(L27*T27/10^2,0)</f>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="133">
+        <f>IFERROR(M27*U27/10^2,0)</f>
         <v>205.92340601707483</v>
       </c>
-      <c r="AD27" s="134">
-        <f>+AC27*P27</f>
+      <c r="AE27" s="134">
+        <f>+AD27*Q27</f>
         <v>173.77502617474661</v>
       </c>
-      <c r="AE27" s="134">
-        <f>+AC27*Q27</f>
+      <c r="AF27" s="134">
+        <f>+AD27*R27</f>
         <v>8854.7064587342174</v>
       </c>
-      <c r="AF27" s="260">
-        <f>+$AD27*$Q27*V27/10^6</f>
+      <c r="AG27" s="260">
+        <f>+$AE27*$R27*W27/10^6</f>
         <v>553.69936590059501</v>
       </c>
-      <c r="AG27" s="260">
-        <f>+$AD27*$Q27*X27/10^6</f>
+      <c r="AH27" s="260">
+        <f>+$AE27*$R27*Y27/10^6</f>
         <v>2.9142071889505006E-2</v>
       </c>
-      <c r="AH27" s="261">
-        <f>+$AD27*$Q27*Z27/10^6</f>
+      <c r="AI27" s="261">
+        <f>+$AE27*$R27*AA27/10^6</f>
         <v>2.9142071889505006E-2</v>
       </c>
-      <c r="AI27" s="114"/>
-      <c r="AJ27" s="283"/>
-      <c r="AK27" s="135"/>
+      <c r="AJ27" s="114"/>
+      <c r="AK27" s="283"/>
       <c r="AL27" s="135"/>
-      <c r="AM27" s="263">
-        <f t="shared" ref="AM27:AN29" si="26">+$L27*AJ27</f>
+      <c r="AM27" s="135"/>
+      <c r="AN27" s="263">
+        <f t="shared" ref="AN27:AO29" si="26">+$M27*AK27</f>
         <v>0</v>
       </c>
-      <c r="AN27" s="127">
+      <c r="AO27" s="127">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="28" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A28" s="136" t="s">
         <v>328</v>
       </c>
@@ -36794,105 +36853,106 @@
       <c r="I28" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J28" s="259">
+      <c r="J28" s="125"/>
+      <c r="K28" s="259">
         <v>35823.496441538315</v>
       </c>
-      <c r="K28" s="125" t="s">
+      <c r="L28" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L28" s="127">
+      <c r="M28" s="127">
         <f t="shared" si="18"/>
         <v>18.01171014693864</v>
       </c>
-      <c r="M28" s="134" t="s">
+      <c r="N28" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="114"/>
-      <c r="O28" s="129" t="s">
+      <c r="O28" s="114"/>
+      <c r="P28" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="130">
+      <c r="Q28" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D28,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q28" s="138">
+      <c r="R28" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D28,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R28" s="131" t="s">
+      <c r="S28" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S28" s="114"/>
-      <c r="T28" s="130">
+      <c r="T28" s="114"/>
+      <c r="U28" s="130">
         <f>+VLOOKUP($F28,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>21.68997684397555</v>
       </c>
-      <c r="U28" s="130" t="str">
+      <c r="V28" s="130" t="str">
         <f>+VLOOKUP($F28,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V28" s="399">
+      <c r="W28" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D28,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W28" s="135" t="s">
+      <c r="X28" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X28" s="138">
+      <c r="Y28" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D28,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y28" s="265" t="str">
+      <c r="Z28" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D28,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z28" s="135">
+      <c r="AA28" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D28,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA28" s="131" t="str">
+      <c r="AB28" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D28,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="133">
-        <f>IFERROR(L28*T28/10^2,0)</f>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="133">
+        <f>IFERROR(M28*U28/10^2,0)</f>
         <v>3.9067357600749859</v>
       </c>
-      <c r="AD28" s="134">
-        <f>+AC28*P28</f>
+      <c r="AE28" s="134">
+        <f>+AD28*Q28</f>
         <v>3.2968234262236153</v>
       </c>
-      <c r="AE28" s="134">
-        <f>+AC28*Q28</f>
+      <c r="AF28" s="134">
+        <f>+AD28*R28</f>
         <v>167.9896376832244</v>
       </c>
-      <c r="AF28" s="260">
-        <f>+$AD28*$Q28*V28/10^6</f>
+      <c r="AG28" s="260">
+        <f>+$AE28*$R28*W28/10^6</f>
         <v>10.504668482976305</v>
       </c>
-      <c r="AG28" s="260">
-        <f>+$AD28*$Q28*X28/10^6</f>
+      <c r="AH28" s="260">
+        <f>+$AE28*$R28*Y28/10^6</f>
         <v>5.5287728857770027E-4</v>
       </c>
-      <c r="AH28" s="261">
-        <f>+$AD28*$Q28*Z28/10^6</f>
+      <c r="AI28" s="261">
+        <f>+$AE28*$R28*AA28/10^6</f>
         <v>5.5287728857770027E-4</v>
       </c>
-      <c r="AI28" s="114"/>
-      <c r="AJ28" s="283"/>
-      <c r="AK28" s="135"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="283"/>
       <c r="AL28" s="135"/>
-      <c r="AM28" s="263">
+      <c r="AM28" s="135"/>
+      <c r="AN28" s="263">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="127">
+      <c r="AO28" s="127">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="29" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A29" s="136" t="s">
         <v>328</v>
       </c>
@@ -36918,101 +36978,102 @@
       <c r="I29" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J29" s="259">
+      <c r="J29" s="125"/>
+      <c r="K29" s="259">
         <v>25588.21174787085</v>
       </c>
-      <c r="K29" s="125" t="s">
+      <c r="L29" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L29" s="127">
+      <c r="M29" s="127">
         <f t="shared" si="18"/>
         <v>5.471537554329224</v>
       </c>
-      <c r="M29" s="134"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="130">
+      <c r="N29" s="134"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D29,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q29" s="138">
+      <c r="R29" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D29,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R29" s="131" t="s">
+      <c r="S29" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S29" s="114"/>
-      <c r="T29" s="130">
+      <c r="T29" s="114"/>
+      <c r="U29" s="130">
         <f>+VLOOKUP($F29,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>26.340080307106955</v>
       </c>
-      <c r="U29" s="130" t="str">
+      <c r="V29" s="130" t="str">
         <f>+VLOOKUP($F29,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V29" s="399">
+      <c r="W29" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D29,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W29" s="135" t="s">
+      <c r="X29" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X29" s="138">
+      <c r="Y29" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D29,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y29" s="265" t="str">
+      <c r="Z29" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D29,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z29" s="135">
+      <c r="AA29" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D29,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA29" s="131" t="str">
+      <c r="AB29" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D29,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="133">
-        <f>IFERROR(L29*T29/10^2,0)</f>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="133">
+        <f>IFERROR(M29*U29/10^2,0)</f>
         <v>1.4412073858438332</v>
       </c>
-      <c r="AD29" s="134">
-        <f>+AC29*P29</f>
+      <c r="AE29" s="134">
+        <f>+AD29*Q29</f>
         <v>1.2162087644251751</v>
       </c>
-      <c r="AE29" s="134">
-        <f>+AC29*Q29</f>
+      <c r="AF29" s="134">
+        <f>+AD29*R29</f>
         <v>61.971917591284829</v>
       </c>
-      <c r="AF29" s="260">
-        <f>+$AD29*$Q29*V29/10^6</f>
+      <c r="AG29" s="260">
+        <f>+$AE29*$R29*W29/10^6</f>
         <v>3.8752059860879355</v>
       </c>
-      <c r="AG29" s="260">
-        <f>+$AD29*$Q29*X29/10^6</f>
+      <c r="AH29" s="260">
+        <f>+$AE29*$R29*Y29/10^6</f>
         <v>2.0395820979410186E-4</v>
       </c>
-      <c r="AH29" s="261">
-        <f>+$AD29*$Q29*Z29/10^6</f>
+      <c r="AI29" s="261">
+        <f>+$AE29*$R29*AA29/10^6</f>
         <v>2.0395820979410186E-4</v>
       </c>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="283"/>
-      <c r="AK29" s="135"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="283"/>
       <c r="AL29" s="135"/>
-      <c r="AM29" s="263">
+      <c r="AM29" s="135"/>
+      <c r="AN29" s="263">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="127">
+      <c r="AO29" s="127">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="30" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A30" s="136" t="s">
         <v>328</v>
       </c>
@@ -37038,105 +37099,106 @@
       <c r="I30" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J30" s="259">
+      <c r="J30" s="125"/>
+      <c r="K30" s="259">
         <v>19830.864104290176</v>
       </c>
-      <c r="K30" s="125" t="s">
+      <c r="L30" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L30" s="127">
+      <c r="M30" s="127">
         <f t="shared" si="18"/>
         <v>1.489884890111761</v>
       </c>
-      <c r="M30" s="134" t="s">
+      <c r="N30" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="114"/>
-      <c r="O30" s="129" t="s">
+      <c r="O30" s="114"/>
+      <c r="P30" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P30" s="130">
+      <c r="Q30" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D30,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q30" s="138">
+      <c r="R30" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D30,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R30" s="131" t="s">
+      <c r="S30" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S30" s="114"/>
-      <c r="T30" s="130">
+      <c r="T30" s="114"/>
+      <c r="U30" s="130">
         <f>+VLOOKUP($F30,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>33.447202226294607</v>
       </c>
-      <c r="U30" s="130" t="str">
+      <c r="V30" s="130" t="str">
         <f>+VLOOKUP($F30,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V30" s="399">
+      <c r="W30" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D30,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W30" s="135" t="s">
+      <c r="X30" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X30" s="138">
+      <c r="Y30" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D30,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y30" s="265" t="str">
+      <c r="Z30" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D30,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z30" s="135">
+      <c r="AA30" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D30,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA30" s="131" t="str">
+      <c r="AB30" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D30,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="133">
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="133">
         <f t="shared" si="19"/>
         <v>0.49832481213468788</v>
       </c>
-      <c r="AD30" s="134">
+      <c r="AE30" s="134">
         <f t="shared" si="20"/>
         <v>0.42052726762420894</v>
       </c>
-      <c r="AE30" s="134">
+      <c r="AF30" s="134">
         <f t="shared" si="21"/>
         <v>21.42796692179158</v>
       </c>
-      <c r="AF30" s="260">
+      <c r="AG30" s="260">
         <f t="shared" si="22"/>
         <v>1.3399260328310172</v>
       </c>
-      <c r="AG30" s="260">
+      <c r="AH30" s="260">
         <f t="shared" si="23"/>
         <v>7.0522422780579846E-5</v>
       </c>
-      <c r="AH30" s="261">
+      <c r="AI30" s="261">
         <f t="shared" si="24"/>
         <v>7.0522422780579846E-5</v>
       </c>
-      <c r="AI30" s="114"/>
-      <c r="AJ30" s="283"/>
-      <c r="AK30" s="135"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="283"/>
       <c r="AL30" s="135"/>
-      <c r="AM30" s="263">
+      <c r="AM30" s="135"/>
+      <c r="AN30" s="263">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="127">
+      <c r="AO30" s="127">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="31" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A31" s="136" t="s">
         <v>328</v>
       </c>
@@ -37162,103 +37224,104 @@
       <c r="I31" s="125" t="s">
         <v>430</v>
       </c>
-      <c r="J31" s="259">
+      <c r="J31" s="125"/>
+      <c r="K31" s="259">
         <v>63205.000019242638</v>
       </c>
-      <c r="K31" s="125" t="s">
+      <c r="L31" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L31" s="127">
+      <c r="M31" s="127">
         <f t="shared" si="18"/>
         <v>963.8989347852347</v>
       </c>
-      <c r="M31" s="134"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="129" t="s">
+      <c r="N31" s="134"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P31" s="130">
+      <c r="Q31" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D31,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q31" s="138">
+      <c r="R31" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D31,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R31" s="131" t="s">
+      <c r="S31" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="114"/>
-      <c r="T31" s="130">
+      <c r="T31" s="114"/>
+      <c r="U31" s="130">
         <f>+VLOOKUP($F31,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>33.296768532153472</v>
       </c>
-      <c r="U31" s="130" t="str">
+      <c r="V31" s="130" t="str">
         <f>+VLOOKUP($F31,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V31" s="399">
+      <c r="W31" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D31,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W31" s="135" t="s">
+      <c r="X31" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="138">
+      <c r="Y31" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D31,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y31" s="265" t="str">
+      <c r="Z31" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D31,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z31" s="135">
+      <c r="AA31" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D31,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA31" s="131" t="str">
+      <c r="AB31" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D31,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="133">
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="133">
         <f t="shared" si="19"/>
         <v>320.94719719933255</v>
       </c>
-      <c r="AD31" s="134">
+      <c r="AE31" s="134">
         <f t="shared" si="20"/>
         <v>270.84151662390917</v>
       </c>
-      <c r="AE31" s="134">
+      <c r="AF31" s="134">
         <f t="shared" si="21"/>
         <v>13800.729479571299</v>
       </c>
-      <c r="AF31" s="260">
+      <c r="AG31" s="260">
         <f t="shared" si="22"/>
         <v>862.98232441876178</v>
       </c>
-      <c r="AG31" s="260">
+      <c r="AH31" s="260">
         <f t="shared" si="23"/>
         <v>4.542012233782957E-2</v>
       </c>
-      <c r="AH31" s="261">
+      <c r="AI31" s="261">
         <f t="shared" si="24"/>
         <v>4.542012233782957E-2</v>
       </c>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="283"/>
-      <c r="AK31" s="135"/>
+      <c r="AJ31" s="114"/>
+      <c r="AK31" s="283"/>
       <c r="AL31" s="135"/>
-      <c r="AM31" s="263">
+      <c r="AM31" s="135"/>
+      <c r="AN31" s="263">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="127">
+      <c r="AO31" s="127">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="32" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A32" s="136" t="s">
         <v>328</v>
       </c>
@@ -37284,105 +37347,106 @@
       <c r="I32" s="125" t="s">
         <v>430</v>
       </c>
-      <c r="J32" s="259">
+      <c r="J32" s="125"/>
+      <c r="K32" s="259">
         <v>63205.000019242638</v>
       </c>
-      <c r="K32" s="125" t="s">
+      <c r="L32" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L32" s="127">
+      <c r="M32" s="127">
         <f t="shared" si="18"/>
         <v>15.519720240830861</v>
       </c>
-      <c r="M32" s="134" t="s">
+      <c r="N32" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="114"/>
-      <c r="O32" s="129" t="s">
+      <c r="O32" s="114"/>
+      <c r="P32" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P32" s="130">
+      <c r="Q32" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D32,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q32" s="138">
+      <c r="R32" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D32,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R32" s="131" t="s">
+      <c r="S32" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S32" s="114"/>
-      <c r="T32" s="130">
+      <c r="T32" s="114"/>
+      <c r="U32" s="130">
         <f>+VLOOKUP($F32,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>35.328671498464004</v>
       </c>
-      <c r="U32" s="130" t="str">
+      <c r="V32" s="130" t="str">
         <f>+VLOOKUP($F32,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V32" s="399">
+      <c r="W32" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D32,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W32" s="135" t="s">
+      <c r="X32" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X32" s="138">
+      <c r="Y32" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D32,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y32" s="265" t="str">
+      <c r="Z32" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D32,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z32" s="135">
+      <c r="AA32" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D32,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA32" s="131" t="str">
+      <c r="AB32" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D32,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="133">
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="133">
         <f t="shared" si="19"/>
         <v>5.4829109813637613</v>
       </c>
-      <c r="AD32" s="134">
+      <c r="AE32" s="134">
         <f t="shared" si="20"/>
         <v>4.6269290981972642</v>
       </c>
-      <c r="AE32" s="134">
+      <c r="AF32" s="134">
         <f t="shared" si="21"/>
         <v>235.76517219864175</v>
       </c>
-      <c r="AF32" s="260">
+      <c r="AG32" s="260">
         <f t="shared" si="22"/>
         <v>14.742784185585943</v>
       </c>
-      <c r="AG32" s="260">
+      <c r="AH32" s="260">
         <f t="shared" si="23"/>
         <v>7.759360097676812E-4</v>
       </c>
-      <c r="AH32" s="261">
+      <c r="AI32" s="261">
         <f t="shared" si="24"/>
         <v>7.759360097676812E-4</v>
       </c>
-      <c r="AI32" s="114"/>
-      <c r="AJ32" s="283"/>
-      <c r="AK32" s="135"/>
+      <c r="AJ32" s="114"/>
+      <c r="AK32" s="283"/>
       <c r="AL32" s="135"/>
-      <c r="AM32" s="263">
+      <c r="AM32" s="135"/>
+      <c r="AN32" s="263">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="127">
+      <c r="AO32" s="127">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="33" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A33" s="136" t="s">
         <v>328</v>
       </c>
@@ -37408,101 +37472,102 @@
       <c r="I33" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J33" s="259">
+      <c r="J33" s="125"/>
+      <c r="K33" s="259">
         <v>64619.68726522303</v>
       </c>
-      <c r="K33" s="125" t="s">
+      <c r="L33" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L33" s="127">
+      <c r="M33" s="127">
         <f t="shared" si="18"/>
         <v>1010.9294142206136</v>
       </c>
-      <c r="M33" s="134"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="130">
+      <c r="N33" s="134"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D33,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.84388185654008396</v>
       </c>
-      <c r="Q33" s="138">
+      <c r="R33" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D33,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="R33" s="131" t="s">
+      <c r="S33" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S33" s="114"/>
-      <c r="T33" s="130">
+      <c r="T33" s="114"/>
+      <c r="U33" s="130">
         <f>+VLOOKUP($F33,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>41.04115290356016</v>
       </c>
-      <c r="U33" s="130" t="str">
+      <c r="V33" s="130" t="str">
         <f>+VLOOKUP($F33,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V33" s="399">
+      <c r="W33" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D33,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>74100</v>
       </c>
-      <c r="W33" s="135" t="s">
+      <c r="X33" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X33" s="138">
+      <c r="Y33" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D33,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="Y33" s="265" t="str">
+      <c r="Z33" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D33,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="Z33" s="135">
+      <c r="AA33" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D33,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.9</v>
       </c>
-      <c r="AA33" s="131" t="str">
+      <c r="AB33" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D33,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Gas/ Diesel Oil</v>
       </c>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="133">
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="133">
         <f t="shared" si="19"/>
         <v>414.89708663734712</v>
       </c>
-      <c r="AD33" s="134">
+      <c r="AE33" s="134">
         <f t="shared" si="20"/>
         <v>350.12412374459655</v>
       </c>
-      <c r="AE33" s="134">
+      <c r="AF33" s="134">
         <f t="shared" si="21"/>
         <v>17840.574725405924</v>
       </c>
-      <c r="AF33" s="260">
+      <c r="AG33" s="260">
         <f t="shared" si="22"/>
         <v>1115.6004954874079</v>
       </c>
-      <c r="AG33" s="260">
+      <c r="AH33" s="260">
         <f t="shared" si="23"/>
         <v>5.8715815551968836E-2</v>
       </c>
-      <c r="AH33" s="261">
+      <c r="AI33" s="261">
         <f t="shared" si="24"/>
         <v>5.8715815551968836E-2</v>
       </c>
-      <c r="AI33" s="114"/>
-      <c r="AJ33" s="283"/>
-      <c r="AK33" s="135"/>
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="283"/>
       <c r="AL33" s="135"/>
-      <c r="AM33" s="263">
-        <f>+$L33*AJ33</f>
+      <c r="AM33" s="135"/>
+      <c r="AN33" s="263">
+        <f>+$M33*AK33</f>
         <v>0</v>
       </c>
-      <c r="AN33" s="127">
-        <f>+$L33*AK33</f>
+      <c r="AO33" s="127">
+        <f>+$M33*AL33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="9" customFormat="1">
+    <row r="34" spans="1:41" s="9" customFormat="1">
       <c r="A34" s="274" t="s">
         <v>90</v>
       </c>
@@ -37525,49 +37590,50 @@
         <v>539767.9995584162</v>
       </c>
       <c r="I34" s="113"/>
-      <c r="J34" s="428">
-        <f>+L34/H34*10^6</f>
+      <c r="J34" s="268"/>
+      <c r="K34" s="428">
+        <f>+M34/H34*10^6</f>
         <v>17807.000000872667</v>
       </c>
-      <c r="K34" s="113"/>
-      <c r="L34" s="142">
-        <f>+SUM(L35:L37)</f>
+      <c r="L34" s="113"/>
+      <c r="M34" s="142">
+        <f>+SUM(M35:M37)</f>
         <v>9611.6487686077544</v>
       </c>
-      <c r="M34" s="148" t="s">
+      <c r="N34" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="N34" s="114"/>
-      <c r="O34" s="119" t="s">
+      <c r="O34" s="114"/>
+      <c r="P34" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="274"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="275"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="274"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="400"/>
-      <c r="W34" s="113"/>
+      <c r="Q34" s="274"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="275"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="274"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="400"/>
       <c r="X34" s="113"/>
-      <c r="Y34" s="266"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="275"/>
-      <c r="AB34" s="123"/>
-      <c r="AC34" s="274"/>
-      <c r="AD34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="266"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="275"/>
+      <c r="AC34" s="123"/>
+      <c r="AD34" s="274"/>
       <c r="AE34" s="113"/>
-      <c r="AF34" s="262"/>
+      <c r="AF34" s="113"/>
       <c r="AG34" s="262"/>
-      <c r="AH34" s="278"/>
-      <c r="AI34" s="114"/>
-      <c r="AJ34" s="282"/>
-      <c r="AK34" s="113"/>
+      <c r="AH34" s="262"/>
+      <c r="AI34" s="278"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="282"/>
       <c r="AL34" s="113"/>
-      <c r="AM34" s="262"/>
-      <c r="AN34" s="275"/>
-    </row>
-    <row r="35" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="262"/>
+      <c r="AO34" s="275"/>
+    </row>
+    <row r="35" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A35" s="136" t="s">
         <v>329</v>
       </c>
@@ -37593,105 +37659,106 @@
       <c r="I35" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J35" s="259">
+      <c r="J35" s="125"/>
+      <c r="K35" s="259">
         <v>17807.000000872664</v>
       </c>
-      <c r="K35" s="125" t="s">
+      <c r="L35" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L35" s="127">
-        <f>H35*J35/1000000</f>
+      <c r="M35" s="127">
+        <f>H35*K35/1000000</f>
         <v>6119.4660053550097</v>
       </c>
-      <c r="M35" s="134" t="s">
+      <c r="N35" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="114"/>
-      <c r="O35" s="129" t="s">
+      <c r="O35" s="114"/>
+      <c r="P35" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P35" s="130">
+      <c r="Q35" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D35,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q35" s="138">
+      <c r="R35" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D35,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R35" s="131" t="s">
+      <c r="S35" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S35" s="114"/>
-      <c r="T35" s="130">
+      <c r="T35" s="114"/>
+      <c r="U35" s="130">
         <f>+VLOOKUP($F35,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>3.2234487182264586</v>
       </c>
-      <c r="U35" s="130" t="str">
+      <c r="V35" s="130" t="str">
         <f>+VLOOKUP($F35,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V35" s="399">
+      <c r="W35" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D35,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W35" s="135" t="s">
+      <c r="X35" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X35" s="138">
+      <c r="Y35" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D35,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y35" s="265" t="str">
+      <c r="Z35" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D35,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z35" s="135">
+      <c r="AA35" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D35,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA35" s="131" t="str">
+      <c r="AB35" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D35,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB35" s="132"/>
-      <c r="AC35" s="133">
-        <f>IFERROR(L35*T35/10^2,0)</f>
+      <c r="AC35" s="132"/>
+      <c r="AD35" s="133">
+        <f>IFERROR(M35*U35/10^2,0)</f>
         <v>197.25784851191992</v>
       </c>
-      <c r="AD35" s="134">
-        <f>+AC35*P35</f>
+      <c r="AE35" s="134">
+        <f>+AD35*Q35</f>
         <v>146.11692482364438</v>
       </c>
-      <c r="AE35" s="134">
-        <f>+AC35*Q35</f>
+      <c r="AF35" s="134">
+        <f>+AD35*R35</f>
         <v>8738.5226890780523</v>
       </c>
-      <c r="AF35" s="260">
-        <f>+$AD35*$Q35*V35/10^6</f>
+      <c r="AG35" s="260">
+        <f>+$AE35*$R35*W35/10^6</f>
         <v>448.57749803933996</v>
       </c>
-      <c r="AG35" s="260">
-        <f>+$AE35*X35/10^6</f>
+      <c r="AH35" s="260">
+        <f>+$AF35*Y35/10^6</f>
         <v>0.28837124873957576</v>
       </c>
-      <c r="AH35" s="261">
-        <f>+$AE35*Z35/10^6</f>
+      <c r="AI35" s="261">
+        <f>+$AF35*AA35/10^6</f>
         <v>2.7963272605049768E-2</v>
       </c>
-      <c r="AI35" s="114"/>
-      <c r="AJ35" s="264"/>
-      <c r="AK35" s="146"/>
-      <c r="AL35" s="135"/>
-      <c r="AM35" s="260">
-        <f t="shared" ref="AM35:AN37" si="27">+$L35*AJ35</f>
+      <c r="AJ35" s="114"/>
+      <c r="AK35" s="264"/>
+      <c r="AL35" s="146"/>
+      <c r="AM35" s="135"/>
+      <c r="AN35" s="260">
+        <f t="shared" ref="AN35:AO37" si="27">+$M35*AK35</f>
         <v>0</v>
       </c>
-      <c r="AN35" s="149">
+      <c r="AO35" s="149">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="36" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A36" s="136" t="s">
         <v>329</v>
       </c>
@@ -37717,105 +37784,106 @@
       <c r="I36" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J36" s="259">
+      <c r="J36" s="125"/>
+      <c r="K36" s="259">
         <v>17807.000000872664</v>
       </c>
-      <c r="K36" s="125" t="s">
+      <c r="L36" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L36" s="127">
-        <f>H36*J36/1000000</f>
+      <c r="M36" s="127">
+        <f>H36*K36/1000000</f>
         <v>3341.045290226506</v>
       </c>
-      <c r="M36" s="134" t="s">
+      <c r="N36" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="114"/>
-      <c r="O36" s="129" t="s">
+      <c r="O36" s="114"/>
+      <c r="P36" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P36" s="130">
+      <c r="Q36" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D36,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q36" s="138">
+      <c r="R36" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D36,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R36" s="131" t="s">
+      <c r="S36" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S36" s="114"/>
-      <c r="T36" s="130">
+      <c r="T36" s="114"/>
+      <c r="U36" s="130">
         <f>+VLOOKUP($F36,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>4.7985389408111425</v>
       </c>
-      <c r="U36" s="130" t="str">
+      <c r="V36" s="130" t="str">
         <f>+VLOOKUP($F36,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V36" s="399">
+      <c r="W36" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D36,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W36" s="135" t="s">
+      <c r="X36" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X36" s="138">
+      <c r="Y36" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D36,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y36" s="265" t="str">
+      <c r="Z36" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D36,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z36" s="135">
+      <c r="AA36" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D36,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA36" s="131" t="str">
+      <c r="AB36" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D36,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB36" s="132"/>
-      <c r="AC36" s="133">
-        <f>IFERROR(L36*T36/10^2,0)</f>
+      <c r="AC36" s="132"/>
+      <c r="AD36" s="133">
+        <f>IFERROR(M36*U36/10^2,0)</f>
         <v>160.32135928165556</v>
       </c>
-      <c r="AD36" s="134">
-        <f>+AC36*P36</f>
+      <c r="AE36" s="134">
+        <f>+AD36*Q36</f>
         <v>118.75656243085596</v>
       </c>
-      <c r="AE36" s="134">
-        <f>+AC36*Q36</f>
+      <c r="AF36" s="134">
+        <f>+AD36*R36</f>
         <v>7102.2362161773408</v>
       </c>
-      <c r="AF36" s="260">
-        <f>+$AD36*$Q36*V36/10^6</f>
+      <c r="AG36" s="260">
+        <f>+$AE36*$R36*W36/10^6</f>
         <v>364.5814590971035</v>
       </c>
-      <c r="AG36" s="260">
-        <f>+$AE36*X36/10^6</f>
+      <c r="AH36" s="260">
+        <f>+$AF36*Y36/10^6</f>
         <v>0.23437379513385226</v>
       </c>
-      <c r="AH36" s="261">
-        <f>+$AE36*Z36/10^6</f>
+      <c r="AI36" s="261">
+        <f>+$AF36*AA36/10^6</f>
         <v>2.2727155891767492E-2</v>
       </c>
-      <c r="AI36" s="114"/>
-      <c r="AJ36" s="264"/>
-      <c r="AK36" s="146"/>
-      <c r="AL36" s="135"/>
-      <c r="AM36" s="260">
+      <c r="AJ36" s="114"/>
+      <c r="AK36" s="264"/>
+      <c r="AL36" s="146"/>
+      <c r="AM36" s="135"/>
+      <c r="AN36" s="260">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="149">
+      <c r="AO36" s="149">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="10" customFormat="1" outlineLevel="1">
+    <row r="37" spans="1:41" s="10" customFormat="1" outlineLevel="1">
       <c r="A37" s="136" t="s">
         <v>329</v>
       </c>
@@ -37841,312 +37909,313 @@
       <c r="I37" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="J37" s="259">
+      <c r="J37" s="125"/>
+      <c r="K37" s="259">
         <v>17807.000000872664</v>
       </c>
-      <c r="K37" s="125" t="s">
+      <c r="L37" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="L37" s="127">
-        <f>H37*J37/1000000</f>
+      <c r="M37" s="127">
+        <f>H37*K37/1000000</f>
         <v>151.13747302623713</v>
       </c>
-      <c r="M37" s="134" t="s">
+      <c r="N37" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="114"/>
-      <c r="O37" s="129" t="s">
+      <c r="O37" s="114"/>
+      <c r="P37" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="130">
+      <c r="Q37" s="130">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D37,'Default Parameter'!$A$8:$M$25,4,FALSE)</f>
         <v>0.7407407407407407</v>
       </c>
-      <c r="Q37" s="138">
+      <c r="R37" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D37,'Default Parameter'!$A$8:$M$25,3,FALSE)</f>
         <v>44.3</v>
       </c>
-      <c r="R37" s="131" t="s">
+      <c r="S37" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="S37" s="114"/>
-      <c r="T37" s="130">
+      <c r="T37" s="114"/>
+      <c r="U37" s="130">
         <f>+VLOOKUP($F37,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,9,FALSE)</f>
         <v>4.7985389408111425</v>
       </c>
-      <c r="U37" s="130" t="str">
+      <c r="V37" s="130" t="str">
         <f>+VLOOKUP($F37,'(Edited)Spec. Fuel Consumption '!$A$4:$J$163,10,FALSE)</f>
         <v>Infras,2018</v>
       </c>
-      <c r="V37" s="399">
+      <c r="W37" s="399">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D37,'Default Parameter'!$A$8:$M$25,5,FALSE)</f>
         <v>69300</v>
       </c>
-      <c r="W37" s="135" t="s">
+      <c r="X37" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="X37" s="138">
+      <c r="Y37" s="138">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D37,'Default Parameter'!$A$8:$M$25,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="Y37" s="265" t="str">
+      <c r="Z37" s="265" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D37,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="Z37" s="135">
+      <c r="AA37" s="135">
         <f>+VLOOKUP($B$1&amp;" - "&amp;$D37,'Default Parameter'!$A$8:$M$25,11,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="AA37" s="131" t="str">
+      <c r="AB37" s="131" t="str">
         <f>+"IPCC 2006 - "&amp;+VLOOKUP($B$1&amp;" - "&amp;$D37,'Default Parameter'!$A$8:$M$25,2,FALSE)</f>
         <v>IPCC 2006 - Motor Gasoline- uncontrolled</v>
       </c>
-      <c r="AB37" s="132"/>
-      <c r="AC37" s="133">
-        <f>IFERROR(L37*T37/10^2,0)</f>
+      <c r="AC37" s="132"/>
+      <c r="AD37" s="133">
+        <f>IFERROR(M37*U37/10^2,0)</f>
         <v>7.252390497321926</v>
       </c>
-      <c r="AD37" s="134">
-        <f>+AC37*P37</f>
+      <c r="AE37" s="134">
+        <f>+AD37*Q37</f>
         <v>5.3721411091273525</v>
       </c>
-      <c r="AE37" s="134">
-        <f>+AC37*Q37</f>
+      <c r="AF37" s="134">
+        <f>+AD37*R37</f>
         <v>321.28089903136129</v>
       </c>
-      <c r="AF37" s="260">
-        <f>+$AD37*$Q37*V37/10^6</f>
+      <c r="AG37" s="260">
+        <f>+$AE37*$R37*W37/10^6</f>
         <v>16.492419483609883</v>
       </c>
-      <c r="AG37" s="260">
-        <f>+$AE37*X37/10^6</f>
+      <c r="AH37" s="260">
+        <f>+$AF37*Y37/10^6</f>
         <v>1.0602269668034922E-2</v>
       </c>
-      <c r="AH37" s="261">
-        <f>+$AE37*Z37/10^6</f>
+      <c r="AI37" s="261">
+        <f>+$AF37*AA37/10^6</f>
         <v>1.0280988769003562E-3</v>
       </c>
-      <c r="AI37" s="114"/>
-      <c r="AJ37" s="264"/>
-      <c r="AK37" s="146"/>
-      <c r="AL37" s="135"/>
-      <c r="AM37" s="260">
+      <c r="AJ37" s="114"/>
+      <c r="AK37" s="264"/>
+      <c r="AL37" s="146"/>
+      <c r="AM37" s="135"/>
+      <c r="AN37" s="260">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="149">
+      <c r="AO37" s="149">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="AJ38" s="1"/>
+    <row r="38" spans="1:41">
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
-      <c r="AN38" s="1"/>
-    </row>
-    <row r="39" spans="1:40">
+      <c r="AM38" s="1"/>
+      <c r="AO38" s="1"/>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="11"/>
       <c r="H39" s="1">
         <f>H9/46850</f>
         <v>11.364055509257399</v>
       </c>
-      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
-      <c r="AN39" s="1"/>
-    </row>
-    <row r="40" spans="1:40">
+      <c r="AM39" s="1"/>
+      <c r="AO39" s="1"/>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:41">
       <c r="A41" s="11"/>
-      <c r="AD41" s="447"/>
-    </row>
-    <row r="42" spans="1:40">
+      <c r="AE41" s="447"/>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42" s="11"/>
-      <c r="S42" s="1"/>
-      <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:40">
+      <c r="T42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43" s="11"/>
-      <c r="S43" s="1"/>
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:40">
+      <c r="T43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44" s="11"/>
-      <c r="S44" s="1"/>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:40">
+      <c r="T44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45" s="11"/>
-      <c r="S45" s="1"/>
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:40">
+      <c r="T45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46" s="11"/>
-      <c r="S46" s="1"/>
-      <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:40">
+      <c r="T46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47" s="11"/>
-      <c r="S47" s="1"/>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:40">
+      <c r="T47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48" s="11"/>
-      <c r="S48" s="1"/>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="T48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="11"/>
-      <c r="S49" s="1"/>
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="T49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="11"/>
-      <c r="S50" s="1"/>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="T50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="11"/>
-      <c r="S51" s="1"/>
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="S52" s="1"/>
-      <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="S53" s="1"/>
-      <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="S54" s="1"/>
-      <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="S55" s="1"/>
-      <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="S56" s="1"/>
-      <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="S57" s="1"/>
-      <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="S58" s="1"/>
-      <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="K59" s="5"/>
-      <c r="S59" s="1"/>
-      <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="1:21">
-      <c r="K60" s="5"/>
-      <c r="S60" s="1"/>
-      <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="K61" s="5"/>
-      <c r="S61" s="1"/>
-      <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="K62" s="5"/>
-      <c r="S62" s="1"/>
-      <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="K63" s="5"/>
-      <c r="S63" s="1"/>
-      <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="K64" s="5"/>
-      <c r="S64" s="1"/>
-      <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="11:21">
-      <c r="K65" s="5"/>
-      <c r="S65" s="1"/>
-      <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="11:21">
-      <c r="K66" s="5"/>
-      <c r="S66" s="1"/>
-      <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="11:21">
-      <c r="K67" s="5"/>
-      <c r="S67" s="1"/>
-      <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="11:21">
-      <c r="K68" s="5"/>
-      <c r="S68" s="1"/>
-      <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="11:21">
-      <c r="K69" s="5"/>
-      <c r="S69" s="1"/>
-      <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="11:21">
-      <c r="S70" s="1"/>
-      <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="11:21">
-      <c r="S71" s="1"/>
-      <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="11:21">
-      <c r="S72" s="1"/>
-      <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="11:21">
-      <c r="S73" s="1"/>
-      <c r="U73" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="T52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="T53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="T54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="T55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="T56" s="1"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="T57" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="T58" s="1"/>
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="L59" s="5"/>
+      <c r="T59" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="L60" s="5"/>
+      <c r="T60" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="L61" s="5"/>
+      <c r="T61" s="1"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="L62" s="5"/>
+      <c r="T62" s="1"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="L63" s="5"/>
+      <c r="T63" s="1"/>
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="L64" s="5"/>
+      <c r="T64" s="1"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="12:22">
+      <c r="L65" s="5"/>
+      <c r="T65" s="1"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="12:22">
+      <c r="L66" s="5"/>
+      <c r="T66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="12:22">
+      <c r="L67" s="5"/>
+      <c r="T67" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="12:22">
+      <c r="L68" s="5"/>
+      <c r="T68" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="12:22">
+      <c r="L69" s="5"/>
+      <c r="T69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="12:22">
+      <c r="T70" s="1"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="12:22">
+      <c r="T71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="12:22">
+      <c r="T72" s="1"/>
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="12:22">
+      <c r="T73" s="1"/>
+      <c r="V73" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:AH38" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A7:AI38" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
-    <filterColumn colId="16" showButton="0"/>
-    <filterColumn colId="21" showButton="0"/>
-    <filterColumn colId="23" showButton="0"/>
-    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AJ6:AN6"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AK6:AO6"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="W7:X7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="AC6:AH6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -38244,97 +38313,97 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="63" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="565" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="566"/>
     </row>
     <row r="5" spans="1:28" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A5" s="598"/>
-      <c r="B5" s="598"/>
-      <c r="C5" s="598"/>
+      <c r="A5" s="596"/>
+      <c r="B5" s="596"/>
+      <c r="C5" s="596"/>
       <c r="AA5" s="335"/>
     </row>
     <row r="6" spans="1:28" ht="19.899999999999999" thickBot="1">
-      <c r="A6" s="599" t="s">
+      <c r="A6" s="591" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="600"/>
-      <c r="C6" s="601"/>
+      <c r="B6" s="592"/>
+      <c r="C6" s="593"/>
       <c r="D6" s="335"/>
-      <c r="E6" s="562" t="s">
+      <c r="E6" s="563" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="564"/>
       <c r="G6" s="335"/>
-      <c r="H6" s="562" t="s">
+      <c r="H6" s="563" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="564"/>
       <c r="J6" s="335"/>
-      <c r="K6" s="562" t="s">
+      <c r="K6" s="563" t="s">
         <v>321</v>
       </c>
-      <c r="L6" s="563"/>
-      <c r="M6" s="563"/>
-      <c r="N6" s="563"/>
-      <c r="O6" s="563"/>
-      <c r="P6" s="563"/>
-      <c r="Q6" s="563"/>
-      <c r="R6" s="563"/>
+      <c r="L6" s="567"/>
+      <c r="M6" s="567"/>
+      <c r="N6" s="567"/>
+      <c r="O6" s="567"/>
+      <c r="P6" s="567"/>
+      <c r="Q6" s="567"/>
+      <c r="R6" s="567"/>
       <c r="S6" s="564"/>
       <c r="T6" s="335"/>
-      <c r="U6" s="562" t="s">
+      <c r="U6" s="563" t="s">
         <v>284</v>
       </c>
-      <c r="V6" s="563"/>
+      <c r="V6" s="567"/>
       <c r="W6" s="564"/>
       <c r="X6" s="335"/>
-      <c r="Y6" s="599" t="s">
+      <c r="Y6" s="591" t="s">
         <v>364</v>
       </c>
-      <c r="Z6" s="600"/>
-      <c r="AA6" s="600"/>
-      <c r="AB6" s="601"/>
+      <c r="Z6" s="592"/>
+      <c r="AA6" s="592"/>
+      <c r="AB6" s="593"/>
     </row>
     <row r="7" spans="1:28" s="64" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="590" t="s">
+      <c r="A7" s="597" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="598" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="594" t="s">
+      <c r="C7" s="599" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="61"/>
-      <c r="E7" s="596" t="s">
+      <c r="E7" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="597"/>
+      <c r="F7" s="602"/>
       <c r="G7" s="61"/>
-      <c r="H7" s="591" t="s">
+      <c r="H7" s="594" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="595"/>
+      <c r="I7" s="600"/>
       <c r="J7" s="61"/>
-      <c r="K7" s="591" t="s">
+      <c r="K7" s="594" t="s">
         <v>231</v>
       </c>
-      <c r="L7" s="593"/>
-      <c r="M7" s="593"/>
-      <c r="N7" s="593" t="s">
+      <c r="L7" s="595"/>
+      <c r="M7" s="595"/>
+      <c r="N7" s="595" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="593"/>
-      <c r="P7" s="593" t="s">
+      <c r="O7" s="595"/>
+      <c r="P7" s="595" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="593"/>
-      <c r="R7" s="593" t="s">
+      <c r="Q7" s="595"/>
+      <c r="R7" s="595" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="595"/>
+      <c r="S7" s="600"/>
       <c r="T7" s="61"/>
       <c r="U7" s="153" t="s">
         <v>25</v>
@@ -38355,14 +38424,14 @@
       <c r="AA7" s="361" t="s">
         <v>358</v>
       </c>
-      <c r="AB7" s="569" t="s">
+      <c r="AB7" s="572" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="39" customHeight="1">
-      <c r="A8" s="591"/>
-      <c r="B8" s="593"/>
-      <c r="C8" s="595"/>
+      <c r="A8" s="594"/>
+      <c r="B8" s="595"/>
+      <c r="C8" s="600"/>
       <c r="D8" s="61"/>
       <c r="E8" s="355" t="s">
         <v>38</v>
@@ -38425,7 +38494,7 @@
       <c r="AA8" s="354" t="s">
         <v>243</v>
       </c>
-      <c r="AB8" s="570"/>
+      <c r="AB8" s="573"/>
     </row>
     <row r="9" spans="1:28" ht="15.75">
       <c r="A9" s="381" t="s">
@@ -38641,6 +38710,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="U6:W6"/>
     <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="Y6:AB6"/>
@@ -38648,17 +38728,6 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="K6:S6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38754,10 +38823,10 @@
       </c>
     </row>
     <row r="4" spans="1:39" s="66" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="565" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="566"/>
     </row>
     <row r="5" spans="1:39" s="66" customFormat="1" ht="99.75" customHeight="1" thickBot="1">
       <c r="A5" s="67"/>
@@ -38766,113 +38835,113 @@
       <c r="Z5" s="68"/>
     </row>
     <row r="6" spans="1:39" ht="19.899999999999999" thickBot="1">
-      <c r="A6" s="562" t="s">
+      <c r="A6" s="563" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="563"/>
+      <c r="B6" s="567"/>
       <c r="C6" s="564"/>
       <c r="D6"/>
-      <c r="E6" s="562" t="s">
+      <c r="E6" s="563" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="563"/>
-      <c r="G6" s="563"/>
-      <c r="H6" s="563"/>
-      <c r="I6" s="563"/>
-      <c r="J6" s="563"/>
-      <c r="K6" s="563"/>
-      <c r="L6" s="563"/>
-      <c r="M6" s="563"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="567"/>
+      <c r="I6" s="567"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="567"/>
+      <c r="L6" s="567"/>
+      <c r="M6" s="567"/>
       <c r="N6" s="564"/>
       <c r="O6"/>
-      <c r="P6" s="562" t="s">
+      <c r="P6" s="563" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="564"/>
       <c r="R6"/>
-      <c r="S6" s="562" t="s">
+      <c r="S6" s="563" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="563"/>
-      <c r="U6" s="563"/>
-      <c r="V6" s="563"/>
-      <c r="W6" s="563"/>
-      <c r="X6" s="563"/>
-      <c r="Y6" s="563"/>
-      <c r="Z6" s="563"/>
-      <c r="AA6" s="563"/>
+      <c r="T6" s="567"/>
+      <c r="U6" s="567"/>
+      <c r="V6" s="567"/>
+      <c r="W6" s="567"/>
+      <c r="X6" s="567"/>
+      <c r="Y6" s="567"/>
+      <c r="Z6" s="567"/>
+      <c r="AA6" s="567"/>
       <c r="AB6" s="564"/>
       <c r="AC6"/>
-      <c r="AD6" s="562" t="s">
+      <c r="AD6" s="563" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="563"/>
-      <c r="AF6" s="563"/>
+      <c r="AE6" s="567"/>
+      <c r="AF6" s="567"/>
       <c r="AG6" s="564"/>
       <c r="AH6"/>
-      <c r="AI6" s="562" t="s">
+      <c r="AI6" s="563" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="563"/>
-      <c r="AK6" s="563"/>
+      <c r="AJ6" s="567"/>
+      <c r="AK6" s="567"/>
       <c r="AL6" s="564"/>
       <c r="AM6" s="69"/>
     </row>
     <row r="7" spans="1:39" s="69" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A7" s="602" t="s">
+      <c r="A7" s="603" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="604" t="s">
+      <c r="B7" s="605" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="606" t="s">
+      <c r="C7" s="607" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="81"/>
-      <c r="E7" s="576" t="s">
+      <c r="E7" s="577" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="577"/>
-      <c r="G7" s="579" t="s">
+      <c r="F7" s="578"/>
+      <c r="G7" s="580" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="577"/>
-      <c r="I7" s="579" t="s">
+      <c r="H7" s="578"/>
+      <c r="I7" s="580" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="577"/>
-      <c r="K7" s="579" t="s">
+      <c r="J7" s="578"/>
+      <c r="K7" s="580" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="589"/>
-      <c r="M7" s="577" t="s">
+      <c r="L7" s="579"/>
+      <c r="M7" s="578" t="s">
         <v>249</v>
       </c>
-      <c r="N7" s="578"/>
+      <c r="N7" s="581"/>
       <c r="O7" s="81"/>
-      <c r="P7" s="573" t="s">
+      <c r="P7" s="561" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="574"/>
+      <c r="Q7" s="576"/>
       <c r="R7" s="81"/>
-      <c r="S7" s="576" t="s">
+      <c r="S7" s="577" t="s">
         <v>250</v>
       </c>
-      <c r="T7" s="577"/>
-      <c r="U7" s="577"/>
-      <c r="V7" s="577"/>
-      <c r="W7" s="579" t="s">
+      <c r="T7" s="578"/>
+      <c r="U7" s="578"/>
+      <c r="V7" s="578"/>
+      <c r="W7" s="580" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="589"/>
-      <c r="Y7" s="577" t="s">
+      <c r="X7" s="579"/>
+      <c r="Y7" s="578" t="s">
         <v>22</v>
       </c>
-      <c r="Z7" s="589"/>
-      <c r="AA7" s="588" t="s">
+      <c r="Z7" s="579"/>
+      <c r="AA7" s="590" t="s">
         <v>23</v>
       </c>
-      <c r="AB7" s="574"/>
+      <c r="AB7" s="576"/>
       <c r="AC7" s="81"/>
       <c r="AD7" s="241" t="s">
         <v>24</v>
@@ -38901,9 +38970,9 @@
       </c>
     </row>
     <row r="8" spans="1:39" s="69" customFormat="1" ht="47.25">
-      <c r="A8" s="603"/>
-      <c r="B8" s="605"/>
-      <c r="C8" s="607"/>
+      <c r="A8" s="604"/>
+      <c r="B8" s="606"/>
+      <c r="C8" s="608"/>
       <c r="D8" s="87"/>
       <c r="E8" s="288" t="s">
         <v>254</v>
@@ -39728,11 +39797,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:AB6"/>
+    <mergeCell ref="AD6:AG6"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="S7:V7"/>
     <mergeCell ref="AA7:AB7"/>
@@ -39742,12 +39812,11 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="S6:AB6"/>
-    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="W7:X7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" location="'Top-Down Validation'!H9" display="→Go to: Top-Down Validation" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -40507,81 +40576,81 @@
       </c>
     </row>
     <row r="4" spans="1:55" s="63" customFormat="1" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A4" s="560" t="s">
+      <c r="A4" s="565" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="561"/>
+      <c r="B4" s="566"/>
     </row>
     <row r="5" spans="1:55" ht="101.25" customHeight="1" thickBot="1">
-      <c r="A5" s="598"/>
-      <c r="B5" s="598"/>
-      <c r="C5" s="598"/>
-      <c r="D5" s="598"/>
-      <c r="E5" s="598"/>
-      <c r="F5" s="598"/>
-      <c r="G5" s="598"/>
+      <c r="A5" s="596"/>
+      <c r="B5" s="596"/>
+      <c r="C5" s="596"/>
+      <c r="D5" s="596"/>
+      <c r="E5" s="596"/>
+      <c r="F5" s="596"/>
+      <c r="G5" s="596"/>
     </row>
     <row r="6" spans="1:55" ht="19.899999999999999" thickBot="1">
-      <c r="A6" s="562" t="s">
+      <c r="A6" s="563" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="563"/>
-      <c r="C6" s="563"/>
-      <c r="D6" s="563"/>
-      <c r="E6" s="563"/>
-      <c r="F6" s="563"/>
+      <c r="B6" s="567"/>
+      <c r="C6" s="567"/>
+      <c r="D6" s="567"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
       <c r="G6" s="564"/>
       <c r="H6"/>
-      <c r="I6" s="562" t="s">
+      <c r="I6" s="563" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="563"/>
-      <c r="K6" s="563"/>
-      <c r="L6" s="563"/>
-      <c r="M6" s="563"/>
-      <c r="N6" s="563"/>
-      <c r="O6" s="563"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="567"/>
+      <c r="L6" s="567"/>
+      <c r="M6" s="567"/>
+      <c r="N6" s="567"/>
+      <c r="O6" s="567"/>
       <c r="P6" s="564"/>
       <c r="Q6"/>
-      <c r="R6" s="562" t="s">
+      <c r="R6" s="563" t="s">
         <v>5</v>
       </c>
       <c r="S6" s="564"/>
       <c r="T6"/>
-      <c r="U6" s="562" t="s">
+      <c r="U6" s="563" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="563"/>
-      <c r="W6" s="563"/>
-      <c r="X6" s="563"/>
-      <c r="Y6" s="563"/>
-      <c r="Z6" s="563"/>
-      <c r="AA6" s="563"/>
-      <c r="AB6" s="563"/>
-      <c r="AC6" s="563"/>
-      <c r="AD6" s="563"/>
-      <c r="AE6" s="563"/>
+      <c r="V6" s="567"/>
+      <c r="W6" s="567"/>
+      <c r="X6" s="567"/>
+      <c r="Y6" s="567"/>
+      <c r="Z6" s="567"/>
+      <c r="AA6" s="567"/>
+      <c r="AB6" s="567"/>
+      <c r="AC6" s="567"/>
+      <c r="AD6" s="567"/>
+      <c r="AE6" s="567"/>
       <c r="AF6" s="564"/>
       <c r="AG6"/>
-      <c r="AH6" s="562" t="s">
+      <c r="AH6" s="563" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="563"/>
-      <c r="AJ6" s="563"/>
+      <c r="AI6" s="567"/>
+      <c r="AJ6" s="567"/>
       <c r="AK6" s="564"/>
       <c r="AL6"/>
-      <c r="AM6" s="612" t="s">
+      <c r="AM6" s="610" t="s">
         <v>8</v>
       </c>
-      <c r="AN6" s="613"/>
-      <c r="AO6" s="613"/>
-      <c r="AP6" s="613"/>
-      <c r="AQ6" s="613"/>
-      <c r="AR6" s="613"/>
-      <c r="AS6" s="613"/>
-      <c r="AT6" s="613"/>
-      <c r="AU6" s="613"/>
-      <c r="AV6" s="614"/>
+      <c r="AN6" s="611"/>
+      <c r="AO6" s="611"/>
+      <c r="AP6" s="611"/>
+      <c r="AQ6" s="611"/>
+      <c r="AR6" s="611"/>
+      <c r="AS6" s="611"/>
+      <c r="AT6" s="611"/>
+      <c r="AU6" s="611"/>
+      <c r="AV6" s="612"/>
       <c r="AX6" s="533" t="s">
         <v>537</v>
       </c>
@@ -40599,70 +40668,70 @@
       </c>
     </row>
     <row r="7" spans="1:55" s="64" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A7" s="590" t="s">
+      <c r="A7" s="597" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="598" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="592" t="s">
+      <c r="C7" s="598" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="592" t="s">
+      <c r="D7" s="598" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="592" t="s">
+      <c r="E7" s="598" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="608"/>
-      <c r="G7" s="594"/>
+      <c r="F7" s="613"/>
+      <c r="G7" s="599"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="591" t="s">
+      <c r="I7" s="594" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="593"/>
-      <c r="K7" s="609" t="s">
+      <c r="J7" s="595"/>
+      <c r="K7" s="614" t="s">
         <v>225</v>
       </c>
-      <c r="L7" s="610"/>
+      <c r="L7" s="615"/>
       <c r="M7" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="N7" s="593" t="s">
+      <c r="N7" s="595" t="s">
         <v>227</v>
       </c>
-      <c r="O7" s="593"/>
+      <c r="O7" s="595"/>
       <c r="P7" s="152" t="s">
         <v>228</v>
       </c>
       <c r="Q7" s="18"/>
-      <c r="R7" s="591" t="s">
+      <c r="R7" s="594" t="s">
         <v>229</v>
       </c>
-      <c r="S7" s="595"/>
+      <c r="S7" s="600"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="591" t="s">
+      <c r="U7" s="594" t="s">
         <v>230</v>
       </c>
-      <c r="V7" s="593"/>
-      <c r="W7" s="593" t="s">
+      <c r="V7" s="595"/>
+      <c r="W7" s="595" t="s">
         <v>265</v>
       </c>
-      <c r="X7" s="593"/>
-      <c r="Y7" s="593"/>
-      <c r="Z7" s="593"/>
-      <c r="AA7" s="593" t="s">
+      <c r="X7" s="595"/>
+      <c r="Y7" s="595"/>
+      <c r="Z7" s="595"/>
+      <c r="AA7" s="595" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="593"/>
-      <c r="AC7" s="593" t="s">
+      <c r="AB7" s="595"/>
+      <c r="AC7" s="595" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="593"/>
-      <c r="AE7" s="593" t="s">
+      <c r="AD7" s="595"/>
+      <c r="AE7" s="595" t="s">
         <v>23</v>
       </c>
-      <c r="AF7" s="595"/>
+      <c r="AF7" s="600"/>
       <c r="AG7" s="18"/>
       <c r="AH7" s="153" t="s">
         <v>24</v>
@@ -40677,20 +40746,20 @@
         <v>27</v>
       </c>
       <c r="AL7" s="18"/>
-      <c r="AM7" s="603" t="s">
+      <c r="AM7" s="604" t="s">
         <v>232</v>
       </c>
-      <c r="AN7" s="611"/>
-      <c r="AO7" s="611"/>
-      <c r="AP7" s="611"/>
-      <c r="AQ7" s="611" t="s">
+      <c r="AN7" s="609"/>
+      <c r="AO7" s="609"/>
+      <c r="AP7" s="609"/>
+      <c r="AQ7" s="609" t="s">
         <v>233</v>
       </c>
-      <c r="AR7" s="611"/>
-      <c r="AS7" s="611" t="s">
+      <c r="AR7" s="609"/>
+      <c r="AS7" s="609" t="s">
         <v>234</v>
       </c>
-      <c r="AT7" s="611"/>
+      <c r="AT7" s="609"/>
       <c r="AU7" s="389" t="s">
         <v>236</v>
       </c>
@@ -40714,10 +40783,10 @@
       </c>
     </row>
     <row r="8" spans="1:55" ht="94.5">
-      <c r="A8" s="591"/>
-      <c r="B8" s="593"/>
-      <c r="C8" s="593"/>
-      <c r="D8" s="593"/>
+      <c r="A8" s="594"/>
+      <c r="B8" s="595"/>
+      <c r="C8" s="595"/>
+      <c r="D8" s="595"/>
       <c r="E8" s="154" t="s">
         <v>266</v>
       </c>
@@ -41787,6 +41856,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="AE7:AF7"/>
@@ -41803,15 +41881,6 @@
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <phoneticPr fontId="108" type="noConversion"/>
   <hyperlinks>
@@ -41825,12 +41894,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42063,15 +42129,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474379E8-E25F-4617-90FA-2442CE6DA6E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26C0072D-8C61-41CF-8BA6-9BE56A72138A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="29f9fecb-a2e2-46d1-a4c5-f3d81a64ae02"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="35accaf2-c3cf-48a6-bf2c-71bf5406864a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42096,18 +42174,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26C0072D-8C61-41CF-8BA6-9BE56A72138A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474379E8-E25F-4617-90FA-2442CE6DA6E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="29f9fecb-a2e2-46d1-a4c5-f3d81a64ae02"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="35accaf2-c3cf-48a6-bf2c-71bf5406864a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>